--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -286,7 +286,7 @@
     <t>Annual Bonus Policy,Local market Salary Benchmark</t>
   </si>
   <si>
-    <t>Privacy Impact Assessment (PIA),Maintenance of Register of Processing Activities (RoPA),EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation or update of Data Deletion and Retention concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection of Large 2B Transactions,General Requests to Legal Department,Mail Intake Process,RoPA Reporting,User Term Changes</t>
+    <t>Privacy Impact Assessment - PIA,Maintenance of Register of Processing Activities (RoPA),EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation or update of Data Deletion and Retention concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection of Large 2B Transactions,General Requests to Legal Department,Mail Intake Process,RoPA Reporting,User Term Changes</t>
   </si>
   <si>
     <t>NIO Life return order process,NIO Life new product launch process,NIO Life NH, NS, NSC display process,NIO Life Country Artist Selection,NIO Life Uniform process,NIO Life Order to Delivery Process,NIO Life product pricing definition,NIO Life Stock Planning SOP,NIO Life internal usage request,NIO Life product selection process</t>
@@ -367,10 +367,10 @@
     <t>Network Development Dashboard Report Standard,Location Approval Process,Network Location Planning,Location Scouting Process,Scouting Vendor Selection and management process</t>
   </si>
   <si>
-    <t>EU NH design and approval process,Design vendor pool selection process,EU NIO House, Space, Hub design guidline,,Budget approval and management process (including change mana),DOA and paymanet process,Budget making and rolling process,Network development manager selects design vendor</t>
-  </si>
-  <si>
-    <t>Construction management process (including managing vendors),Construction vendor pool selection and management process,NH, NS, Nhub opening preparation standard,NH, NS, Nhub operation management,EU POS Infrastructure projects tracking and change management</t>
+    <t>EU NH design and approval process,Design vendor pool selection process,EU NIO House, Space, Hub design guidline,,Budget approval and management process -including change mana,DOA and paymanet process,Budget making and rolling process,Network development manager selects design vendor</t>
+  </si>
+  <si>
+    <t>Construction management process -including managing vendors,Construction vendor pool selection and management process,NH, NS, Nhub opening preparation standard,NH, NS, Nhub operation management,EU POS Infrastructure projects tracking and change management</t>
   </si>
   <si>
     <t>Daily NH Store Closing SOP,Daily NH Store Opening SOP,NIO House Purchase Consumables,NIO House Reception Process,Space Reservation Operation,NIO House vehicle information display Standard,NIO House Property Insurance Process,NIO House parts display standard,NIO House NHS shift management</t>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="185">
   <si>
     <t>Capability</t>
   </si>
@@ -229,6 +229,21 @@
     <t>COE-Product_Marketing</t>
   </si>
   <si>
+    <t>EU_Service_Network</t>
+  </si>
+  <si>
+    <t>EU_service_partners_cooperation</t>
+  </si>
+  <si>
+    <t>EU_Service_Product</t>
+  </si>
+  <si>
+    <t>EU_Service_Resources</t>
+  </si>
+  <si>
+    <t>EU_Service_SOPBlue_Book</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -307,7 +322,7 @@
     <t>CJ test 3,Power Procurement,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order to Delivery,Power EU Supply Chain Order to Delivery - PSS Direct to Site,Power EU Supply Chain Order to Delivery - Internal Use,Power EU Supply Chain Order to Delivery - User Orders via NIO App,Power EU Supply Chain Order to Delivery - Free Offer with car pool,Power EU Supply Chain Order to Delivery - Batteries Direct to Site,Power Procurement - Standard Process,Power Procurement - Authorized Process</t>
   </si>
   <si>
-    <t>CJ test 2,Power EU PUS Leads to Operation (Q-300-B-1 EU PUS LTO ),Power EU PUS Leads to Operation - EU Annual Planning and Budget Approval,Power EU PUS Leads to Operation - Country Annual Planning and Budget Approval,Power EU PUS Leads to Operation - LTO Process,Power EU PUS Leads to Operation - LTO Process - Leads to Contract,Power EU PUS Leads to Operation - LTO Process - Contract to Operation,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Leads Collection,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Site inspection,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Quotation,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Project approval,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Contracting,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Announcement - Kickoff,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Announcement - Partner Nomination (if applicable),Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Construction Permit,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Grid Connection &amp; Upgrade (if applicable),Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Civil Construction,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Installation &amp; Commissioning,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Installation &amp; Commissioning - Device installation,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power EU PUS Leads to Operation - LTO Process - Contract to Operation - PUS Ready for Service,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Launch,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Announcement,Power EU PUS Leads to Operation - Power EU PUS Step by Step,Power EU PUS Leads to Operation - PUS Operation Approval Process</t>
+    <t>CJ test 2,Power EU PUS Leads to Operation Q-300-B-1 EU PUS LTO,Power EU PUS Leads to Operation - EU Annual Planning and Budget Approval,Power EU PUS Leads to Operation - Country Annual Planning and Budget Approval,Power EU PUS Leads to Operation - LTO Process,Power EU PUS Leads to Operation - LTO Process - Leads to Contract,Power EU PUS Leads to Operation - LTO Process - Contract to Operation,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Leads Collection,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Site inspection,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Quotation,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Project approval,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Contracting,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Announcement - Kickoff,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Announcement - Partner Nomination (if applicable),Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Construction Permit,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Grid Connection &amp; Upgrade (if applicable),Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Civil Construction,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Installation &amp; Commissioning,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Installation &amp; Commissioning - Device installation,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power EU PUS Leads to Operation - LTO Process - Contract to Operation - PUS Ready for Service,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Launch,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Announcement,Power EU PUS Leads to Operation - Power EU PUS Step by Step,Power EU PUS Leads to Operation - PUS Operation Approval Process</t>
   </si>
   <si>
     <t>FOTA Launch Preparation,FOTA Operation,New Model Go to Market Operation,MSRP Pricing SOP,User Behavior Tracking System (UBTS),Market Intelligence Europe</t>
@@ -319,7 +334,7 @@
     <t>Bug Fix Planning</t>
   </si>
   <si>
-    <t>Vendor Selection Process</t>
+    <t>Vendor Selection Process,NIO Partner Management Process</t>
   </si>
   <si>
     <t>Standard Purchase Process,Emergency Purchase Process,Order Negociation Process,Contract Review Process,Contract Management,Complete Purchasing process</t>
@@ -328,7 +343,7 @@
     <t>CJ test 1</t>
   </si>
   <si>
-    <t>Financial Offer Product Design,NIO Partner Management Process</t>
+    <t>Financial Offer Product Design</t>
   </si>
   <si>
     <t>Business partner buy back standard,Business Partner Selection Process,Business Partner negociation process</t>
@@ -343,7 +358,7 @@
     <t>Community Partner Development 2.0,Community Referral Program Development</t>
   </si>
   <si>
-    <t>Gather Voice of Users Process (VOC)</t>
+    <t>Gather Voice of Users Process - VOC</t>
   </si>
   <si>
     <t>F2F Event Process</t>
@@ -385,7 +400,7 @@
     <t>Public Conference Organization,Public Crisis Management Process,Plan PR related Events,Publish PR PGC &amp; Press Release</t>
   </si>
   <si>
-    <t>2B Product Development,2B Client Strategy,asdasdsad</t>
+    <t>2B Product Development,2B Client Strategy,asdasdsad,Fleet and Business Direct Sales - With Partner,Fleet and Business Direct Sales - Without Partner,Bulk Deal Offer Approval Process,Fleet and Business Weekly Governance and Reporting</t>
   </si>
   <si>
     <t>User experiences 2D testdrive coupon,User orders Purchase car,User Change of Ownership,User Request Leasing,User Request Subscription cancelation,User asks about car or price or model etc.,User gets normal delivery,User mutually follows a NIO employee on NIO app,User orders Leasing car,User orders Subscription car,User orders something from NIO cafe,User pays the final payment,User performs a FOTA upgrade,User returns a leasing car,User returns a subscription car,User subscribes NIO newletter,User wants to book testdrive online,User wants to cancel or modify NIO Life order,Receive subscription order from user,Deliver subscription cars,Subscription cars delivery-related,Send vehicle preparation order to RDC and the registration order to DAD,User returns a Purchase car,User experiences normal testdrive,Fellow complete testdrive process,Fellow handles a testdrive cancelation or change request,Fellow manually books testdrive for user,Fellow testdrive car preparation,Fellow follows up testdrive leads,Fellow fills damage form together with users,Employee process new purchase oder,User Purchase car after delivery,Leads classification and follow up process management,Test Drive outbound call and communication, Post-test drive follow-up process,Test drive site selection, layout and process design.,Group Test Drive Process - Standardize the group test drive process,Fellow Performance Evaluation Process,Order and stock planning and management Process,Demo car and display car management,Appointment-to-delivery process,Power Swap call center handles user call,Location scouting for power swap station,Fellow handles a Testdrive Process,Fellow test drive follow up sop</t>
@@ -403,13 +418,13 @@
     <t>partner Strategy development process</t>
   </si>
   <si>
-    <t>Agent Performance Review,SCR - SOP - Activate Home Charger,SCR - SOP - Answers Debug,SCR - SOP - Buy a car,SCR - SOP - Cancel Testdrive,SCR - SOP - Handles Low Star,SCR - SOP - Rebook Testdrive,SCR - SOP - Test Drive Request,SCR - SOP - User Account Deletion,SCR - SOP - Validate UGC,SCR Complaint Handling,SCR FAQ Update,SCR Onboarding Training,SCR Shift Management,SCR Vendor Payment,SCR Wiki Management,User asks SCR due to power problem,User contacts SCR to delete NIO account,SCR receives One-click service booking request from subscription user,SCR receives One-click service cancel request from subscription user,NIO SCR receives RSA request,SCR handles One-click service</t>
+    <t>User Satisfaction - Service Coordinator - Global Processes,User Satisfaction - Service Coordinator - Global Processes - General,User Satisfaction - Service Coordinator - Global Processes - NIO Aftersales (SO),User Satisfaction - Service Coordinator - Global Processes - NIO Life,User Satisfaction - Service Coordinator - Global Processes - NIO Sales (UO),User Satisfaction - Service Coordinator - Global Processes - NIO Points,User Satisfaction - Service Coordinator - Global Processes - NIO Power (PE),User Satisfaction - Service Coordinator - Global Processes - Vehicle,User Satisfaction - Service Coordinator - Global Processes - NIO App,User Satisfaction - Service Coordinator - SCR Process Template Name,User Satisfaction - Service Coordinator - E2E SCR UR Expert,User Satisfaction - Service Coordinator - Global Processes - General - Knowledge Library,User Satisfaction - Service Coordinator - Global Processes - General - Tagging SCR,User Satisfaction - Service Coordinator - Global Processes - General - User OM: Way of working</t>
   </si>
   <si>
     <t>Emergency Handling Process,"Mysterious Ambassador/Open Check" process and standard.,Small loop-closing,Big loop-closing,Establish EU user complaint escalation and response mechanism.,Low star follow Up Process,Weekly Satisfaction Report Standard</t>
   </si>
   <si>
-    <t>5 Year Sales Planning,Sales Planning,Sales Planning - Supply Planning,Sales Planning - Sales Planning,Sales Planning - Fleet Planning,Sales Planning - Supply Planning - offering structure,Sales Planning - Supply Planning - planning to production,Sales Planning - Supply Planning - Allocation &amp; Re-allocation,Sales Planning - Sales Planning - Sales Performance Rolling Plan,Sales Planning - Sales Planning - Roadmap to Target(Target Streeting),Sales Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan</t>
+    <t>5 Year Sales Planning,Sales Planning,Sales Planning - Supply Planning,Sales Planning - Sales Planning,Sales Planning - Fleet Planning,Sales Planning - Supply Planning - offering structure,Sales Planning - Supply Planning - planning to production,Sales Planning - Supply Planning - Allocation &amp; Re-allocation,Sales Planning - Sales Planning - Sales Performance Rolling Plan,Sales Planning - Sales Planning - Target Steering,Sales Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan</t>
   </si>
   <si>
     <t>5 Year Production Plannign</t>
@@ -418,7 +433,22 @@
     <t>Current year Fleet Planning</t>
   </si>
   <si>
-    <t>Long term volume planning,Competitor definition,Pre MP and launch stock ordering,Pricing,Option offer,Product briefing,GTM cadence,GTM milestone adjustment,PMK - EU OTA Process</t>
+    <t>Long term volume planning,Competitor definition,Pre MP and launch stock ordering,Pricing,Option offer,Product briefing,GTM cadence,GTM milestone adjustment,OTA Process</t>
+  </si>
+  <si>
+    <t>EU Service - After service - Service Network,EU Service - After service - Service Network - NSC/HUB Planning and Operation Preparation Process,EU Service - After service - Service Network - ASC/ASC Lite Planning and Operation Preparation Process,EU Service - After service - Service Network - Body Repair Shop Planning and Operation Preparation Process,EU Service - After service - Service Network - RDC Planning and Operation Preparation Process</t>
+  </si>
+  <si>
+    <t>EU Service - After service - Service Partners Cooperation,EU Service - After service - Service Partners Cooperation - Service Partners Nomination and Cooperation Process</t>
+  </si>
+  <si>
+    <t>EU Service - After service - Service Product,EU Service - After service - Service Product - Insurance Product Design and Operation Process ,EU Service - After service - Service Product - Innovative Service Product Design and Operation Process</t>
+  </si>
+  <si>
+    <t>EU Service - After service - Service Resources,EU Service - After service - Service Resources - Courtesy Car Policy and Operation Process ,EU Service - After service - Service Resources - Mobile Service Car Policy and Operation Process</t>
+  </si>
+  <si>
+    <t>EU Service - After service - Service SOP / Blue Book - One Click Service Operation Process ,EU Service - After service - Service SOP / Blue Book - Accident Service Operation Process,EU Service - After service - Service SOP / Blue Book - Roadside Assistance Operation Process - RSA,EU Service - After service - Service SOP / Blue Book - Roadside Assistance Operation Process - ecall,EU Service - After service - Service SOP / Blue Book</t>
   </si>
   <si>
     <t>Digital Development PMO Team</t>
@@ -896,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,19 +960,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -953,19 +983,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -976,19 +1006,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -999,19 +1029,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1022,19 +1052,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1045,19 +1075,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1068,19 +1098,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1091,19 +1121,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1114,19 +1144,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1137,16 +1167,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1157,19 +1187,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1180,19 +1210,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1203,19 +1233,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1226,19 +1256,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1249,19 +1279,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1272,19 +1302,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1295,16 +1325,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1315,13 +1345,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1332,16 +1362,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1352,16 +1382,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1372,19 +1402,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1395,19 +1425,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1418,19 +1448,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G24" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1441,19 +1471,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1464,19 +1494,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1487,19 +1517,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1510,19 +1540,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1533,19 +1563,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1556,19 +1586,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G30" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1579,19 +1609,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1602,19 +1632,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1622,7 +1652,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1633,19 +1663,19 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G34" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1656,19 +1686,19 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1679,16 +1709,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1699,19 +1729,19 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F37" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G37" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1722,19 +1752,19 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1745,16 +1775,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G39" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1765,16 +1795,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G40" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1785,16 +1815,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1805,16 +1835,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G42" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1825,16 +1855,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G43" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1845,19 +1875,19 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G44" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1868,19 +1898,19 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G45" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1891,19 +1921,19 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G46" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1914,19 +1944,19 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1937,19 +1967,19 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G48" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1960,16 +1990,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E49" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G49" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1980,19 +2010,19 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F50" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2003,19 +2033,19 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G51" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2026,19 +2056,19 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G52" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2049,19 +2079,19 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G53" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2072,19 +2102,19 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F54" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G54" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2095,19 +2125,19 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2118,19 +2148,19 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F56" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G56" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2141,16 +2171,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G57" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2161,19 +2191,19 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F58" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G58" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2184,19 +2214,19 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G59" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2207,19 +2237,19 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F60" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G60" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2230,16 +2260,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F61" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2250,16 +2280,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G62" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2270,16 +2300,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G63" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2290,16 +2320,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E64" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G64" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2310,16 +2340,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E65" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G65" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2330,16 +2360,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G66" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2350,10 +2380,80 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>71</v>
       </c>
-      <c r="E67" t="s">
-        <v>134</v>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="205">
   <si>
     <t>Capability</t>
   </si>
@@ -244,6 +244,36 @@
     <t>EU_Service_SOPBlue_Book</t>
   </si>
   <si>
+    <t>EU_FOTA_Operation</t>
+  </si>
+  <si>
+    <t>EU_Service_Spare_Parts_Planning_&amp;_Opeartion</t>
+  </si>
+  <si>
+    <t>EU_Service_Accessory_Planning_&amp;_Operation</t>
+  </si>
+  <si>
+    <t>EU_Emergency_Response</t>
+  </si>
+  <si>
+    <t>EU_Technical_Operation</t>
+  </si>
+  <si>
+    <t>EU_Service_Campaign</t>
+  </si>
+  <si>
+    <t>EU_Technical_Training</t>
+  </si>
+  <si>
+    <t>EU_Fleet_operation</t>
+  </si>
+  <si>
+    <t>EU_Quality</t>
+  </si>
+  <si>
+    <t>EU_Finance</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -253,64 +283,64 @@
     <t>Achieve Satisfaction Target</t>
   </si>
   <si>
-    <t>EU Data Security Control Policy,Colleague Request New System Feature,New Feature UI Approval Process,European Feature Scheduling Process</t>
-  </si>
-  <si>
-    <t>ud publishes a pgc</t>
-  </si>
-  <si>
-    <t>New Feature Release Process</t>
-  </si>
-  <si>
-    <t>IT Hardware give out management,Colleague Request System Access Right</t>
-  </si>
-  <si>
-    <t>Country Tax consulting process</t>
+    <t>EU Data SecURity Control Policy,Colleague Request New System FeatURe,New FeatURe Ui Approval Process,EURopean FeatURe Scheduling Process</t>
+  </si>
+  <si>
+    <t>Ud Publishes A Pgc</t>
+  </si>
+  <si>
+    <t>New FeatURe Release Process</t>
+  </si>
+  <si>
+    <t>It Hardware Give Out Management,Colleague Request System Access Right</t>
+  </si>
+  <si>
+    <t>Country Tax Consulting Process</t>
   </si>
   <si>
     <t>Monthly NIO Points Balance Control,EU Accounting Standard</t>
   </si>
   <si>
-    <t>EU Reimbursement Policy,EU Travel Policy,Country Bank Account Opening,Emergency Payment Process,EB quartlery 5 year budget planning process</t>
-  </si>
-  <si>
-    <t>5 Year Budget,Current Year Budget Planning</t>
+    <t>EU ReimbURsement Policy,EU Travel Policy,Country Bank Account Opening,Emergency Payment Process,Eb Quartlery 5 Year Budget Planning Process</t>
+  </si>
+  <si>
+    <t>5 Year Budget,CURrent Year Budget Planning</t>
   </si>
   <si>
     <t>Example Finance Controlling Process</t>
   </si>
   <si>
-    <t>Create Course Materials,Training Quality Evaluation Process,Event market product Launch preparation,Operate Training Sessions,Product Launch Training Operation,Train the Trainer Operation,Training Handover &amp; Evaluation,eLearning System Management</t>
-  </si>
-  <si>
-    <t>Emergency situation dry run,Purchasing standard for consumable products</t>
-  </si>
-  <si>
-    <t>NIO Cultural Workshop Process,hr test process</t>
-  </si>
-  <si>
-    <t>EU Company Car Policy,EU RSU Policy,Holiday Policy,Recruiting &amp; Interview Process,NCP Policy,Sickness Leave,Head Count Planning,Org Change Process</t>
-  </si>
-  <si>
-    <t>Example learning development Process</t>
+    <t>Create CoURse Materials,Training Quality Evaluation Process,Event Market Product Launch Preparation,Operate Training Sessions,Product Launch Training Operation,Train The Trainer Operation,Training Handover &amp; Evaluation,Elearning System Management</t>
+  </si>
+  <si>
+    <t>Emergency Situation Dry Run,PURchasing Standard For Consumable Products</t>
+  </si>
+  <si>
+    <t>NIO CultURal Workshop Process,Hr Test Process</t>
+  </si>
+  <si>
+    <t>EU Company Car Policy,EU Rsu Policy,Holiday Policy,Recruiting &amp; Interview Process,Ncp Policy,Sickness Leave,Head Count Planning,Org Change Process</t>
+  </si>
+  <si>
+    <t>Example Learning Development Process</t>
   </si>
   <si>
     <t>Recruiting Process,Onboarding Process</t>
   </si>
   <si>
-    <t>Annual Bonus Policy,Local market Salary Benchmark</t>
-  </si>
-  <si>
-    <t>Privacy Impact Assessment - PIA,Maintenance of Register of Processing Activities (RoPA),EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation or update of Data Deletion and Retention concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection of Large 2B Transactions,General Requests to Legal Department,Mail Intake Process,RoPA Reporting,User Term Changes</t>
-  </si>
-  <si>
-    <t>NIO Life return order process,NIO Life new product launch process,NIO Life NH, NS, NSC display process,NIO Life Country Artist Selection,NIO Life Uniform process,NIO Life Order to Delivery Process,NIO Life product pricing definition,NIO Life Stock Planning SOP,NIO Life internal usage request,NIO Life product selection process</t>
-  </si>
-  <si>
-    <t>NIO Life - Export,NIO Life - Export - Planned export,NIO Life - Export - Export for internal applicatioin,NIO Life - 1900-190X,NIO Life - 1900-190X - New store opening,NIO Life - 1900-190X - Replenishment,NIO Life - 1900-190X - Internal Application,NIO Life - APP sales,NIO Life - APP sales - Product launch,NIO Life - APP sales - After sales</t>
-  </si>
-  <si>
-    <t>Power Swap Operator helps user complete swap,Power Swap call center handles user call,Power home charger activation process,Power related low star follow up process,Power Product planning process,Power Charging network partner Selection,Power Charging and product Pricing Standard</t>
+    <t>Annual Bonus Policy,Local Market Salary Benchmark</t>
+  </si>
+  <si>
+    <t>Privacy Impact Assessment - Pia,Maintenance Of Register Of Processing Activities (Ropa),EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,Ebe Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake Process,Ropa Reporting,User Term Changes</t>
+  </si>
+  <si>
+    <t>NIO Life RetURn Order Process,NIO Life New Product Launch Process,NIO Life Nh, Ns, Nsc Display Process,NIO Life Country Artist Selection,NIO Life Uniform Process,NIO Life Order To Delivery Process,NIO Life Product Pricing Definition,NIO Life Stock Planning Sop,NIO Life Internal Usage Request,NIO Life Product Selection Process</t>
+  </si>
+  <si>
+    <t>NIO Life - Export,NIO Life - Export - Planned Export,NIO Life - Export - Export For Internal Applicatioin,NIO Life - 1900-190X,NIO Life - 1900-190X - New Store Opening,NIO Life - 1900-190X - Replenishment,NIO Life - 1900-190X - Internal Application,NIO Life - App Sales,NIO Life - App Sales - Product Launch,NIO Life - App Sales - After Sales</t>
+  </si>
+  <si>
+    <t>Power Swap Operator Helps User Complete Swap,Power Swap Call Center Handles User Call,Power Home Charger Activation Process,Power Related Low Star Follow Up Process,Power Product Planning Process,Power Charging Network Partner Selection,Power Charging And Product Pricing Standard</t>
   </si>
   <si>
     <t>Example Power R&amp;M</t>
@@ -319,16 +349,16 @@
     <t>Example Power Battery &amp; Satefy</t>
   </si>
   <si>
-    <t>CJ test 3,Power Procurement,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order to Delivery,Power EU Supply Chain Order to Delivery - PSS Direct to Site,Power EU Supply Chain Order to Delivery - Internal Use,Power EU Supply Chain Order to Delivery - User Orders via NIO App,Power EU Supply Chain Order to Delivery - Free Offer with car pool,Power EU Supply Chain Order to Delivery - Batteries Direct to Site,Power Procurement - Standard Process,Power Procurement - Authorized Process</t>
-  </si>
-  <si>
-    <t>CJ test 2,Power EU PUS Leads to Operation Q-300-B-1 EU PUS LTO,Power EU PUS Leads to Operation - EU Annual Planning and Budget Approval,Power EU PUS Leads to Operation - Country Annual Planning and Budget Approval,Power EU PUS Leads to Operation - LTO Process,Power EU PUS Leads to Operation - LTO Process - Leads to Contract,Power EU PUS Leads to Operation - LTO Process - Contract to Operation,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Leads Collection,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Site inspection,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Quotation,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Project approval,Power EU PUS Leads to Operation - LTO Process - Leads to Contract - Contracting,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Announcement - Kickoff,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Announcement - Partner Nomination (if applicable),Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Construction Permit,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Grid Connection &amp; Upgrade (if applicable),Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Civil Construction,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Installation &amp; Commissioning,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Installation &amp; Commissioning - Device installation,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (owned by NIO Power),Power EU PUS Leads to Operation - LTO Process - Contract to Operation - PUS Ready for Service,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Launch,Power EU PUS Leads to Operation - LTO Process - Contract to Operation - Announcement,Power EU PUS Leads to Operation - Power EU PUS Step by Step,Power EU PUS Leads to Operation - PUS Operation Approval Process</t>
-  </si>
-  <si>
-    <t>FOTA Launch Preparation,FOTA Operation,New Model Go to Market Operation,MSRP Pricing SOP,User Behavior Tracking System (UBTS),Market Intelligence Europe</t>
-  </si>
-  <si>
-    <t>User Feedback Management,User Closed-Loop,SUD Experience Confirmation</t>
+    <t>Cj Test 3,Power ProcURement,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power ProcURement - Standard Process,Power ProcURement - Authorized Process</t>
+  </si>
+  <si>
+    <t>Cj Test 2,Power EU PUS Leads To Operation Q-300-B-1 EU PUS LTO,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO Process,Power EU PUS Leads To Operation - LTO Process - Leads To Contract,Power EU PUS Leads To Operation - LTO Process - Contract To Operation,Power EU PUS Leads To Operation - LTO Process - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO Process - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO Process - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO Process - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO Process - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Announcement - Kickoff,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Announcement - Partner Nomination (If Applicable),Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Grid Connection &amp; Upgrade (If Applicable),Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power EU PUS Leads To Operation - LTO Process - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Launch,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Announcement,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval Process</t>
+  </si>
+  <si>
+    <t>Fota Launch Preparation,Fota Operation,New Model Go To Market Operation,Msrp Pricing Sop,User Behavior Tracking System (Ubts),Market Intelligence EURope</t>
+  </si>
+  <si>
+    <t>User Feedback Management,User Closed-Loop,Sud Experience Confirmation</t>
   </si>
   <si>
     <t>Bug Fix Planning</t>
@@ -337,19 +367,19 @@
     <t>Vendor Selection Process,NIO Partner Management Process</t>
   </si>
   <si>
-    <t>Standard Purchase Process,Emergency Purchase Process,Order Negociation Process,Contract Review Process,Contract Management,Complete Purchasing process</t>
-  </si>
-  <si>
-    <t>CJ test 1</t>
+    <t>Standard PURchase Process,Emergency PURchase Process,Order Negociation Process,Contract Review Process,Contract Management,Complete PURchasing Process</t>
+  </si>
+  <si>
+    <t>Cj Test 1</t>
   </si>
   <si>
     <t>Financial Offer Product Design</t>
   </si>
   <si>
-    <t>Business partner buy back standard,Business Partner Selection Process,Business Partner negociation process</t>
-  </si>
-  <si>
-    <t>Manual NIO Points Policy,Manually Hand out NIO Points to users</t>
+    <t>Business Partner Buy Back Standard,Business Partner Selection Process,Business Partner Negociation Process</t>
+  </si>
+  <si>
+    <t>Manual NIO Points Policy,Manually Hand Out NIO Points To Users</t>
   </si>
   <si>
     <t>Community Event Operation,Community Event Planning</t>
@@ -358,124 +388,154 @@
     <t>Community Partner Development 2.0,Community Referral Program Development</t>
   </si>
   <si>
-    <t>Gather Voice of Users Process - VOC</t>
+    <t>Gather Voice Of Users Process - Voc</t>
   </si>
   <si>
     <t>F2F Event Process</t>
   </si>
   <si>
-    <t>5 Year Strategy Planning Presentation,5 Year Sales Volume Calculation,Market Entry Cadence Announcement Standard,EU Standardization Project,Current Market Sales Steering,5yr planning flow,Europe Market Planning,Europe Market Planning - 5 yrs planning,Europe Market Planning - 5 yrs planning - 5 yrs sales volume planning,Europe Market Planning - 5 yrs planning - market expansion 5 yrs assumptions,Europe Market Planning - 5 yrs planning - market expansion 5 yrs assumptions - future portfolio mapping,Europe Market Planning - 5 yrs planning - market expansion 5 yrs assumptions - business model,Europe Market Planning - 5 yrs planning - market expansion 5 yrs assumptions - market entry cadence &amp; infrasturcutre,Europe Market Planning - Wave2 / Market Entry PMO,Europe Market Planning - Governance PMO,Europe Market Planning - Governance PMO - Entity setup</t>
-  </si>
-  <si>
-    <t>5Y Department Budget and HC Plan,EU Office location Selection,Market Launch,Monthly Process Review,SOP Process Broadcasting,Process Change Notification,SOP Process PMO collection,Process Survey Evaluation,Wiki Update,1Y Department Budget and HC Plan,Market Launch PMO</t>
+    <t>5 Year Strategy Planning Presentation,5 Year Sales Volume Calculation,Market Entry Cadence Announcement Standard,EU Standardization Project,CURrent Market Sales Steering,5Yr Planning Flow,EURope Market Planning,EURope Market Planning - 5 Yrs Planning,EURope Market Planning - 5 Yrs Planning - 5 Yrs Sales Volume Planning,EURope Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions,EURope Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - FutURe Portfolio Mapping,EURope Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Business Model,EURope Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Market Entry Cadence &amp; InfrastURcutre,EURope Market Planning - Wave2 / Market Entry Pmo,EURope Market Planning - Governance Pmo,EURope Market Planning - Governance Pmo - Entity Setup</t>
+  </si>
+  <si>
+    <t>5Y Department Budget And Hc Plan,EU Office Location Selection,Market Launch,Monthly Process Review,Sop Process Broadcasting,Process Change Notification,Sop Process Pmo Collection,Process SURvey Evaluation,Wiki Update,1Y Department Budget And Hc Plan,Market Launch Pmo</t>
   </si>
   <si>
     <t>Service Campaign Planning,Service Network Strategy Planning,Service Partner Planning,Service Capacity Planning</t>
   </si>
   <si>
-    <t>Vehicle manager check with RDC about vehicle receive and PDI preparation related issues,Get vehicles from CN or EU hub to RDC,Inspection Maintenance Process,FOTA and remote service operation process,Service campaign operation management process,Central warehouse parts replenishment order process,Car wash Process,Vehicle License Registration Process,User service booking process,Accident/Roadside assistance process,Courtesy car management process,User Complain Mechanism,Pre-delivery service operation process,Service Weekly Progress Dashboard,test14 process</t>
-  </si>
-  <si>
-    <t>Parts and accessories stock preparation process,Parts forecast &amp; planning,Parts order to delivery process,Accessory order to delivery process,Parts return process,Accessory Return Process</t>
-  </si>
-  <si>
-    <t>Network Development Dashboard Report Standard,Location Approval Process,Network Location Planning,Location Scouting Process,Scouting Vendor Selection and management process</t>
-  </si>
-  <si>
-    <t>EU NH design and approval process,Design vendor pool selection process,EU NIO House, Space, Hub design guidline,,Budget approval and management process -including change mana,DOA and paymanet process,Budget making and rolling process,Network development manager selects design vendor</t>
-  </si>
-  <si>
-    <t>Construction management process -including managing vendors,Construction vendor pool selection and management process,NH, NS, Nhub opening preparation standard,NH, NS, Nhub operation management,EU POS Infrastructure projects tracking and change management</t>
-  </si>
-  <si>
-    <t>Daily NH Store Closing SOP,Daily NH Store Opening SOP,NIO House Purchase Consumables,NIO House Reception Process,Space Reservation Operation,NIO House vehicle information display Standard,NIO House Property Insurance Process,NIO House parts display standard,NIO House NHS shift management</t>
-  </si>
-  <si>
-    <t>NIO House Event operation,Big Event planning,NIO House Event planning,Big Event operation,Event Location Selection,Event Vendor Selection,Event Communication,Event preparation &amp; training</t>
-  </si>
-  <si>
-    <t>Create EU PR Strategy,Operate PR relate Events,PGC drafting standard,OGC drafting standard,Post event communication requirement 2.2,</t>
-  </si>
-  <si>
-    <t>Public Conference Organization,Public Crisis Management Process,Plan PR related Events,Publish PR PGC &amp; Press Release</t>
-  </si>
-  <si>
-    <t>2B Product Development,2B Client Strategy,asdasdsad,Fleet and Business Direct Sales - With Partner,Fleet and Business Direct Sales - Without Partner,Bulk Deal Offer Approval Process,Fleet and Business Weekly Governance and Reporting</t>
-  </si>
-  <si>
-    <t>User experiences 2D testdrive coupon,User orders Purchase car,User Change of Ownership,User Request Leasing,User Request Subscription cancelation,User asks about car or price or model etc.,User gets normal delivery,User mutually follows a NIO employee on NIO app,User orders Leasing car,User orders Subscription car,User orders something from NIO cafe,User pays the final payment,User performs a FOTA upgrade,User returns a leasing car,User returns a subscription car,User subscribes NIO newletter,User wants to book testdrive online,User wants to cancel or modify NIO Life order,Receive subscription order from user,Deliver subscription cars,Subscription cars delivery-related,Send vehicle preparation order to RDC and the registration order to DAD,User returns a Purchase car,User experiences normal testdrive,Fellow complete testdrive process,Fellow handles a testdrive cancelation or change request,Fellow manually books testdrive for user,Fellow testdrive car preparation,Fellow follows up testdrive leads,Fellow fills damage form together with users,Employee process new purchase oder,User Purchase car after delivery,Leads classification and follow up process management,Test Drive outbound call and communication, Post-test drive follow-up process,Test drive site selection, layout and process design.,Group Test Drive Process - Standardize the group test drive process,Fellow Performance Evaluation Process,Order and stock planning and management Process,Demo car and display car management,Appointment-to-delivery process,Power Swap call center handles user call,Location scouting for power swap station,Fellow handles a Testdrive Process,Fellow test drive follow up sop</t>
-  </si>
-  <si>
-    <t>FIFO steering and fleet management,Fleet Transport Management,Fleet planning process,2B system development process</t>
-  </si>
-  <si>
-    <t>Sales Report Generation Standard,Intelligence data architecture design standard,Data Cleanup Process,Data interface Design Process</t>
-  </si>
-  <si>
-    <t>Subscription Product Planning,Used Car Planning,Commercial product pricing,Market Scan &amp; Analysis,RV Management,Purchase Product planning,Financial Leasing product planning,Create a new promotion,Subscription pricing definition,Subscripiton dynamic pricing &amp; seasonal discount,Ancillary fees management,Commercial condition for special deals,Commercial condition policies,Trade Ins,RV study management</t>
-  </si>
-  <si>
-    <t>partner Strategy development process</t>
-  </si>
-  <si>
-    <t>User Satisfaction - Service Coordinator - Global Processes,User Satisfaction - Service Coordinator - Global Processes - General,User Satisfaction - Service Coordinator - Global Processes - NIO Aftersales (SO),User Satisfaction - Service Coordinator - Global Processes - NIO Life,User Satisfaction - Service Coordinator - Global Processes - NIO Sales (UO),User Satisfaction - Service Coordinator - Global Processes - NIO Points,User Satisfaction - Service Coordinator - Global Processes - NIO Power (PE),User Satisfaction - Service Coordinator - Global Processes - Vehicle,User Satisfaction - Service Coordinator - Global Processes - NIO App,User Satisfaction - Service Coordinator - SCR Process Template Name,User Satisfaction - Service Coordinator - E2E SCR UR Expert,User Satisfaction - Service Coordinator - Global Processes - General - Knowledge Library,User Satisfaction - Service Coordinator - Global Processes - General - Tagging SCR,User Satisfaction - Service Coordinator - Global Processes - General - User OM: Way of working</t>
-  </si>
-  <si>
-    <t>Emergency Handling Process,"Mysterious Ambassador/Open Check" process and standard.,Small loop-closing,Big loop-closing,Establish EU user complaint escalation and response mechanism.,Low star follow Up Process,Weekly Satisfaction Report Standard</t>
-  </si>
-  <si>
-    <t>5 Year Sales Planning,Sales Planning,Sales Planning - Supply Planning,Sales Planning - Sales Planning,Sales Planning - Fleet Planning,Sales Planning - Supply Planning - offering structure,Sales Planning - Supply Planning - planning to production,Sales Planning - Supply Planning - Allocation &amp; Re-allocation,Sales Planning - Sales Planning - Sales Performance Rolling Plan,Sales Planning - Sales Planning - Target Steering,Sales Planning - Fleet Planning - stock level monitor &amp; stock age forecast model,Sales Planning - Fleet Planning - subscription fleet plan &amp; monitor,Sales Planning - Fleet Planning - subscription fleet plan &amp; monitor - in-fleet plan,Sales Planning - Fleet Planning - subscription fleet plan &amp; monitor - de-fleet plan</t>
-  </si>
-  <si>
-    <t>5 Year Production Plannign</t>
-  </si>
-  <si>
-    <t>Current year Fleet Planning</t>
-  </si>
-  <si>
-    <t>Long term volume planning,Competitor definition,Pre MP and launch stock ordering,Pricing,Option offer,Product briefing,GTM cadence,GTM milestone adjustment,OTA Process</t>
-  </si>
-  <si>
-    <t>EU Service - After service - Service Network,EU Service - After service - Service Network - NSC/HUB Planning and Operation Preparation Process,EU Service - After service - Service Network - ASC/ASC Lite Planning and Operation Preparation Process,EU Service - After service - Service Network - Body Repair Shop Planning and Operation Preparation Process,EU Service - After service - Service Network - RDC Planning and Operation Preparation Process</t>
-  </si>
-  <si>
-    <t>EU Service - After service - Service Partners Cooperation,EU Service - After service - Service Partners Cooperation - Service Partners Nomination and Cooperation Process</t>
-  </si>
-  <si>
-    <t>EU Service - After service - Service Product,EU Service - After service - Service Product - Insurance Product Design and Operation Process ,EU Service - After service - Service Product - Innovative Service Product Design and Operation Process</t>
-  </si>
-  <si>
-    <t>EU Service - After service - Service Resources,EU Service - After service - Service Resources - Courtesy Car Policy and Operation Process ,EU Service - After service - Service Resources - Mobile Service Car Policy and Operation Process</t>
-  </si>
-  <si>
-    <t>EU Service - After service - Service SOP / Blue Book - One Click Service Operation Process ,EU Service - After service - Service SOP / Blue Book - Accident Service Operation Process,EU Service - After service - Service SOP / Blue Book - Roadside Assistance Operation Process - RSA,EU Service - After service - Service SOP / Blue Book - Roadside Assistance Operation Process - ecall,EU Service - After service - Service SOP / Blue Book</t>
-  </si>
-  <si>
-    <t>Digital Development PMO Team</t>
-  </si>
-  <si>
-    <t>Controlling and Planning Department</t>
-  </si>
-  <si>
-    <t>Europe Business HRBP Department</t>
-  </si>
-  <si>
-    <t>Legal EU Department</t>
-  </si>
-  <si>
-    <t>NIO Life Supply Chain Department</t>
-  </si>
-  <si>
-    <t>Power market launch and enabling team</t>
-  </si>
-  <si>
-    <t>Product Marketing Department</t>
-  </si>
-  <si>
-    <t>Europe Product Experience Department</t>
-  </si>
-  <si>
-    <t>Purchasing Governance and BP Team</t>
+    <t>Vehicle Manager Check With Rdc About Vehicle Receive And Pdi Preparation Related Issues,Get Vehicles From Cn Or EU Hub To Rdc,Inspection Maintenance Process,Fota And Remote Service Operation Process,Service Campaign Operation Management Process,Central Warehouse Parts Replenishment Order Process,Car Wash Process,Vehicle License Registration Process,User Service Booking Process,Accident/Roadside Assistance Process,CoURtesy Car Management Process,User Complain Mechanism,Pre-Delivery Service Operation Process,Service Weekly Progress Dashboard,Test14 Process</t>
+  </si>
+  <si>
+    <t>Parts And Accessories Stock Preparation Process,Parts Forecast &amp; Planning,Parts Order To Delivery Process,Accessory Order To Delivery Process,Parts RetURn Process,Accessory RetURn Process</t>
+  </si>
+  <si>
+    <t>Network Development Dashboard Report Standard,Location Approval Process,Network Location Planning,Location Scouting Process,Scouting Vendor Selection And Management Process</t>
+  </si>
+  <si>
+    <t>EU Nh Design And Approval Process,Design Vendor Pool Selection Process,EU NIO House, Space, Hub Design Guidline,,Budget Approval And Management Process -Including Change Mana,Doa And Paymanet Process,Budget Making And Rolling Process,Network Development Manager Selects Design Vendor</t>
+  </si>
+  <si>
+    <t>Construction Management Process -Including Managing Vendors,Construction Vendor Pool Selection And Management Process,Nh, Ns, Nhub Opening Preparation Standard,Nh, Ns, Nhub Operation Management,EU Pos InfrastructURe Projects Tracking And Change Management</t>
+  </si>
+  <si>
+    <t>Daily Nh Store Closing Sop,Daily Nh Store Opening Sop,NIO House PURchase Consumables,NIO House Reception Process,Space Reservation Operation,NIO House Vehicle Information Display Standard,NIO House Property InsURance Process,NIO House Parts Display Standard,NIO House Nhs Shift Management</t>
+  </si>
+  <si>
+    <t>NIO House Event Operation,Big Event Planning,NIO House Event Planning,Big Event Operation,Event Location Selection,Event Vendor Selection,Event Communication,Event Preparation &amp; Training</t>
+  </si>
+  <si>
+    <t>Create EU Pr Strategy,Operate Pr Relate Events,Pgc Drafting Standard,Ogc Drafting Standard,Post Event Communication Requirement 2.2,</t>
+  </si>
+  <si>
+    <t>Public Conference Organization,Public Crisis Management Process,Plan Pr Related Events,Publish Pr Pgc &amp; Press Release</t>
+  </si>
+  <si>
+    <t>2B Product Development,2B Client Strategy,Asdasdsad,Fleet And Business Direct Sales - With Partner,Fleet And Business Direct Sales - Without Partner,Bulk Deal Offer Approval Process,Fleet And Business Weekly Governance And Reporting</t>
+  </si>
+  <si>
+    <t>User Experiences 2D Testdrive Coupon,User Orders PURchase Car,User Change Of Ownership,User Request Leasing,User Request SubSCRiption Cancelation,User Asks About Car Or Price Or Model Etc.,User Gets Normal Delivery,User Mutually Follows A NIO Employee On NIO App,User Orders Leasing Car,User Orders SubSCRiption Car,User Orders Something From NIO Cafe,User Pays The Final Payment,User Performs A Fota Upgrade,User RetURns A Leasing Car,User RetURns A SubSCRiption Car,User SubSCRibes NIO Newletter,User Wants To Book Testdrive Online,User Wants To Cancel Or Modify NIO Life Order,Receive SubSCRiption Order From User,Deliver SubSCRiption Cars,SubSCRiption Cars Delivery-Related,Send Vehicle Preparation Order To Rdc And The Registration Order To Dad,User RetURns A PURchase Car,User Experiences Normal Testdrive,Fellow Complete Testdrive Process,Fellow Handles A Testdrive Cancelation Or Change Request,Fellow Manually Books Testdrive For User,Fellow Testdrive Car Preparation,Fellow Follows Up Testdrive Leads,Fellow Fills Damage Form Together With Users,Employee Process New PURchase Oder,User PURchase Car After Delivery,Leads Classification And Follow Up Process Management,Test Drive Outbound Call And Communication, Post-Test Drive Follow-Up Process,Test Drive Site Selection, Layout And Process Design.,Group Test Drive Process - Standardize The Group Test Drive Process,Fellow Performance Evaluation Process,Order And Stock Planning And Management Process,Demo Car And Display Car Management,Appointment-To-Delivery Process,Power Swap Call Center Handles User Call,Location Scouting For Power Swap Station,Fellow Handles A Testdrive Process,Fellow Test Drive Follow Up Sop</t>
+  </si>
+  <si>
+    <t>Fifo Steering And Fleet Management,Fleet Transport Management,Fleet Planning Process,2B System Development Process</t>
+  </si>
+  <si>
+    <t>Sales Report Generation Standard,Intelligence Data ArchitectURe Design Standard,Data Cleanup Process,Data Interface Design Process</t>
+  </si>
+  <si>
+    <t>SubSCRiption Product Planning,Used Car Planning,Commercial Product Pricing,Market Scan &amp; Analysis,Rv Management,PURchase Product Planning,Financial Leasing Product Planning,Create A New Promotion,SubSCRiption Pricing Definition,SubSCRipiton Dynamic Pricing &amp; Seasonal Discount,Ancillary Fees Management,Commercial Condition For Special Deals,Commercial Condition Policies,Trade Ins,Rv Study Management</t>
+  </si>
+  <si>
+    <t>Partner Strategy Development Process</t>
+  </si>
+  <si>
+    <t>User Satisfaction - Service Coordinator - Global Processes,User Satisfaction - Service Coordinator - Global Processes - General,User Satisfaction - Service Coordinator - Global Processes - NIO Aftersales (So),User Satisfaction - Service Coordinator - Global Processes - NIO Life,User Satisfaction - Service Coordinator - Global Processes - NIO Sales (Uo),User Satisfaction - Service Coordinator - Global Processes - NIO Points,User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe),User Satisfaction - Service Coordinator - Global Processes - Vehicle,User Satisfaction - Service Coordinator - Global Processes - NIO App(In Progress),User Satisfaction - Service Coordinator - SCR Process Template Name(In Progress),User Satisfaction - Service Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User Satisfaction - Service Coordinator - Global Processes - General - Knowledge Library,User Satisfaction - Service Coordinator - Global Processes - General - Tagging SCR,User Satisfaction - Service Coordinator - Global Processes - General - User Om: Way Of Working,User Satisfaction - Service Coordinator - Global Processes - NIO Aftersales (So) - RetURning Car &amp; Power Accessories,User Satisfaction - Service Coordinator - Global Processes - NIO Aftersales (So) - Recycling Batteries And Cars (In Progress),User Satisfaction - Service Coordinator - Global Processes - NIO Life - RetURn NIO Life Products,User Satisfaction - Service Coordinator - Global Processes - NIO Life - NIO Life,User Satisfaction - Service Coordinator - Global Processes - NIO Points - NIO Points Redemption,User Satisfaction - Service Coordinator - Global Processes - NIO Points - NIO Point Missing,User Satisfaction - Service Coordinator - Global Processes - NIO Points - NIO Points Distribution,User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Battery Monitoring,User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Battery Charging/Super Chargers(Issues),User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Charging Map,User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Deleting Charging &amp; Battery Swap Order,User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Home Charger Activation,User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Power Swap Station(Issues),User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Power Charging(Issues),User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Nfc Card Activation,User Satisfaction - Service Coordinator - Global Processes - Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service Coordinator - Global Processes - Vehicle - Hvdi Emergency Fault Response,User Satisfaction - Service Coordinator - Global Processes - Vehicle - Sota&amp;Fota Update(Failed),User Satisfaction - Service Coordinator - Global Processes - Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
+  </si>
+  <si>
+    <t>Emergency Handling Process,"Mysterious Ambassador/Open Check" Process And Standard.,Small Loop-Closing,Big Loop-Closing,Establish EU User Complaint Escalation And Response Mechanism.,Low Star Follow Up Process,Weekly Satisfaction Report Standard</t>
+  </si>
+  <si>
+    <t>5 Year Sales Planning,Sales Planning,Sales Planning - Supply Planning,Sales Planning - Sales Planning,Sales Planning - Fleet Planning,Sales Planning - Supply Planning - Offering StructURe,Sales Planning - Supply Planning - Planning To Production,Sales Planning - Supply Planning - Allocation &amp; Re-Allocation,Sales Planning - Sales Planning - Sales Performance Rolling Plan,Sales Planning - Sales Planning - Target Steering,Sales Planning - Fleet Planning - Stock Level Monitor &amp; Stock Age Forecast Model,Sales Planning - Fleet Planning - SubSCRiption Fleet Plan &amp; Monitor,Sales Planning - Fleet Planning - SubSCRiption Fleet Plan &amp; Monitor - In-Fleet Plan,Sales Planning - Fleet Planning - SubSCRiption Fleet Plan &amp; Monitor - De-Fleet Plan</t>
+  </si>
+  <si>
+    <t>5 Year Production Planning</t>
+  </si>
+  <si>
+    <t>CURrent Year Fleet Planning</t>
+  </si>
+  <si>
+    <t>Long Term Volume Planning,Competitor Definition,Pre Mp And Launch Stock Ordering,Pricing,Option Offer,Product Briefing,Gtm Cadence,Gtm Milestone Adjustment,OTA Process</t>
+  </si>
+  <si>
+    <t>Service Network,Service Network - Nsc/Hub Planning And Operation Preparation Process,Service Network - Asc/Asc Lite Planning And Operation Preparation Process,Service Network - Body Repair Shop Planning And Operation Preparation Process,Service Network - RDC Planning And Operation Preparation Process,After Service</t>
+  </si>
+  <si>
+    <t>Service Partners Cooperation,Service Partners Cooperation - Service Partners Nomination And Cooperation Process</t>
+  </si>
+  <si>
+    <t>Service Product,Service Product - InsURance Product Design And Operation Process,Service Product - Innovative Service Product Design And Operation Process</t>
+  </si>
+  <si>
+    <t>Service ResoURces,Service ResoURces - CoURtesy Car Policy And Operation Process,Service ResoURces - Mobile Service Car Policy And Operation Process</t>
+  </si>
+  <si>
+    <t>Service Sop / Blue Book - One Click Service Operation Process,Service Sop / Blue Book - Accident Service Operation Process,Service Sop / Blue Book - Roadside Assistance Operation Process - Rsa,Service Sop / Blue Book - Roadside Assistance Operation Process - Ecall,Service Sop / Blue Book</t>
+  </si>
+  <si>
+    <t>Fota Operation,Fota Operation - Fota Release Process,Fota Operation - Operation And Close Loop Process</t>
+  </si>
+  <si>
+    <t>Spare Parts Planning &amp; Operation,Spare Parts Planning &amp; Operation - Parts Masterdata Management Process,Spare Parts Planning &amp; Operation - Parts Price Management Process,Spare Parts Planning &amp; Operation - Parts SCRap Management Process,Spare Parts Planning &amp; Operation - Parts Inventory Management Process,Spare Parts Planning &amp; Operation - Parts Planning And Order Operation Process,Spare Parts Planning &amp; Operation - Logistics Management Process - Supplier,Spare Parts Planning &amp; Operation - Logistics Management Process - Logistics,Spare Parts Planning &amp; Operation - New Project Parts Readiness Management,Spare Parts Planning &amp; Operation - Claim Management,Spare Parts Planning &amp; Operation - Special Tools Order Management</t>
+  </si>
+  <si>
+    <t>Accessory Planning &amp; Operation,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-Vehicle,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-No-Vehicle,Accessory Planning &amp; Operation - Accessory Order Process:Local SoURcing/Export,Accessory Planning &amp; Operation - Accessory Logistics,Accessory Planning &amp; Operation - Online Product Set Up,Accessory Planning &amp; Operation - Order Follow Up,Accessory Planning &amp; Operation - Accessory Price</t>
+  </si>
+  <si>
+    <t>Emergency Response,Emergency Response - EU Emergency Response Process</t>
+  </si>
+  <si>
+    <t>Technical Operation,Technical Operation - Warranty Policy Release And Operation Process,Technical Operation - Maintenance Policy Release And Operation Process,Technical Operation - User Manual/Rescue Card Release And Operation Process,Technical Operation - FRT Management Process</t>
+  </si>
+  <si>
+    <t>Service Campaign,Service Campaign - Service Campaign Release And Operation Management Process</t>
+  </si>
+  <si>
+    <t>Technical Training,Technical Training - Technical Training Management Process</t>
+  </si>
+  <si>
+    <t>Fleet Operation,Fleet Operation - Infleeting Operation Management,Fleet Operation - Delivery Management,Fleet Operation - Vehicle Using Management - Violation Ticket Management,Fleet Operation - RetURn Management,Fleet Planning &amp; Internal Car Management,Fleet Planning &amp; Internal Car Management - Internal Car Application,Fleet Planning &amp; Internal Car Management - Internal Car Using Management,Fleet Management</t>
+  </si>
+  <si>
+    <t>Quality,Quality Issue Management,EU Quality Issue Management Process</t>
+  </si>
+  <si>
+    <t>Financing,Settlement Management,NSC Settlement Management Process,ASC Settlement Management Process,RDC Settlement Management Process,Supplier Settlement Management Process,Collection Management Process</t>
+  </si>
+  <si>
+    <t>Digital Development PMO</t>
+  </si>
+  <si>
+    <t>Controlling and Planning</t>
+  </si>
+  <si>
+    <t>Europe Business HRBP</t>
+  </si>
+  <si>
+    <t>Legal EU</t>
+  </si>
+  <si>
+    <t>NIO Life Supply Chain</t>
+  </si>
+  <si>
+    <t>Power market launch and enabling</t>
+  </si>
+  <si>
+    <t>PMK - Product Marketing</t>
+  </si>
+  <si>
+    <t>Europe Product Experience</t>
+  </si>
+  <si>
+    <t>Purchasing Governance and BP</t>
   </si>
   <si>
     <t>Business Development</t>
@@ -926,7 +986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -960,19 +1020,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -983,19 +1043,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1006,19 +1066,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1029,19 +1089,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1052,19 +1112,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1075,19 +1135,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1098,19 +1158,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1121,19 +1181,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1144,19 +1204,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1167,16 +1227,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1187,19 +1247,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1210,19 +1270,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1233,19 +1293,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1256,19 +1316,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1279,19 +1339,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1302,19 +1362,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1325,16 +1385,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1345,13 +1405,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1362,16 +1422,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1382,16 +1442,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1402,19 +1462,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1425,19 +1485,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1448,19 +1508,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1471,19 +1531,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1494,19 +1554,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1517,19 +1577,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1540,19 +1600,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1563,19 +1623,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1586,19 +1646,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1609,19 +1669,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1632,19 +1692,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1652,7 +1712,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1663,19 +1723,19 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1686,19 +1746,19 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G35" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1709,16 +1769,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G36" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1729,19 +1789,19 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1752,19 +1812,19 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G38" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1775,16 +1835,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1795,16 +1855,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1815,16 +1875,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1835,16 +1895,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G42" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1855,16 +1915,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G43" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1875,19 +1935,19 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1898,19 +1958,19 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1921,19 +1981,19 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G46" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1944,19 +2004,19 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1967,19 +2027,19 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F48" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G48" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1990,16 +2050,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2010,19 +2070,19 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F50" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G50" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2033,19 +2093,19 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G51" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2056,19 +2116,19 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F52" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G52" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2079,19 +2139,19 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F53" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2102,19 +2162,19 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2125,19 +2185,19 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G55" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2148,19 +2208,19 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F56" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G56" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2171,16 +2231,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G57" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2191,19 +2251,19 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F58" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2214,19 +2274,19 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E59" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F59" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G59" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2237,19 +2297,19 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G60" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2260,16 +2320,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F61" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2280,16 +2340,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G62" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2300,16 +2360,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G63" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2320,16 +2380,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G64" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2340,16 +2400,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G65" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2360,16 +2420,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G66" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2380,10 +2440,10 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2394,10 +2454,10 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E68" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2408,10 +2468,10 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2422,10 +2482,10 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2436,10 +2496,10 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2450,10 +2510,158 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>76</v>
       </c>
-      <c r="E72" t="s">
-        <v>144</v>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -283,64 +283,64 @@
     <t>Achieve Satisfaction Target</t>
   </si>
   <si>
-    <t>EU Data SecURity Control Policy,Colleague Request New System FeatURe,New FeatURe Ui Approval Process,EURopean FeatURe Scheduling Process</t>
-  </si>
-  <si>
-    <t>Ud Publishes A Pgc</t>
-  </si>
-  <si>
-    <t>New FeatURe Release Process</t>
+    <t>EU Data Security Control Policy,Colleague Request New System Feature,New Feature UI Approval,European Feature Scheduling</t>
+  </si>
+  <si>
+    <t>Ud Publishes A PGC</t>
+  </si>
+  <si>
+    <t>New Feature Release</t>
   </si>
   <si>
     <t>It Hardware Give Out Management,Colleague Request System Access Right</t>
   </si>
   <si>
-    <t>Country Tax Consulting Process</t>
+    <t>Country Tax Consulting</t>
   </si>
   <si>
     <t>Monthly NIO Points Balance Control,EU Accounting Standard</t>
   </si>
   <si>
-    <t>EU ReimbURsement Policy,EU Travel Policy,Country Bank Account Opening,Emergency Payment Process,Eb Quartlery 5 Year Budget Planning Process</t>
-  </si>
-  <si>
-    <t>5 Year Budget,CURrent Year Budget Planning</t>
-  </si>
-  <si>
-    <t>Example Finance Controlling Process</t>
-  </si>
-  <si>
-    <t>Create CoURse Materials,Training Quality Evaluation Process,Event Market Product Launch Preparation,Operate Training Sessions,Product Launch Training Operation,Train The Trainer Operation,Training Handover &amp; Evaluation,Elearning System Management</t>
-  </si>
-  <si>
-    <t>Emergency Situation Dry Run,PURchasing Standard For Consumable Products</t>
-  </si>
-  <si>
-    <t>NIO CultURal Workshop Process,Hr Test Process</t>
-  </si>
-  <si>
-    <t>EU Company Car Policy,EU Rsu Policy,Holiday Policy,Recruiting &amp; Interview Process,Ncp Policy,Sickness Leave,Head Count Planning,Org Change Process</t>
-  </si>
-  <si>
-    <t>Example Learning Development Process</t>
-  </si>
-  <si>
-    <t>Recruiting Process,Onboarding Process</t>
+    <t>EU Reimbursement Policy,EU Travel Policy,Country Bank Account Opening,Emergency Payment,EB Quartlery 5 Year Budget Planning</t>
+  </si>
+  <si>
+    <t>5 Year Budget,Current Year Budget Planning</t>
+  </si>
+  <si>
+    <t>Example Finance Controlling</t>
+  </si>
+  <si>
+    <t>Create Course Materials,Training Quality Evaluation,Event Market Product Launch Preparation,Operate Training Sessions,Product Launch Training Operation,Train The Trainer Operation,Training Handover &amp; Evaluation,Elearning System Management</t>
+  </si>
+  <si>
+    <t>Emergency Situation Dry Run,Purchasing Standard For Consumable Products</t>
+  </si>
+  <si>
+    <t>NIO Cultural Workshop,Hr Test</t>
+  </si>
+  <si>
+    <t>EU Company Car Policy,EU RSU Policy,Holiday Policy,Recruiting &amp; Interview,NCP Policy,Sickness Leave,Head Count Planning,Org Change</t>
+  </si>
+  <si>
+    <t>Example Learning Development</t>
+  </si>
+  <si>
+    <t>Recruiting,Onboarding</t>
   </si>
   <si>
     <t>Annual Bonus Policy,Local Market Salary Benchmark</t>
   </si>
   <si>
-    <t>Privacy Impact Assessment - Pia,Maintenance Of Register Of Processing Activities (Ropa),EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,Ebe Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake Process,Ropa Reporting,User Term Changes</t>
-  </si>
-  <si>
-    <t>NIO Life RetURn Order Process,NIO Life New Product Launch Process,NIO Life Nh, Ns, Nsc Display Process,NIO Life Country Artist Selection,NIO Life Uniform Process,NIO Life Order To Delivery Process,NIO Life Product Pricing Definition,NIO Life Stock Planning Sop,NIO Life Internal Usage Request,NIO Life Product Selection Process</t>
+    <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities (Ropa),EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
+  </si>
+  <si>
+    <t>NIO Life Return Order,NIO Life New Product Launch,NIO Life NH, NS, NSc Display,NIO Life Country Artist Selection,NIO Life Uniform,NIO Life Order To Delivery,NIO Life Product Pricing Definition,NIO Life Stock Planning SOP,NIO Life Internal Usage Request,NIO Life Product Selection</t>
   </si>
   <si>
     <t>NIO Life - Export,NIO Life - Export - Planned Export,NIO Life - Export - Export For Internal Applicatioin,NIO Life - 1900-190X,NIO Life - 1900-190X - New Store Opening,NIO Life - 1900-190X - Replenishment,NIO Life - 1900-190X - Internal Application,NIO Life - App Sales,NIO Life - App Sales - Product Launch,NIO Life - App Sales - After Sales</t>
   </si>
   <si>
-    <t>Power Swap Operator Helps User Complete Swap,Power Swap Call Center Handles User Call,Power Home Charger Activation Process,Power Related Low Star Follow Up Process,Power Product Planning Process,Power Charging Network Partner Selection,Power Charging And Product Pricing Standard</t>
+    <t>Power Swap Operator Helps User Complete Swap,Power Swap Call Center Handles User Call,Power Home Charger Activation,Power Related Low Star Follow Up,Power Product Planning,Power Charging Network Partner Selection,Power Charging And Product Pricing Standard</t>
   </si>
   <si>
     <t>Example Power R&amp;M</t>
@@ -349,25 +349,25 @@
     <t>Example Power Battery &amp; Satefy</t>
   </si>
   <si>
-    <t>Cj Test 3,Power ProcURement,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power ProcURement - Standard Process,Power ProcURement - Authorized Process</t>
-  </si>
-  <si>
-    <t>Cj Test 2,Power EU PUS Leads To Operation Q-300-B-1 EU PUS LTO,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO Process,Power EU PUS Leads To Operation - LTO Process - Leads To Contract,Power EU PUS Leads To Operation - LTO Process - Contract To Operation,Power EU PUS Leads To Operation - LTO Process - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO Process - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO Process - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO Process - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO Process - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Announcement - Kickoff,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Announcement - Partner Nomination (If Applicable),Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Grid Connection &amp; Upgrade (If Applicable),Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power EU PUS Leads To Operation - LTO Process - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Launch,Power EU PUS Leads To Operation - LTO Process - Contract To Operation - Announcement,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval Process</t>
-  </si>
-  <si>
-    <t>Fota Launch Preparation,Fota Operation,New Model Go To Market Operation,Msrp Pricing Sop,User Behavior Tracking System (Ubts),Market Intelligence EURope</t>
-  </si>
-  <si>
-    <t>User Feedback Management,User Closed-Loop,Sud Experience Confirmation</t>
+    <t>Cj Test 3,Power Procurement,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power Procurement - Standard,Power Procurement - Authorized</t>
+  </si>
+  <si>
+    <t>Cj Test 2,Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination (If Applicable),Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade (If Applicable),Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval</t>
+  </si>
+  <si>
+    <t>FOTA Launch Preparation,FOTA Operation,New Model Go To Market Operation,MSRP Pricing SOP,User Behavior Tracking System (UBTS),Market Intelligence Europe</t>
+  </si>
+  <si>
+    <t>User Feedback,User Closed-Loop,Sud Experience Confirmation</t>
   </si>
   <si>
     <t>Bug Fix Planning</t>
   </si>
   <si>
-    <t>Vendor Selection Process,NIO Partner Management Process</t>
-  </si>
-  <si>
-    <t>Standard PURchase Process,Emergency PURchase Process,Order Negociation Process,Contract Review Process,Contract Management,Complete PURchasing Process</t>
+    <t>Vendor Selection,NIO Partner Management</t>
+  </si>
+  <si>
+    <t>Standard Purchase,Emergency Purchase,Order Negociation,Contract Review,Contract Management,Complete Purchasing</t>
   </si>
   <si>
     <t>Cj Test 1</t>
@@ -376,7 +376,7 @@
     <t>Financial Offer Product Design</t>
   </si>
   <si>
-    <t>Business Partner Buy Back Standard,Business Partner Selection Process,Business Partner Negociation Process</t>
+    <t>Business Partner Buy Back Standard,Business Partner Selection,Business Partner Negociation</t>
   </si>
   <si>
     <t>Manual NIO Points Policy,Manually Hand Out NIO Points To Users</t>
@@ -388,127 +388,127 @@
     <t>Community Partner Development 2.0,Community Referral Program Development</t>
   </si>
   <si>
-    <t>Gather Voice Of Users Process - Voc</t>
-  </si>
-  <si>
-    <t>F2F Event Process</t>
-  </si>
-  <si>
-    <t>5 Year Strategy Planning Presentation,5 Year Sales Volume Calculation,Market Entry Cadence Announcement Standard,EU Standardization Project,CURrent Market Sales Steering,5Yr Planning Flow,EURope Market Planning,EURope Market Planning - 5 Yrs Planning,EURope Market Planning - 5 Yrs Planning - 5 Yrs Sales Volume Planning,EURope Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions,EURope Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - FutURe Portfolio Mapping,EURope Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Business Model,EURope Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Market Entry Cadence &amp; InfrastURcutre,EURope Market Planning - Wave2 / Market Entry Pmo,EURope Market Planning - Governance Pmo,EURope Market Planning - Governance Pmo - Entity Setup</t>
-  </si>
-  <si>
-    <t>5Y Department Budget And Hc Plan,EU Office Location Selection,Market Launch,Monthly Process Review,Sop Process Broadcasting,Process Change Notification,Sop Process Pmo Collection,Process SURvey Evaluation,Wiki Update,1Y Department Budget And Hc Plan,Market Launch Pmo</t>
+    <t>Gather Voice Of Users - Voc</t>
+  </si>
+  <si>
+    <t>F2F Event</t>
+  </si>
+  <si>
+    <t>5 Year Strategy Planning Presentation,5 Year Sales Volume Calculation,Market Entry Cadence Announcement Standard,EU Standardization Project,Current Market Sales Steering,5Yr Planning Flow,Europe Market Planning,Europe Market Planning - 5 Yrs Planning,Europe Market Planning - 5 Yrs Planning - 5 Yrs Sales Volume Planning,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Future Portfolio Mapping,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Business Model,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Market Entry Cadence &amp; Infrasturcutre,Europe Market Planning - Wave2 / Market Entry PMO,Europe Market Planning - Governance PMO,Europe Market Planning - Governance PMO - Entity Setup</t>
+  </si>
+  <si>
+    <t>5Y Department Budget And Hc Plan,EU Office Location Selection,Market Launch,Monthly Review,SOP Broadcasting,Process Change Notification,SOP PMO Collection,Process Survey Evaluation,Wiki Update,1Y Department Budget And Hc Plan,Market Launch PMO</t>
   </si>
   <si>
     <t>Service Campaign Planning,Service Network Strategy Planning,Service Partner Planning,Service Capacity Planning</t>
   </si>
   <si>
-    <t>Vehicle Manager Check With Rdc About Vehicle Receive And Pdi Preparation Related Issues,Get Vehicles From Cn Or EU Hub To Rdc,Inspection Maintenance Process,Fota And Remote Service Operation Process,Service Campaign Operation Management Process,Central Warehouse Parts Replenishment Order Process,Car Wash Process,Vehicle License Registration Process,User Service Booking Process,Accident/Roadside Assistance Process,CoURtesy Car Management Process,User Complain Mechanism,Pre-Delivery Service Operation Process,Service Weekly Progress Dashboard,Test14 Process</t>
-  </si>
-  <si>
-    <t>Parts And Accessories Stock Preparation Process,Parts Forecast &amp; Planning,Parts Order To Delivery Process,Accessory Order To Delivery Process,Parts RetURn Process,Accessory RetURn Process</t>
-  </si>
-  <si>
-    <t>Network Development Dashboard Report Standard,Location Approval Process,Network Location Planning,Location Scouting Process,Scouting Vendor Selection And Management Process</t>
-  </si>
-  <si>
-    <t>EU Nh Design And Approval Process,Design Vendor Pool Selection Process,EU NIO House, Space, Hub Design Guidline,,Budget Approval And Management Process -Including Change Mana,Doa And Paymanet Process,Budget Making And Rolling Process,Network Development Manager Selects Design Vendor</t>
-  </si>
-  <si>
-    <t>Construction Management Process -Including Managing Vendors,Construction Vendor Pool Selection And Management Process,Nh, Ns, Nhub Opening Preparation Standard,Nh, Ns, Nhub Operation Management,EU Pos InfrastructURe Projects Tracking And Change Management</t>
-  </si>
-  <si>
-    <t>Daily Nh Store Closing Sop,Daily Nh Store Opening Sop,NIO House PURchase Consumables,NIO House Reception Process,Space Reservation Operation,NIO House Vehicle Information Display Standard,NIO House Property InsURance Process,NIO House Parts Display Standard,NIO House Nhs Shift Management</t>
+    <t>Vehicle Manager Check With RDC About Vehicle Receive And PDI Preparation Related Issues,Get Vehicles From CN Or EU Hub To Rdc,Inspection Maintenance,FOTA And Remote Service Operation,Service Campaign Operation Management,Central Warehouse Parts Replenishment Order,Car Wash,Vehicle License Registration,User Service Booking,Accident/Roadside Assistance,Courtesy Car Management,User Complain Mechanism,Pre-Delivery Service Operation,Service Weekly Progress Dashboard,Test14</t>
+  </si>
+  <si>
+    <t>Parts And Accessories Stock Preparation,Parts Forecast &amp; Planning,Parts Order To Delivery,Accessory Order To Delivery,Parts Return,Accessory Return</t>
+  </si>
+  <si>
+    <t>Network Development Dashboard Report Standard,Location Approval,Network Location Planning,Location Scouting,Scouting Vendor Selection And Management</t>
+  </si>
+  <si>
+    <t>EU NH Design And Approval,Design Vendor Pool Selection,EU NIO House, Space, Hub Design Guidline,,Budget Approval And Management - Including Change,DOA And Paymanet,Budget Making And Rolling,Network Development Manager Selects Design Vendor</t>
+  </si>
+  <si>
+    <t>Construction Management -Including Managing Vendors,Construction Vendor Pool Selection And Management,NH, NS, NHUB Opening Preparation Standard,NH, NS, NHUB Operation Management,EU POS Infrastructure Projects Tracking And Change Management</t>
+  </si>
+  <si>
+    <t>Daily NH Store Closing SOP,Daily NH Store Opening SOP,NIO House Purchase Consumables,NIO House Reception,Space Reservation Operation,NIO House Vehicle Information Display Standard,NIO House Property Insurance,NIO House Parts Display Standard,NIO House NHS Shift</t>
   </si>
   <si>
     <t>NIO House Event Operation,Big Event Planning,NIO House Event Planning,Big Event Operation,Event Location Selection,Event Vendor Selection,Event Communication,Event Preparation &amp; Training</t>
   </si>
   <si>
-    <t>Create EU Pr Strategy,Operate Pr Relate Events,Pgc Drafting Standard,Ogc Drafting Standard,Post Event Communication Requirement 2.2,</t>
-  </si>
-  <si>
-    <t>Public Conference Organization,Public Crisis Management Process,Plan Pr Related Events,Publish Pr Pgc &amp; Press Release</t>
-  </si>
-  <si>
-    <t>2B Product Development,2B Client Strategy,Asdasdsad,Fleet And Business Direct Sales - With Partner,Fleet And Business Direct Sales - Without Partner,Bulk Deal Offer Approval Process,Fleet And Business Weekly Governance And Reporting</t>
-  </si>
-  <si>
-    <t>User Experiences 2D Testdrive Coupon,User Orders PURchase Car,User Change Of Ownership,User Request Leasing,User Request SubSCRiption Cancelation,User Asks About Car Or Price Or Model Etc.,User Gets Normal Delivery,User Mutually Follows A NIO Employee On NIO App,User Orders Leasing Car,User Orders SubSCRiption Car,User Orders Something From NIO Cafe,User Pays The Final Payment,User Performs A Fota Upgrade,User RetURns A Leasing Car,User RetURns A SubSCRiption Car,User SubSCRibes NIO Newletter,User Wants To Book Testdrive Online,User Wants To Cancel Or Modify NIO Life Order,Receive SubSCRiption Order From User,Deliver SubSCRiption Cars,SubSCRiption Cars Delivery-Related,Send Vehicle Preparation Order To Rdc And The Registration Order To Dad,User RetURns A PURchase Car,User Experiences Normal Testdrive,Fellow Complete Testdrive Process,Fellow Handles A Testdrive Cancelation Or Change Request,Fellow Manually Books Testdrive For User,Fellow Testdrive Car Preparation,Fellow Follows Up Testdrive Leads,Fellow Fills Damage Form Together With Users,Employee Process New PURchase Oder,User PURchase Car After Delivery,Leads Classification And Follow Up Process Management,Test Drive Outbound Call And Communication, Post-Test Drive Follow-Up Process,Test Drive Site Selection, Layout And Process Design.,Group Test Drive Process - Standardize The Group Test Drive Process,Fellow Performance Evaluation Process,Order And Stock Planning And Management Process,Demo Car And Display Car Management,Appointment-To-Delivery Process,Power Swap Call Center Handles User Call,Location Scouting For Power Swap Station,Fellow Handles A Testdrive Process,Fellow Test Drive Follow Up Sop</t>
-  </si>
-  <si>
-    <t>Fifo Steering And Fleet Management,Fleet Transport Management,Fleet Planning Process,2B System Development Process</t>
-  </si>
-  <si>
-    <t>Sales Report Generation Standard,Intelligence Data ArchitectURe Design Standard,Data Cleanup Process,Data Interface Design Process</t>
-  </si>
-  <si>
-    <t>SubSCRiption Product Planning,Used Car Planning,Commercial Product Pricing,Market Scan &amp; Analysis,Rv Management,PURchase Product Planning,Financial Leasing Product Planning,Create A New Promotion,SubSCRiption Pricing Definition,SubSCRipiton Dynamic Pricing &amp; Seasonal Discount,Ancillary Fees Management,Commercial Condition For Special Deals,Commercial Condition Policies,Trade Ins,Rv Study Management</t>
-  </si>
-  <si>
-    <t>Partner Strategy Development Process</t>
-  </si>
-  <si>
-    <t>User Satisfaction - Service Coordinator - Global Processes,User Satisfaction - Service Coordinator - Global Processes - General,User Satisfaction - Service Coordinator - Global Processes - NIO Aftersales (So),User Satisfaction - Service Coordinator - Global Processes - NIO Life,User Satisfaction - Service Coordinator - Global Processes - NIO Sales (Uo),User Satisfaction - Service Coordinator - Global Processes - NIO Points,User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe),User Satisfaction - Service Coordinator - Global Processes - Vehicle,User Satisfaction - Service Coordinator - Global Processes - NIO App(In Progress),User Satisfaction - Service Coordinator - SCR Process Template Name(In Progress),User Satisfaction - Service Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User Satisfaction - Service Coordinator - Global Processes - General - Knowledge Library,User Satisfaction - Service Coordinator - Global Processes - General - Tagging SCR,User Satisfaction - Service Coordinator - Global Processes - General - User Om: Way Of Working,User Satisfaction - Service Coordinator - Global Processes - NIO Aftersales (So) - RetURning Car &amp; Power Accessories,User Satisfaction - Service Coordinator - Global Processes - NIO Aftersales (So) - Recycling Batteries And Cars (In Progress),User Satisfaction - Service Coordinator - Global Processes - NIO Life - RetURn NIO Life Products,User Satisfaction - Service Coordinator - Global Processes - NIO Life - NIO Life,User Satisfaction - Service Coordinator - Global Processes - NIO Points - NIO Points Redemption,User Satisfaction - Service Coordinator - Global Processes - NIO Points - NIO Point Missing,User Satisfaction - Service Coordinator - Global Processes - NIO Points - NIO Points Distribution,User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Battery Monitoring,User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Battery Charging/Super Chargers(Issues),User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Charging Map,User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Deleting Charging &amp; Battery Swap Order,User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Home Charger Activation,User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Power Swap Station(Issues),User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Power Charging(Issues),User Satisfaction - Service Coordinator - Global Processes - NIO Power (Pe) - Nfc Card Activation,User Satisfaction - Service Coordinator - Global Processes - Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service Coordinator - Global Processes - Vehicle - Hvdi Emergency Fault Response,User Satisfaction - Service Coordinator - Global Processes - Vehicle - Sota&amp;Fota Update(Failed),User Satisfaction - Service Coordinator - Global Processes - Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
-  </si>
-  <si>
-    <t>Emergency Handling Process,"Mysterious Ambassador/Open Check" Process And Standard.,Small Loop-Closing,Big Loop-Closing,Establish EU User Complaint Escalation And Response Mechanism.,Low Star Follow Up Process,Weekly Satisfaction Report Standard</t>
-  </si>
-  <si>
-    <t>5 Year Sales Planning,Sales Planning,Sales Planning - Supply Planning,Sales Planning - Sales Planning,Sales Planning - Fleet Planning,Sales Planning - Supply Planning - Offering StructURe,Sales Planning - Supply Planning - Planning To Production,Sales Planning - Supply Planning - Allocation &amp; Re-Allocation,Sales Planning - Sales Planning - Sales Performance Rolling Plan,Sales Planning - Sales Planning - Target Steering,Sales Planning - Fleet Planning - Stock Level Monitor &amp; Stock Age Forecast Model,Sales Planning - Fleet Planning - SubSCRiption Fleet Plan &amp; Monitor,Sales Planning - Fleet Planning - SubSCRiption Fleet Plan &amp; Monitor - In-Fleet Plan,Sales Planning - Fleet Planning - SubSCRiption Fleet Plan &amp; Monitor - De-Fleet Plan</t>
+    <t>Create EU PR Strategy,Operate PR Relate Events,PGC Drafting Standard,Ogc Drafting Standard,Post Event Communication Requirement 2.2,</t>
+  </si>
+  <si>
+    <t>Public Conference Organization,Public Crisis Management,Plan PR Related Events,Publish PR PGC &amp; Press Release</t>
+  </si>
+  <si>
+    <t>2B Product Development,2B Client Strategy,Asdasdsad,Fleet And Business Direct Sales - With Partner,Fleet And Business Direct Sales - Without Partner,Bulk Deal Offer Approval,Fleet And Business Weekly Governance And Reporting</t>
+  </si>
+  <si>
+    <t>User Experiences 2D Testdrive Coupon,User Orders Purchase Car,User Change Of Ownership,User Request Leasing,User Request Subscription Cancelation,User Asks About Car Or Price Or Model Etc.,User Gets Normal Delivery,User Mutually Follows A NIO Employee On NIO App,User Orders Leasing Car,User Orders Subscription Car,User Orders Something From NIO Cafe,User Pays The Final Payment,User Performs A FOTA Upgrade,User Returns A Leasing Car,User Returns A Subscription Car,User Subscribes NIO Newletter,User Wants To Book Testdrive Online,User Wants To Cancel Or Modify NIO Life Order,Receive Subscription Order From User,Deliver Subscription Cars,Subscription Cars Delivery-Related,Send Vehicle Preparation Order To RDC And The Registration Order To Dad,User Returns A Purchase Car,User Experiences Normal Testdrive,Fellow Complete Testdrive,Fellow Handles A Testdrive Cancelation Or Change Request,Fellow Manually Books Testdrive For User,Fellow Testdrive Car Preparation,Fellow Follows Up Testdrive Leads,Fellow Fills Damage Form Together With Users,Employee New Purchase Oder,User Purchase Car After Delivery,Leads Classification And Follow Up,Test Drive Outbound Call And Communication, Post-Test Drive Follow-Up,Test Drive Site Selection, Layout And Design.,Group Test Drive - Standardize The Group Test Drive,Fellow Performance Evaluation,Order And Stock Planning And Management,Demo Car And Display Car Management,Appointment-To-Delivery,Power Swap Call Center Handles User Call,Location Scouting For Power Swap Station,Fellow Handles A Testdrive,Fellow Test Drive Follow Up SOP</t>
+  </si>
+  <si>
+    <t>FIFO Steering And Fleet Management,Fleet Transport,Fleet Planning,2B System Development</t>
+  </si>
+  <si>
+    <t>Sales Report Generation Standard,Intelligence Data Architecture Design Standard,Data Cleanup,Data Interface Design</t>
+  </si>
+  <si>
+    <t>Subscription Product Planning,Used Car Planning,Commercial Product Pricing,Market Scan &amp; Analysis,RV Management,Purchase Product Planning,Financial Leasing Product Planning,Create A New Promotion,Subscription Pricing Definition,Subscripiton Dynamic Pricing &amp; Seasonal Discount,Ancillary Fees,Commercial Condition For Special Deals,Commercial Condition Policies,Trade ins,RV Study</t>
+  </si>
+  <si>
+    <t>Partner Strategy Development</t>
+  </si>
+  <si>
+    <t>User Satisfaction - Service Coordinator - Globales,User Satisfaction - Service Coordinator - Globales - General,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO),User Satisfaction - Service Coordinator - Globales - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Sales (UO),User Satisfaction - Service Coordinator - Globales - NIO Points,User Satisfaction - Service Coordinator - Globales - NIO Power (PE),User Satisfaction - Service Coordinator - Globales - Vehicle,User Satisfaction - Service Coordinator - Globales - NIO App(In Progress),User Satisfaction - Service Coordinator - SCR Template Name(In Progress),User Satisfaction - Service Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User Satisfaction - Service Coordinator - Globales - General - Knowledge Library,User Satisfaction - Service Coordinator - Globales - General - Tagging SCR,User Satisfaction - Service Coordinator - Globales - General - User Om: Way Of Working,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO) - Recycling Batteries And Cars (In Progress),User Satisfaction - Service Coordinator - Globales - NIO Life - Return NIO Life Products,User Satisfaction - Service Coordinator - Globales - NIO Life - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Redemption,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Point Missing,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Distribution,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Battery Monitoring,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Charging Map,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Home Charger Activation,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Power Swap Station(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Power Charging(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Nfc Card Activation,User Satisfaction - Service Coordinator - Globales - Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service Coordinator - Globales - Vehicle - Hvdi Emergency Fault Response,User Satisfaction - Service Coordinator - Globales - Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service Coordinator - Globales - Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
+  </si>
+  <si>
+    <t>Emergency Handling,"Mysterious Ambassador/Open Check" And Standard.,Small Loop-Closing,Big Loop-Closing,Establish EU User Complaint Escalation And Response Mechanism.,Low Star Follow Up,Weekly Satisfaction Report Standard</t>
+  </si>
+  <si>
+    <t>5 Year Sales Planning,Sales Planning,Sales Planning - Supply Planning,Sales Planning - Sales Planning,Sales Planning - Fleet Planning,Sales Planning - Supply Planning - Offering Structure,Sales Planning - Supply Planning - Planning To Production,Sales Planning - Supply Planning - Allocation &amp; Re-Allocation,Sales Planning - Sales Planning - Sales Performance Rolling Plan,Sales Planning - Sales Planning - Target Steering,Sales Planning - Fleet Planning - Stock Level Monitor &amp; Stock Age Forecast Model,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - In-Fleet Plan,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - De-Fleet Plan</t>
   </si>
   <si>
     <t>5 Year Production Planning</t>
   </si>
   <si>
-    <t>CURrent Year Fleet Planning</t>
-  </si>
-  <si>
-    <t>Long Term Volume Planning,Competitor Definition,Pre Mp And Launch Stock Ordering,Pricing,Option Offer,Product Briefing,Gtm Cadence,Gtm Milestone Adjustment,OTA Process</t>
-  </si>
-  <si>
-    <t>Service Network,Service Network - Nsc/Hub Planning And Operation Preparation Process,Service Network - Asc/Asc Lite Planning And Operation Preparation Process,Service Network - Body Repair Shop Planning And Operation Preparation Process,Service Network - RDC Planning And Operation Preparation Process,After Service</t>
-  </si>
-  <si>
-    <t>Service Partners Cooperation,Service Partners Cooperation - Service Partners Nomination And Cooperation Process</t>
-  </si>
-  <si>
-    <t>Service Product,Service Product - InsURance Product Design And Operation Process,Service Product - Innovative Service Product Design And Operation Process</t>
-  </si>
-  <si>
-    <t>Service ResoURces,Service ResoURces - CoURtesy Car Policy And Operation Process,Service ResoURces - Mobile Service Car Policy And Operation Process</t>
-  </si>
-  <si>
-    <t>Service Sop / Blue Book - One Click Service Operation Process,Service Sop / Blue Book - Accident Service Operation Process,Service Sop / Blue Book - Roadside Assistance Operation Process - Rsa,Service Sop / Blue Book - Roadside Assistance Operation Process - Ecall,Service Sop / Blue Book</t>
-  </si>
-  <si>
-    <t>Fota Operation,Fota Operation - Fota Release Process,Fota Operation - Operation And Close Loop Process</t>
-  </si>
-  <si>
-    <t>Spare Parts Planning &amp; Operation,Spare Parts Planning &amp; Operation - Parts Masterdata Management Process,Spare Parts Planning &amp; Operation - Parts Price Management Process,Spare Parts Planning &amp; Operation - Parts SCRap Management Process,Spare Parts Planning &amp; Operation - Parts Inventory Management Process,Spare Parts Planning &amp; Operation - Parts Planning And Order Operation Process,Spare Parts Planning &amp; Operation - Logistics Management Process - Supplier,Spare Parts Planning &amp; Operation - Logistics Management Process - Logistics,Spare Parts Planning &amp; Operation - New Project Parts Readiness Management,Spare Parts Planning &amp; Operation - Claim Management,Spare Parts Planning &amp; Operation - Special Tools Order Management</t>
-  </si>
-  <si>
-    <t>Accessory Planning &amp; Operation,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-Vehicle,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-No-Vehicle,Accessory Planning &amp; Operation - Accessory Order Process:Local SoURcing/Export,Accessory Planning &amp; Operation - Accessory Logistics,Accessory Planning &amp; Operation - Online Product Set Up,Accessory Planning &amp; Operation - Order Follow Up,Accessory Planning &amp; Operation - Accessory Price</t>
-  </si>
-  <si>
-    <t>Emergency Response,Emergency Response - EU Emergency Response Process</t>
-  </si>
-  <si>
-    <t>Technical Operation,Technical Operation - Warranty Policy Release And Operation Process,Technical Operation - Maintenance Policy Release And Operation Process,Technical Operation - User Manual/Rescue Card Release And Operation Process,Technical Operation - FRT Management Process</t>
-  </si>
-  <si>
-    <t>Service Campaign,Service Campaign - Service Campaign Release And Operation Management Process</t>
-  </si>
-  <si>
-    <t>Technical Training,Technical Training - Technical Training Management Process</t>
-  </si>
-  <si>
-    <t>Fleet Operation,Fleet Operation - Infleeting Operation Management,Fleet Operation - Delivery Management,Fleet Operation - Vehicle Using Management - Violation Ticket Management,Fleet Operation - RetURn Management,Fleet Planning &amp; Internal Car Management,Fleet Planning &amp; Internal Car Management - Internal Car Application,Fleet Planning &amp; Internal Car Management - Internal Car Using Management,Fleet Management</t>
-  </si>
-  <si>
-    <t>Quality,Quality Issue Management,EU Quality Issue Management Process</t>
-  </si>
-  <si>
-    <t>Financing,Settlement Management,NSC Settlement Management Process,ASC Settlement Management Process,RDC Settlement Management Process,Supplier Settlement Management Process,Collection Management Process</t>
+    <t>Current Year Fleet Planning</t>
+  </si>
+  <si>
+    <t>Long Term Volume Planning,Competitor Definition,Pre MP And Launch Stock Ordering,Pricing,Option Offer,Product Briefing,GTM Cadence,GTM Milestone Adjustment,OTA</t>
+  </si>
+  <si>
+    <t>Service Network,Service Network - NSC/Hub Planning And Operation Preparation,Service Network - ASC/ASC Lite Planning And Operation Preparation,Service Network - Body Repair Shop Planning And Operation Preparation,Service Network - RDC Planning And Operation Preparation,After Service</t>
+  </si>
+  <si>
+    <t>Service Partners Cooperation,Service Partners Cooperation - Service Partners Nomination And Cooperation</t>
+  </si>
+  <si>
+    <t>Service Product,Service Product - Insurance Product Design And Operation,Service Product - Innovative Service Product Design And Operation</t>
+  </si>
+  <si>
+    <t>Service Resources,Service Resources - Courtesy Car Policy And Operation,Service Resources - Mobile Service Car Policy And Operation</t>
+  </si>
+  <si>
+    <t>Service SOP / Blue Book - One Click Service Operation,Service SOP / Blue Book - Accident Service Operation,Service SOP / Blue Book - Roadside Assistance Operation - RSA,Service SOP / Blue Book - Roadside Assistance Operation - Ecall,Service SOP / Blue Book</t>
+  </si>
+  <si>
+    <t>FOTA Operation,FOTA Operation - FOTA Release,FOTA Operation - Operation And Close Loop</t>
+  </si>
+  <si>
+    <t>Spare Parts Planning &amp; Operation,Spare Parts Planning &amp; Operation - Parts Masterdata,Spare Parts Planning &amp; Operation - Parts Price,Spare Parts Planning &amp; Operation - Parts Scrap,Spare Parts Planning &amp; Operation - Parts Inventort,Spare Parts Planning &amp; Operation - Parts Planning And Order Operation,Spare Parts Planning &amp; Operation - Logistics - Supplier,Spare Parts Planning &amp; Operation - Logistics - Logistics,Spare Parts Planning &amp; Operation - New Project Parts Readiness,Spare Parts Planning &amp; Operation - Claim Management,Spare Parts Planning &amp; Operation - Special Tools Order</t>
+  </si>
+  <si>
+    <t>Accessory Planning &amp; Operation,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-Vehicle,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-No-Vehicle,Accessory Planning &amp; Operation - Accessory Order:Local Sourcing/Export,Accessory Planning &amp; Operation - Accessory Logistics,Accessory Planning &amp; Operation - Online Product Set Up,Accessory Planning &amp; Operation - Order Follow Up,Accessory Planning &amp; Operation - Accessory Price</t>
+  </si>
+  <si>
+    <t>Emergency Response,Emergency Response - EU Emergency Response</t>
+  </si>
+  <si>
+    <t>Technical Operation,Technical Operation - Warranty Policy Release And Operation,Technical Operation - Maintenance Policy Release And Operation,Technical Operation - User Manual/Rescue Card Release And Operation,Technical Operation - FRT Management</t>
+  </si>
+  <si>
+    <t>Service Campaign,Service Campaign - Service Campaign Release And Operation</t>
+  </si>
+  <si>
+    <t>Technical Training,Technical Training - Technical Training Management</t>
+  </si>
+  <si>
+    <t>Fleet Operation,Fleet Operation - Infleeting Operation Management,Fleet Operation - Delivery Management,Fleet Operation - Vehicle Using Management - Violation Ticket Management,Fleet Operation - Return Management,Fleet Planning &amp; Internal Car Management,Fleet Planning &amp; Internal Car Management - Internal Car Application,Fleet Planning &amp; Internal Car Management - Internal Car Using,Fleet Management</t>
+  </si>
+  <si>
+    <t>Quality,Quality Issue Management,EU Quality Issue Management</t>
+  </si>
+  <si>
+    <t>Financing,Settlement Management,NSC Settlement Management,ASC Settlement Management,RDC Settlement Management,Supplier Settlement Management,Collection Management</t>
   </si>
   <si>
     <t>Digital Development PMO</t>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="162">
   <si>
     <t>Capability</t>
   </si>
@@ -274,6 +274,9 @@
     <t>EU_Finance</t>
   </si>
   <si>
+    <t>EU_Business_Development</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -283,184 +286,52 @@
     <t>Achieve Satisfaction Target</t>
   </si>
   <si>
-    <t>EU Data Security Control Policy,Colleague Request New System Feature,New Feature UI Approval,European Feature Scheduling</t>
-  </si>
-  <si>
-    <t>Ud Publishes A PGC</t>
-  </si>
-  <si>
-    <t>New Feature Release</t>
-  </si>
-  <si>
-    <t>It Hardware Give Out Management,Colleague Request System Access Right</t>
-  </si>
-  <si>
-    <t>Country Tax Consulting</t>
-  </si>
-  <si>
-    <t>Monthly NIO Points Balance Control,EU Accounting Standard</t>
-  </si>
-  <si>
-    <t>EU Reimbursement Policy,EU Travel Policy,Country Bank Account Opening,Emergency Payment,EB Quartlery 5 Year Budget Planning</t>
-  </si>
-  <si>
-    <t>5 Year Budget,Current Year Budget Planning</t>
-  </si>
-  <si>
-    <t>Example Finance Controlling</t>
-  </si>
-  <si>
-    <t>Create Course Materials,Training Quality Evaluation,Event Market Product Launch Preparation,Operate Training Sessions,Product Launch Training Operation,Train The Trainer Operation,Training Handover &amp; Evaluation,Elearning System Management</t>
-  </si>
-  <si>
-    <t>Emergency Situation Dry Run,Purchasing Standard For Consumable Products</t>
-  </si>
-  <si>
-    <t>NIO Cultural Workshop,Hr Test</t>
-  </si>
-  <si>
-    <t>EU Company Car Policy,EU RSU Policy,Holiday Policy,Recruiting &amp; Interview,NCP Policy,Sickness Leave,Head Count Planning,Org Change</t>
-  </si>
-  <si>
-    <t>Example Learning Development</t>
-  </si>
-  <si>
-    <t>Recruiting,Onboarding</t>
-  </si>
-  <si>
-    <t>Annual Bonus Policy,Local Market Salary Benchmark</t>
+    <t>EB Quartlery 5 Year Budget Planning</t>
   </si>
   <si>
     <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities (Ropa),EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
   </si>
   <si>
-    <t>NIO Life Return Order,NIO Life New Product Launch,NIO Life NH, NS, NSc Display,NIO Life Country Artist Selection,NIO Life Uniform,NIO Life Order To Delivery,NIO Life Product Pricing Definition,NIO Life Stock Planning SOP,NIO Life Internal Usage Request,NIO Life Product Selection</t>
-  </si>
-  <si>
     <t>NIO Life - Export,NIO Life - Export - Planned Export,NIO Life - Export - Export For Internal Applicatioin,NIO Life - 1900-190X,NIO Life - 1900-190X - New Store Opening,NIO Life - 1900-190X - Replenishment,NIO Life - 1900-190X - Internal Application,NIO Life - App Sales,NIO Life - App Sales - Product Launch,NIO Life - App Sales - After Sales</t>
   </si>
   <si>
-    <t>Power Swap Operator Helps User Complete Swap,Power Swap Call Center Handles User Call,Power Home Charger Activation,Power Related Low Star Follow Up,Power Product Planning,Power Charging Network Partner Selection,Power Charging And Product Pricing Standard</t>
-  </si>
-  <si>
-    <t>Example Power R&amp;M</t>
-  </si>
-  <si>
-    <t>Example Power Battery &amp; Satefy</t>
-  </si>
-  <si>
-    <t>Cj Test 3,Power Procurement,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power Procurement - Standard,Power Procurement - Authorized</t>
-  </si>
-  <si>
-    <t>Cj Test 2,Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination (If Applicable),Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade (If Applicable),Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval</t>
-  </si>
-  <si>
-    <t>FOTA Launch Preparation,FOTA Operation,New Model Go To Market Operation,MSRP Pricing SOP,User Behavior Tracking System (UBTS),Market Intelligence Europe</t>
-  </si>
-  <si>
-    <t>User Feedback,User Closed-Loop,Sud Experience Confirmation</t>
-  </si>
-  <si>
-    <t>Bug Fix Planning</t>
-  </si>
-  <si>
-    <t>Vendor Selection,NIO Partner Management</t>
-  </si>
-  <si>
-    <t>Standard Purchase,Emergency Purchase,Order Negociation,Contract Review,Contract Management,Complete Purchasing</t>
-  </si>
-  <si>
-    <t>Cj Test 1</t>
-  </si>
-  <si>
-    <t>Financial Offer Product Design</t>
-  </si>
-  <si>
-    <t>Business Partner Buy Back Standard,Business Partner Selection,Business Partner Negociation</t>
-  </si>
-  <si>
-    <t>Manual NIO Points Policy,Manually Hand Out NIO Points To Users</t>
-  </si>
-  <si>
-    <t>Community Event Operation,Community Event Planning</t>
-  </si>
-  <si>
-    <t>Community Partner Development 2.0,Community Referral Program Development</t>
-  </si>
-  <si>
-    <t>Gather Voice Of Users - Voc</t>
-  </si>
-  <si>
-    <t>F2F Event</t>
-  </si>
-  <si>
-    <t>5 Year Strategy Planning Presentation,5 Year Sales Volume Calculation,Market Entry Cadence Announcement Standard,EU Standardization Project,Current Market Sales Steering,5Yr Planning Flow,Europe Market Planning,Europe Market Planning - 5 Yrs Planning,Europe Market Planning - 5 Yrs Planning - 5 Yrs Sales Volume Planning,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Future Portfolio Mapping,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Business Model,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Market Entry Cadence &amp; Infrasturcutre,Europe Market Planning - Wave2 / Market Entry PMO,Europe Market Planning - Governance PMO,Europe Market Planning - Governance PMO - Entity Setup</t>
-  </si>
-  <si>
-    <t>5Y Department Budget And Hc Plan,EU Office Location Selection,Market Launch,Monthly Review,SOP Broadcasting,Process Change Notification,SOP PMO Collection,Process Survey Evaluation,Wiki Update,1Y Department Budget And Hc Plan,Market Launch PMO</t>
-  </si>
-  <si>
-    <t>Service Campaign Planning,Service Network Strategy Planning,Service Partner Planning,Service Capacity Planning</t>
-  </si>
-  <si>
-    <t>Vehicle Manager Check With RDC About Vehicle Receive And PDI Preparation Related Issues,Get Vehicles From CN Or EU Hub To Rdc,Inspection Maintenance,FOTA And Remote Service Operation,Service Campaign Operation Management,Central Warehouse Parts Replenishment Order,Car Wash,Vehicle License Registration,User Service Booking,Accident/Roadside Assistance,Courtesy Car Management,User Complain Mechanism,Pre-Delivery Service Operation,Service Weekly Progress Dashboard,Test14</t>
-  </si>
-  <si>
-    <t>Parts And Accessories Stock Preparation,Parts Forecast &amp; Planning,Parts Order To Delivery,Accessory Order To Delivery,Parts Return,Accessory Return</t>
-  </si>
-  <si>
-    <t>Network Development Dashboard Report Standard,Location Approval,Network Location Planning,Location Scouting,Scouting Vendor Selection And Management</t>
-  </si>
-  <si>
-    <t>EU NH Design And Approval,Design Vendor Pool Selection,EU NIO House, Space, Hub Design Guidline,,Budget Approval And Management - Including Change,DOA And Paymanet,Budget Making And Rolling,Network Development Manager Selects Design Vendor</t>
-  </si>
-  <si>
-    <t>Construction Management -Including Managing Vendors,Construction Vendor Pool Selection And Management,NH, NS, NHUB Opening Preparation Standard,NH, NS, NHUB Operation Management,EU POS Infrastructure Projects Tracking And Change Management</t>
-  </si>
-  <si>
-    <t>Daily NH Store Closing SOP,Daily NH Store Opening SOP,NIO House Purchase Consumables,NIO House Reception,Space Reservation Operation,NIO House Vehicle Information Display Standard,NIO House Property Insurance,NIO House Parts Display Standard,NIO House NHS Shift</t>
-  </si>
-  <si>
-    <t>NIO House Event Operation,Big Event Planning,NIO House Event Planning,Big Event Operation,Event Location Selection,Event Vendor Selection,Event Communication,Event Preparation &amp; Training</t>
-  </si>
-  <si>
-    <t>Create EU PR Strategy,Operate PR Relate Events,PGC Drafting Standard,Ogc Drafting Standard,Post Event Communication Requirement 2.2,</t>
-  </si>
-  <si>
-    <t>Public Conference Organization,Public Crisis Management,Plan PR Related Events,Publish PR PGC &amp; Press Release</t>
-  </si>
-  <si>
-    <t>2B Product Development,2B Client Strategy,Asdasdsad,Fleet And Business Direct Sales - With Partner,Fleet And Business Direct Sales - Without Partner,Bulk Deal Offer Approval,Fleet And Business Weekly Governance And Reporting</t>
-  </si>
-  <si>
-    <t>User Experiences 2D Testdrive Coupon,User Orders Purchase Car,User Change Of Ownership,User Request Leasing,User Request Subscription Cancelation,User Asks About Car Or Price Or Model Etc.,User Gets Normal Delivery,User Mutually Follows A NIO Employee On NIO App,User Orders Leasing Car,User Orders Subscription Car,User Orders Something From NIO Cafe,User Pays The Final Payment,User Performs A FOTA Upgrade,User Returns A Leasing Car,User Returns A Subscription Car,User Subscribes NIO Newletter,User Wants To Book Testdrive Online,User Wants To Cancel Or Modify NIO Life Order,Receive Subscription Order From User,Deliver Subscription Cars,Subscription Cars Delivery-Related,Send Vehicle Preparation Order To RDC And The Registration Order To Dad,User Returns A Purchase Car,User Experiences Normal Testdrive,Fellow Complete Testdrive,Fellow Handles A Testdrive Cancelation Or Change Request,Fellow Manually Books Testdrive For User,Fellow Testdrive Car Preparation,Fellow Follows Up Testdrive Leads,Fellow Fills Damage Form Together With Users,Employee New Purchase Oder,User Purchase Car After Delivery,Leads Classification And Follow Up,Test Drive Outbound Call And Communication, Post-Test Drive Follow-Up,Test Drive Site Selection, Layout And Design.,Group Test Drive - Standardize The Group Test Drive,Fellow Performance Evaluation,Order And Stock Planning And Management,Demo Car And Display Car Management,Appointment-To-Delivery,Power Swap Call Center Handles User Call,Location Scouting For Power Swap Station,Fellow Handles A Testdrive,Fellow Test Drive Follow Up SOP</t>
-  </si>
-  <si>
-    <t>FIFO Steering And Fleet Management,Fleet Transport,Fleet Planning,2B System Development</t>
-  </si>
-  <si>
-    <t>Sales Report Generation Standard,Intelligence Data Architecture Design Standard,Data Cleanup,Data Interface Design</t>
-  </si>
-  <si>
-    <t>Subscription Product Planning,Used Car Planning,Commercial Product Pricing,Market Scan &amp; Analysis,RV Management,Purchase Product Planning,Financial Leasing Product Planning,Create A New Promotion,Subscription Pricing Definition,Subscripiton Dynamic Pricing &amp; Seasonal Discount,Ancillary Fees,Commercial Condition For Special Deals,Commercial Condition Policies,Trade ins,RV Study</t>
-  </si>
-  <si>
-    <t>Partner Strategy Development</t>
+    <t>Power Procurement,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power Procurement - Standard,Power Procurement - Authorized</t>
+  </si>
+  <si>
+    <t>Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination (If Applicable),Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade (If Applicable),Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval</t>
+  </si>
+  <si>
+    <t>MSRP Pricing SOP,User Behavior Tracking System (UBTS),Market Intelligence Europe</t>
+  </si>
+  <si>
+    <t>User Closed-Loop,Sud Experience Confirmation</t>
+  </si>
+  <si>
+    <t>Complete Purchasing</t>
+  </si>
+  <si>
+    <t>5Yr Planning Flow,Europe Market Planning,Europe Market Planning - 5 Yrs Planning,Europe Market Planning - 5 Yrs Planning - 5 Yrs Sales Volume Planning,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Future Portfolio Mapping,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Business Model,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Market Entry Cadence &amp; Infrasturcutre,Europe Market Planning - Wave2 / Market Entry PMO,Europe Market Planning - Governance PMO,Europe Market Planning - Governance PMO - Entity Setup</t>
+  </si>
+  <si>
+    <t>Vehicle Manager Check With RDC About Vehicle Receive And PDI Preparation Related Issues,Get Vehicles From CN Or EU Hub To Rdc</t>
+  </si>
+  <si>
+    <t>Financing,Settlement Management,NSC Settlement Management,ASC Settlement Management,RDC Settlement Management,Supplier Settlement Management,Collection Management</t>
+  </si>
+  <si>
+    <t>Fleet And Business Direct Sales - With Partner,Fleet And Business Direct Sales - Without Partner,Bulk Deal Offer Approval,Fleet And Business Weekly Governance And Reporting</t>
+  </si>
+  <si>
+    <t>User Returns A Purchase Car,User Experiences Normal Testdrive,Fellow Complete Testdrive,Fellow Handles A Testdrive</t>
+  </si>
+  <si>
+    <t>Create A New Promotion,Subscription Pricing Definition,Subscripiton Dynamic Pricing &amp; Seasonal Discount,Ancillary Fees,Commercial Condition For Special Deals,Commercial Condition Policies,Trade ins,RV Study</t>
   </si>
   <si>
     <t>User Satisfaction - Service Coordinator - Globales,User Satisfaction - Service Coordinator - Globales - General,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO),User Satisfaction - Service Coordinator - Globales - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Sales (UO),User Satisfaction - Service Coordinator - Globales - NIO Points,User Satisfaction - Service Coordinator - Globales - NIO Power (PE),User Satisfaction - Service Coordinator - Globales - Vehicle,User Satisfaction - Service Coordinator - Globales - NIO App(In Progress),User Satisfaction - Service Coordinator - SCR Template Name(In Progress),User Satisfaction - Service Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User Satisfaction - Service Coordinator - Globales - General - Knowledge Library,User Satisfaction - Service Coordinator - Globales - General - Tagging SCR,User Satisfaction - Service Coordinator - Globales - General - User Om: Way Of Working,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO) - Recycling Batteries And Cars (In Progress),User Satisfaction - Service Coordinator - Globales - NIO Life - Return NIO Life Products,User Satisfaction - Service Coordinator - Globales - NIO Life - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Redemption,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Point Missing,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Distribution,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Battery Monitoring,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Charging Map,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Home Charger Activation,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Power Swap Station(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Power Charging(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Nfc Card Activation,User Satisfaction - Service Coordinator - Globales - Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service Coordinator - Globales - Vehicle - Hvdi Emergency Fault Response,User Satisfaction - Service Coordinator - Globales - Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service Coordinator - Globales - Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
   </si>
   <si>
-    <t>Emergency Handling,"Mysterious Ambassador/Open Check" And Standard.,Small Loop-Closing,Big Loop-Closing,Establish EU User Complaint Escalation And Response Mechanism.,Low Star Follow Up,Weekly Satisfaction Report Standard</t>
-  </si>
-  <si>
-    <t>5 Year Sales Planning,Sales Planning,Sales Planning - Supply Planning,Sales Planning - Sales Planning,Sales Planning - Fleet Planning,Sales Planning - Supply Planning - Offering Structure,Sales Planning - Supply Planning - Planning To Production,Sales Planning - Supply Planning - Allocation &amp; Re-Allocation,Sales Planning - Sales Planning - Sales Performance Rolling Plan,Sales Planning - Sales Planning - Target Steering,Sales Planning - Fleet Planning - Stock Level Monitor &amp; Stock Age Forecast Model,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - In-Fleet Plan,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - De-Fleet Plan</t>
-  </si>
-  <si>
-    <t>5 Year Production Planning</t>
-  </si>
-  <si>
-    <t>Current Year Fleet Planning</t>
+    <t>Sales Planning,Sales Planning - Supply Planning,Sales Planning - Sales Planning,Sales Planning - Fleet Planning,Sales Planning - Supply Planning - Offering Structure,Sales Planning - Supply Planning - Planning To Production,Sales Planning - Supply Planning - Allocation &amp; Re-Allocation,Sales Planning - Sales Planning - Sales Performance Rolling Plan,Sales Planning - Sales Planning - Target Steering,Sales Planning - Fleet Planning - Stock Level Monitor &amp; Stock Age Forecast Model,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - In-Fleet Plan,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - De-Fleet Plan</t>
   </si>
   <si>
     <t>Long Term Volume Planning,Competitor Definition,Pre MP And Launch Stock Ordering,Pricing,Option Offer,Product Briefing,GTM Cadence,GTM Milestone Adjustment,OTA</t>
@@ -508,7 +379,7 @@
     <t>Quality,Quality Issue Management,EU Quality Issue Management</t>
   </si>
   <si>
-    <t>Financing,Settlement Management,NSC Settlement Management,ASC Settlement Management,RDC Settlement Management,Supplier Settlement Management,Collection Management</t>
+    <t>EU Business Development - Business Development - Leasing Process User Journey with Systems,EU Business Development - Business Development - Leasing Process User Journey with Systems - Account Management on Titan,EU Business Development - Business Development - Leasing Process User Journey with Systems - Payment and Invoice Process,EU Business Development - Business Development - Leasing Process User Journey with Systems - PTD Order Process,EU Business Development - Business Development - Subscription Lease-back Manual,EU Business Development - Business Development - Subscription Lease-back Manual - Quotation Process,EU Business Development - Business Development - Subscription Lease-back Manual - Order &amp; Deposit Process,EU Business Development - Business Development - Subscription Lease-back Manual - Vehicle Registration Process,EU Business Development - Business Development - Subscription Lease-back Manual - Downpayment Process,EU Business Development - Business Development - Subscription Lease-back Manual - Monthly Bill Payment Process,EU Business Development - Business Development - Subscription Lease-back Manual</t>
   </si>
   <si>
     <t>Digital Development PMO</t>
@@ -986,7 +857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1020,19 +891,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1043,19 +911,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1066,19 +931,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1089,19 +951,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1112,19 +971,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1135,19 +991,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1158,19 +1011,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1181,19 +1034,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1204,19 +1054,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1227,16 +1074,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1247,19 +1091,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1270,19 +1111,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1293,19 +1131,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1316,19 +1151,16 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1339,19 +1171,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1362,19 +1191,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1385,16 +1211,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1405,13 +1231,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1422,16 +1248,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1442,16 +1268,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1462,19 +1288,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1485,19 +1311,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1508,19 +1331,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1531,19 +1354,16 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1554,19 +1374,16 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1577,19 +1394,16 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G27" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1600,19 +1414,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G28" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1623,19 +1437,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1646,19 +1460,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="G30" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1669,19 +1483,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="G31" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1692,19 +1506,16 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1712,7 +1523,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1723,19 +1534,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="G34" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1746,19 +1554,19 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="G35" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1769,16 +1577,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1789,19 +1594,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="G37" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1812,19 +1614,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="G38" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1835,16 +1634,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1855,16 +1651,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1875,16 +1668,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1895,16 +1685,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1915,16 +1702,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1935,19 +1719,19 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="G44" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1958,19 +1742,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1981,19 +1762,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="G46" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2004,19 +1782,19 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="G47" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2027,19 +1805,19 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2050,16 +1828,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2070,19 +1845,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="G50" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2093,19 +1865,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="G51" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2116,19 +1885,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="G52" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2139,19 +1905,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="G53" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2162,19 +1925,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="G54" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2185,19 +1945,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="G55" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2208,19 +1965,19 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2231,16 +1988,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="G57" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2251,19 +2008,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="G58" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2274,19 +2028,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2297,19 +2048,19 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="F60" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="G60" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2320,16 +2071,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2340,16 +2088,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="G62" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2360,16 +2108,13 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2380,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G64" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2400,16 +2145,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2420,16 +2162,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>87</v>
-      </c>
-      <c r="E66" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2440,10 +2179,10 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2454,10 +2193,10 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2468,10 +2207,10 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2482,10 +2221,10 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2496,10 +2235,10 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2510,10 +2249,10 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2524,10 +2263,10 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2538,10 +2277,10 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2552,10 +2291,10 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2566,10 +2305,10 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2580,10 +2319,10 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2594,10 +2333,10 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2608,10 +2347,10 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2619,7 +2358,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2630,10 +2369,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E81" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2644,10 +2383,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2658,10 +2397,21 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>86</v>
       </c>
-      <c r="E83" t="s">
-        <v>164</v>
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -292,7 +292,7 @@
     <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities (Ropa),EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
   </si>
   <si>
-    <t>NIO Life - Export,NIO Life - Export - Planned Export,NIO Life - Export - Export For Internal Applicatioin,NIO Life - 1900-190X,NIO Life - 1900-190X - New Store Opening,NIO Life - 1900-190X - Replenishment,NIO Life - 1900-190X - Internal Application,NIO Life - App Sales,NIO Life - App Sales - Product Launch,NIO Life - App Sales - After Sales</t>
+    <t>NIO Life - Export - Planned Export,NIO Life - Export - Export For Internal Applicatioin,NIO Life - New Store Opening,NIO Life - Replenishment,NIO Life - Internal Application,NIO Life - Offline Display</t>
   </si>
   <si>
     <t>Power Procurement,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power Procurement - Standard,Power Procurement - Authorized</t>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="163">
   <si>
     <t>Capability</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>Quality,Quality Issue Management,EU Quality Issue Management</t>
+  </si>
+  <si>
+    <t>Travel and Expense Reimbursement,Cash Advance,Petty Cash Purchasing,Marketing Expenses</t>
   </si>
   <si>
     <t>EU Business Development - Business Development - Leasing Process User Journey with Systems,EU Business Development - Business Development - Leasing Process User Journey with Systems - Account Management on Titan,EU Business Development - Business Development - Leasing Process User Journey with Systems - Payment and Invoice Process,EU Business Development - Business Development - Leasing Process User Journey with Systems - PTD Order Process,EU Business Development - Business Development - Subscription Lease-back Manual,EU Business Development - Business Development - Subscription Lease-back Manual - Quotation Process,EU Business Development - Business Development - Subscription Lease-back Manual - Order &amp; Deposit Process,EU Business Development - Business Development - Subscription Lease-back Manual - Vehicle Registration Process,EU Business Development - Business Development - Subscription Lease-back Manual - Downpayment Process,EU Business Development - Business Development - Subscription Lease-back Manual - Monthly Bill Payment Process,EU Business Development - Business Development - Subscription Lease-back Manual</t>
@@ -897,10 +900,10 @@
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -917,10 +920,10 @@
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -937,10 +940,10 @@
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -957,10 +960,10 @@
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -977,10 +980,10 @@
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -997,10 +1000,10 @@
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1020,10 +1023,10 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1040,10 +1043,10 @@
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1060,10 +1063,10 @@
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1080,7 +1083,7 @@
         <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1097,10 +1100,10 @@
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1117,10 +1120,10 @@
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1137,10 +1140,10 @@
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1157,10 +1160,10 @@
         <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1177,10 +1180,10 @@
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1197,10 +1200,10 @@
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1217,10 +1220,10 @@
         <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1237,7 +1240,7 @@
         <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1254,10 +1257,10 @@
         <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1274,10 +1277,10 @@
         <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1297,10 +1300,10 @@
         <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1317,10 +1320,10 @@
         <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1340,10 +1343,10 @@
         <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1360,10 +1363,10 @@
         <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1380,10 +1383,10 @@
         <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,10 +1403,10 @@
         <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1423,10 +1426,10 @@
         <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1446,10 +1449,10 @@
         <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1469,10 +1472,10 @@
         <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1492,10 +1495,10 @@
         <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1512,10 +1515,10 @@
         <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1540,10 +1543,10 @@
         <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1563,10 +1566,10 @@
         <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1583,7 +1586,7 @@
         <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1600,10 +1603,10 @@
         <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1620,10 +1623,10 @@
         <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1640,7 +1643,7 @@
         <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1657,7 +1660,7 @@
         <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1674,7 +1677,7 @@
         <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1691,7 +1694,7 @@
         <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1708,7 +1711,7 @@
         <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1728,10 +1731,10 @@
         <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1748,10 +1751,10 @@
         <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1768,10 +1771,10 @@
         <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1791,10 +1794,10 @@
         <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1814,10 +1817,10 @@
         <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1834,7 +1837,7 @@
         <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1851,10 +1854,10 @@
         <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1871,10 +1874,10 @@
         <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1891,10 +1894,10 @@
         <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1911,10 +1914,10 @@
         <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1931,10 +1934,10 @@
         <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1951,10 +1954,10 @@
         <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1974,10 +1977,10 @@
         <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1997,7 +2000,7 @@
         <v>102</v>
       </c>
       <c r="G57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2014,10 +2017,10 @@
         <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2034,10 +2037,10 @@
         <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2057,10 +2060,10 @@
         <v>103</v>
       </c>
       <c r="F60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2077,7 +2080,7 @@
         <v>88</v>
       </c>
       <c r="F61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2097,7 +2100,7 @@
         <v>104</v>
       </c>
       <c r="G62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2114,7 +2117,7 @@
         <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2134,7 +2137,7 @@
         <v>105</v>
       </c>
       <c r="G64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2151,7 +2154,7 @@
         <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2168,7 +2171,7 @@
         <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2399,6 +2402,9 @@
       <c r="C83" t="s">
         <v>87</v>
       </c>
+      <c r="E83" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
@@ -2411,7 +2417,7 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="165">
   <si>
     <t>Capability</t>
   </si>
@@ -295,6 +295,9 @@
     <t>NIO Life - Export - Planned Export,NIO Life - Export - Export For Internal Applicatioin,NIO Life - New Store Opening,NIO Life - Replenishment,NIO Life - Internal Application,NIO Life - Offline Display</t>
   </si>
   <si>
+    <t>Power EU Operation - VOC War Room</t>
+  </si>
+  <si>
     <t>Power Procurement,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power Procurement - Standard,Power Procurement - Authorized</t>
   </si>
   <si>
@@ -304,7 +307,7 @@
     <t>MSRP Pricing SOP,User Behavior Tracking System (UBTS),Market Intelligence Europe</t>
   </si>
   <si>
-    <t>User Closed-Loop,Sud Experience Confirmation</t>
+    <t>COE Product Design - Europe Product Experience - User Closed-Loop,COE Product Design - Europe Product Experience - Sud Experience Confirmation</t>
   </si>
   <si>
     <t>Complete Purchasing</t>
@@ -328,6 +331,9 @@
     <t>Create A New Promotion,Subscription Pricing Definition,Subscripiton Dynamic Pricing &amp; Seasonal Discount,Ancillary Fees,Commercial Condition For Special Deals,Commercial Condition Policies,Trade ins,RV Study</t>
   </si>
   <si>
+    <t>EB User Operation - Partner Strategy,EB User Operation - Partner Strategy - Identification &amp; evaluation,EB User Operation - Partner Strategy - Partnering initiation,EB User Operation - Partner Strategy - Partnership negotiation,EB User Operation - Partner Strategy - Signing,EB User Operation - Partner Strategy - Execution,EB User Operation - Partner Strategy - Dissolution</t>
+  </si>
+  <si>
     <t>User Satisfaction - Service Coordinator - Globales,User Satisfaction - Service Coordinator - Globales - General,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO),User Satisfaction - Service Coordinator - Globales - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Sales (UO),User Satisfaction - Service Coordinator - Globales - NIO Points,User Satisfaction - Service Coordinator - Globales - NIO Power (PE),User Satisfaction - Service Coordinator - Globales - Vehicle,User Satisfaction - Service Coordinator - Globales - NIO App(In Progress),User Satisfaction - Service Coordinator - SCR Template Name(In Progress),User Satisfaction - Service Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User Satisfaction - Service Coordinator - Globales - General - Knowledge Library,User Satisfaction - Service Coordinator - Globales - General - Tagging SCR,User Satisfaction - Service Coordinator - Globales - General - User Om: Way Of Working,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO) - Recycling Batteries And Cars (In Progress),User Satisfaction - Service Coordinator - Globales - NIO Life - Return NIO Life Products,User Satisfaction - Service Coordinator - Globales - NIO Life - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Redemption,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Point Missing,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Distribution,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Battery Monitoring,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Charging Map,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Home Charger Activation,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Power Swap Station(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Power Charging(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Nfc Card Activation,User Satisfaction - Service Coordinator - Globales - Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service Coordinator - Globales - Vehicle - Hvdi Emergency Fault Response,User Satisfaction - Service Coordinator - Globales - Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service Coordinator - Globales - Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
   </si>
   <si>
@@ -337,7 +343,7 @@
     <t>Long Term Volume Planning,Competitor Definition,Pre MP And Launch Stock Ordering,Pricing,Option Offer,Product Briefing,GTM Cadence,GTM Milestone Adjustment,OTA</t>
   </si>
   <si>
-    <t>Service Network,Service Network - NSC/Hub Planning And Operation Preparation,Service Network - ASC/ASC Lite Planning And Operation Preparation,Service Network - Body Repair Shop Planning And Operation Preparation,Service Network - RDC Planning And Operation Preparation,After Service</t>
+    <t>Service Network - NSC and Hub Planning,Service Network - ASC and ASC Lite Planning,Service Network - Body Repair Shop Planning,Service Network - RDC Planning,After Service</t>
   </si>
   <si>
     <t>Service Partners Cooperation,Service Partners Cooperation - Service Partners Nomination And Cooperation</t>
@@ -382,7 +388,7 @@
     <t>Travel and Expense Reimbursement,Cash Advance,Petty Cash Purchasing,Marketing Expenses</t>
   </si>
   <si>
-    <t>EU Business Development - Business Development - Leasing Process User Journey with Systems,EU Business Development - Business Development - Leasing Process User Journey with Systems - Account Management on Titan,EU Business Development - Business Development - Leasing Process User Journey with Systems - Payment and Invoice Process,EU Business Development - Business Development - Leasing Process User Journey with Systems - PTD Order Process,EU Business Development - Business Development - Subscription Lease-back Manual,EU Business Development - Business Development - Subscription Lease-back Manual - Quotation Process,EU Business Development - Business Development - Subscription Lease-back Manual - Order &amp; Deposit Process,EU Business Development - Business Development - Subscription Lease-back Manual - Vehicle Registration Process,EU Business Development - Business Development - Subscription Lease-back Manual - Downpayment Process,EU Business Development - Business Development - Subscription Lease-back Manual - Monthly Bill Payment Process,EU Business Development - Business Development - Subscription Lease-back Manual</t>
+    <t>EU Business Development - Business Development - Leasing Process User Journey with Systems,EU Business Development - Business Development - Leasing Process User Journey with Systems - Account Management on Titan,EU Business Development - Business Development - Leasing Process User Journey with Systems - Payment and Invoice Process,EU Business Development - Business Development - Leasing Process User Journey with Systems - PTD Order Process,EU Business Development - Business Development - Subscription Lease-back Manual - Quotation Process,EU Business Development - Business Development - Subscription Lease-back Manual - Order &amp; Deposit Process,EU Business Development - Business Development - Subscription Lease-back Manual - Vehicle Registration Process,EU Business Development - Business Development - Subscription Lease-back Manual - Downpayment Process,EU Business Development - Business Development - Subscription Lease-back Manual - Monthly Bill Payment Process,EU Business Development - Business Development - Subscription Lease-back Manual</t>
   </si>
   <si>
     <t>Digital Development PMO</t>
@@ -860,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,10 +906,10 @@
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -920,10 +926,10 @@
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -940,10 +946,10 @@
         <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -960,10 +966,10 @@
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -980,10 +986,10 @@
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1000,10 +1006,10 @@
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1023,10 +1029,10 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1043,10 +1049,10 @@
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1063,10 +1069,10 @@
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1083,7 +1089,7 @@
         <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1100,10 +1106,10 @@
         <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1120,10 +1126,10 @@
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1140,10 +1146,10 @@
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1160,10 +1166,10 @@
         <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1180,10 +1186,10 @@
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1200,10 +1206,10 @@
         <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1220,10 +1226,10 @@
         <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1240,7 +1246,7 @@
         <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1257,10 +1263,10 @@
         <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1277,10 +1283,10 @@
         <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1300,10 +1306,10 @@
         <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1320,10 +1326,10 @@
         <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1343,10 +1349,10 @@
         <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1362,11 +1368,14 @@
       <c r="D25" t="s">
         <v>88</v>
       </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1383,10 +1392,10 @@
         <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1403,10 +1412,10 @@
         <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1423,13 +1432,13 @@
         <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1446,13 +1455,13 @@
         <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1469,13 +1478,13 @@
         <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1492,13 +1501,13 @@
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1515,10 +1524,10 @@
         <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1543,10 +1552,10 @@
         <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1563,13 +1572,13 @@
         <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1586,7 +1595,7 @@
         <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1603,10 +1612,10 @@
         <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1623,10 +1632,10 @@
         <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1643,7 +1652,7 @@
         <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1660,7 +1669,7 @@
         <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1677,7 +1686,7 @@
         <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1694,7 +1703,7 @@
         <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1711,7 +1720,7 @@
         <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1728,13 +1737,13 @@
         <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1751,10 +1760,10 @@
         <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1771,10 +1780,10 @@
         <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1791,13 +1800,13 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1814,13 +1823,13 @@
         <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1837,7 +1846,7 @@
         <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1854,10 +1863,10 @@
         <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1874,10 +1883,10 @@
         <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1894,10 +1903,10 @@
         <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1914,10 +1923,10 @@
         <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1934,10 +1943,10 @@
         <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1954,10 +1963,10 @@
         <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1974,13 +1983,13 @@
         <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F56" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1997,10 +2006,10 @@
         <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2017,10 +2026,10 @@
         <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G58" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2037,10 +2046,10 @@
         <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G59" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2057,13 +2066,13 @@
         <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F60" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2079,8 +2088,11 @@
       <c r="D61" t="s">
         <v>88</v>
       </c>
+      <c r="E61" t="s">
+        <v>105</v>
+      </c>
       <c r="F61" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2097,10 +2109,10 @@
         <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G62" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2117,7 +2129,7 @@
         <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2134,10 +2146,10 @@
         <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2154,7 +2166,7 @@
         <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2171,7 +2183,7 @@
         <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2185,7 +2197,7 @@
         <v>87</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2199,7 +2211,7 @@
         <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2213,7 +2225,7 @@
         <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2227,7 +2239,7 @@
         <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2241,7 +2253,7 @@
         <v>87</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2255,7 +2267,7 @@
         <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2269,7 +2281,7 @@
         <v>87</v>
       </c>
       <c r="E73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2283,7 +2295,7 @@
         <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2297,7 +2309,7 @@
         <v>87</v>
       </c>
       <c r="E75" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2311,7 +2323,7 @@
         <v>87</v>
       </c>
       <c r="E76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2325,7 +2337,7 @@
         <v>87</v>
       </c>
       <c r="E77" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2339,7 +2351,7 @@
         <v>87</v>
       </c>
       <c r="E78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2353,7 +2365,7 @@
         <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2375,7 +2387,7 @@
         <v>87</v>
       </c>
       <c r="E81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2389,7 +2401,7 @@
         <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2403,7 +2415,7 @@
         <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2417,7 +2429,18 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -355,13 +355,13 @@
     <t>Service Resources,Service Resources - Courtesy Car Policy And Operation,Service Resources - Mobile Service Car Policy And Operation</t>
   </si>
   <si>
-    <t>Service SOP / Blue Book - One Click Service Operation,Service SOP / Blue Book - Accident Service Operation,Service SOP / Blue Book - Roadside Assistance Operation - RSA,Service SOP / Blue Book - Roadside Assistance Operation - Ecall,Service SOP / Blue Book</t>
+    <t>Service SOP - Blue Book - One Click Service Operation,Service SOP - Blue Book - Accident Service Operation,Service SOP - Blue Book - Roadside Assistance Operation - RSA,Service SOP - Blue Book - Roadside Assistance Operation - Ecall,Service SOP - Blue Book</t>
   </si>
   <si>
     <t>FOTA Operation,FOTA Operation - FOTA Release,FOTA Operation - Operation And Close Loop</t>
   </si>
   <si>
-    <t>Spare Parts Planning &amp; Operation,Spare Parts Planning &amp; Operation - Parts Masterdata,Spare Parts Planning &amp; Operation - Parts Price,Spare Parts Planning &amp; Operation - Parts Scrap,Spare Parts Planning &amp; Operation - Parts Inventort,Spare Parts Planning &amp; Operation - Parts Planning And Order Operation,Spare Parts Planning &amp; Operation - Logistics - Supplier,Spare Parts Planning &amp; Operation - Logistics - Logistics,Spare Parts Planning &amp; Operation - New Project Parts Readiness,Spare Parts Planning &amp; Operation - Claim Management,Spare Parts Planning &amp; Operation - Special Tools Order</t>
+    <t>Spare Parts Planning &amp; Operation,Spare Parts Planning &amp; Operation - Parts Masterdata,Spare Parts Planning &amp; Operation - Parts Price,Spare Parts Planning &amp; Operation - Parts Scrap,Spare Parts Planning &amp; Operation - Parts Inventort,Spare Parts Planning &amp; Operation - Parts Planning And Order Operation,Spare Parts Planning &amp; Operation - Logistics - Supplier,Spare Parts Planning &amp; Operation - Logistics - Logistics,Spare Parts Planning &amp; Operation - New Project Parts Readiness,Spare Parts Planning &amp; Operation - Claim Management,Spare Parts Planning &amp; Operation - Special Tools Order,Spare Parts Planning &amp; Operation - Low Star Management</t>
   </si>
   <si>
     <t>Accessory Planning &amp; Operation,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-Vehicle,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-No-Vehicle,Accessory Planning &amp; Operation - Accessory Order:Local Sourcing/Export,Accessory Planning &amp; Operation - Accessory Logistics,Accessory Planning &amp; Operation - Online Product Set Up,Accessory Planning &amp; Operation - Order Follow Up,Accessory Planning &amp; Operation - Accessory Price</t>
@@ -370,7 +370,7 @@
     <t>Emergency Response,Emergency Response - EU Emergency Response</t>
   </si>
   <si>
-    <t>Technical Operation,Technical Operation - Warranty Policy Release And Operation,Technical Operation - Maintenance Policy Release And Operation,Technical Operation - User Manual/Rescue Card Release And Operation,Technical Operation - FRT Management</t>
+    <t>Technical Operation,Technical Operation - Warranty Policy Release And Operation,Technical Operation - Maintenance Policy Release And Operation,Technical Operation - User Manual - Rescue Card Release And Operation,Technical Operation - FRT Management</t>
   </si>
   <si>
     <t>Service Campaign,Service Campaign - Service Campaign Release And Operation</t>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="169">
   <si>
     <t>Capability</t>
   </si>
@@ -277,6 +277,9 @@
     <t>EU_Business_Development</t>
   </si>
   <si>
+    <t>EB-Enabling-Europe_Business_Enabling</t>
+  </si>
+  <si>
     <t>Click Me</t>
   </si>
   <si>
@@ -322,6 +325,9 @@
     <t>Financing,Settlement Management,NSC Settlement Management,ASC Settlement Management,RDC Settlement Management,Supplier Settlement Management,Collection Management</t>
   </si>
   <si>
+    <t>EB User Development - PR&amp;CC - NIO Global Spokesperson Rules,EB User Development - PR&amp;CC - NIO Global Spokesperson Rules - Public Activities,EB User Development - PR&amp;CC - NIO Global Spokesperson Rules - Media Interview</t>
+  </si>
+  <si>
     <t>Fleet And Business Direct Sales - With Partner,Fleet And Business Direct Sales - Without Partner,Bulk Deal Offer Approval,Fleet And Business Weekly Governance And Reporting</t>
   </si>
   <si>
@@ -337,6 +343,9 @@
     <t>User Satisfaction - Service Coordinator - Globales,User Satisfaction - Service Coordinator - Globales - General,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO),User Satisfaction - Service Coordinator - Globales - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Sales (UO),User Satisfaction - Service Coordinator - Globales - NIO Points,User Satisfaction - Service Coordinator - Globales - NIO Power (PE),User Satisfaction - Service Coordinator - Globales - Vehicle,User Satisfaction - Service Coordinator - Globales - NIO App(In Progress),User Satisfaction - Service Coordinator - SCR Template Name(In Progress),User Satisfaction - Service Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User Satisfaction - Service Coordinator - Globales - General - Knowledge Library,User Satisfaction - Service Coordinator - Globales - General - Tagging SCR,User Satisfaction - Service Coordinator - Globales - General - User Om: Way Of Working,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO) - Recycling Batteries And Cars (In Progress),User Satisfaction - Service Coordinator - Globales - NIO Life - Return NIO Life Products,User Satisfaction - Service Coordinator - Globales - NIO Life - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Redemption,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Point Missing,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Distribution,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Battery Monitoring,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Charging Map,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Home Charger Activation,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Power Swap Station(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Power Charging(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Nfc Card Activation,User Satisfaction - Service Coordinator - Globales - Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service Coordinator - Globales - Vehicle - Hvdi Emergency Fault Response,User Satisfaction - Service Coordinator - Globales - Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service Coordinator - Globales - Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
   </si>
   <si>
+    <t>User Satisfaction - User Relations Management - 5-Star Rating - 5-Star Scenario &amp; Schedule,User Satisfaction - User Relations Management - 5-Star Rating - Low-Star Follow Up SOP,User Satisfaction - User Relations Management - Ucls,User Satisfaction - User Relations Management - User Commmunity - Users Meet Developers,User Satisfaction - User Relations Management - User Commmunity - User Navigator,User Satisfaction - User Relations Management - User Commmunity - UAB,User Satisfaction - User Relations Management - User Commmunity - Community Account,User Satisfaction - User Relations Management - User Commmunity - User F2F,User Satisfaction - User Relations Management - User Response - Daily Low Star Response,User Satisfaction - User Relations Management - User Response - User Response Library Usage/Update SOP,User Satisfaction - User Relations Management - Weekly Report - EU UR Shared Event Calendar,User Satisfaction - User Relations Management - Weekly Report - NIO App User Feedback,User Satisfaction - User Relations Management,User Satisfaction - User Relations Management - NIO Points,User Satisfaction - User Relations Management - NIO Points - NIO Points User Manual,User Satisfaction - User Relations Management - NIO Points - Points Scenarios &amp; Standards &amp; Referral Rules,User Satisfaction - User Relations Management - NIO Points - Points/Coupon Instruction</t>
+  </si>
+  <si>
     <t>Sales Planning,Sales Planning - Supply Planning,Sales Planning - Sales Planning,Sales Planning - Fleet Planning,Sales Planning - Supply Planning - Offering Structure,Sales Planning - Supply Planning - Planning To Production,Sales Planning - Supply Planning - Allocation &amp; Re-Allocation,Sales Planning - Sales Planning - Sales Performance Rolling Plan,Sales Planning - Sales Planning - Target Steering,Sales Planning - Fleet Planning - Stock Level Monitor &amp; Stock Age Forecast Model,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - In-Fleet Plan,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - De-Fleet Plan</t>
   </si>
   <si>
@@ -388,7 +397,10 @@
     <t>Travel and Expense Reimbursement,Cash Advance,Petty Cash Purchasing,Marketing Expenses</t>
   </si>
   <si>
-    <t>EU Business Development - Business Development - Leasing Process User Journey with Systems,EU Business Development - Business Development - Leasing Process User Journey with Systems - Account Management on Titan,EU Business Development - Business Development - Leasing Process User Journey with Systems - Payment and Invoice Process,EU Business Development - Business Development - Leasing Process User Journey with Systems - PTD Order Process,EU Business Development - Business Development - Subscription Lease-back Manual - Quotation Process,EU Business Development - Business Development - Subscription Lease-back Manual - Order &amp; Deposit Process,EU Business Development - Business Development - Subscription Lease-back Manual - Vehicle Registration Process,EU Business Development - Business Development - Subscription Lease-back Manual - Downpayment Process,EU Business Development - Business Development - Subscription Lease-back Manual - Monthly Bill Payment Process,EU Business Development - Business Development - Subscription Lease-back Manual</t>
+    <t>EB Business Development - Business Development - Leasing Process User Journey with Systems,EB Business Development - Business Development - Leasing Process User Journey with Systems - Account Management on Titan,EB Business Development - Business Development - Leasing Process User Journey with Systems - Payment and Invoice Process,EB Business Development - Business Development - Leasing Process User Journey with Systems - PTD Order Process,EB Business Development - Business Development - Subscription Lease-back Manual - Quotation Process,EB Business Development - Business Development - Subscription Lease-back Manual - Order &amp; Deposit Process,EB Business Development - Business Development - Subscription Lease-back Manual - Vehicle Registration Process,EB Business Development - Business Development - Subscription Lease-back Manual - Downpayment Process,EB Business Development - Business Development - Subscription Lease-back Manual - Monthly Bill Payment Process,EB Business Development - Business Development - Subscription Lease-back Manual</t>
+  </si>
+  <si>
+    <t>EB - Europe Business Enabling - Market Entry</t>
   </si>
   <si>
     <t>Digital Development PMO</t>
@@ -866,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,16 +912,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -920,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -940,16 +952,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -960,16 +972,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -980,16 +992,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1000,16 +1012,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1020,19 +1032,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1043,16 +1055,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1063,16 +1075,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1083,13 +1095,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1100,16 +1112,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1120,16 +1132,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1140,16 +1152,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1160,16 +1172,16 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1180,16 +1192,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1200,16 +1212,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1220,16 +1232,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1240,13 +1252,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1257,16 +1269,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1277,16 +1289,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1297,19 +1309,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1320,16 +1332,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1340,19 +1352,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1363,19 +1375,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1386,16 +1398,16 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1406,16 +1418,16 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1426,19 +1438,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1449,19 +1461,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1472,19 +1484,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1495,19 +1507,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1518,16 +1530,16 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G32" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1535,7 +1547,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1546,16 +1558,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1566,19 +1578,19 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1589,13 +1601,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1606,16 +1618,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G37" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1626,16 +1638,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G38" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1646,13 +1658,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1663,13 +1675,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1680,13 +1692,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1697,13 +1709,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1714,13 +1726,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1731,19 +1743,19 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1754,16 +1766,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G45" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1774,16 +1786,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G46" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1794,19 +1806,19 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G47" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1817,19 +1829,19 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G48" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1840,13 +1852,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1857,16 +1869,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G50" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1877,16 +1889,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G51" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1897,16 +1909,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G52" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1917,16 +1929,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F53" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G53" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1937,16 +1949,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F54" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G54" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1957,16 +1969,19 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="E55" t="s">
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G55" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1977,19 +1992,19 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G56" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2000,16 +2015,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G57" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2020,16 +2035,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2040,16 +2055,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F59" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G59" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2060,19 +2075,19 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G60" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2083,16 +2098,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2103,16 +2118,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G62" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2123,13 +2138,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="E63" t="s">
+        <v>109</v>
       </c>
       <c r="G63" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2140,16 +2158,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G64" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2160,13 +2178,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2177,13 +2195,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2194,10 +2212,10 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2208,10 +2226,10 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2222,10 +2240,10 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2236,10 +2254,10 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2250,10 +2268,10 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2264,10 +2282,10 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2278,10 +2296,10 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E73" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2292,10 +2310,10 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2306,10 +2324,10 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2320,10 +2338,10 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E76" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2334,10 +2352,10 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2348,10 +2366,10 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2362,10 +2380,10 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E79" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2373,7 +2391,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2384,10 +2402,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2398,10 +2416,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2412,10 +2430,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2426,10 +2444,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2440,7 +2458,21 @@
         <v>64</v>
       </c>
       <c r="C85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="168">
   <si>
     <t>Capability</t>
   </si>
@@ -184,10 +184,7 @@
     <t>EB-ND-NIO_House_Operation</t>
   </si>
   <si>
-    <t>EB-UD-Events</t>
-  </si>
-  <si>
-    <t>EB-UD-Communication</t>
+    <t>EB-UD-Communication_&amp;_Event</t>
   </si>
   <si>
     <t>EB-UD-PR</t>
@@ -295,16 +292,16 @@
     <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities (Ropa),EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
   </si>
   <si>
-    <t>NIO Life - Export - Planned Export,NIO Life - Export - Export For Internal Applicatioin,NIO Life - New Store Opening,NIO Life - Replenishment,NIO Life - Internal Application,NIO Life - Offline Display</t>
+    <t>NIO Life - Export - Planned Export,NIO Life - New Store Opening,NIO Life - Replenishment,NIO Life - Offline Display,NIO Life - Internal Application,NIO Life - Export - Export For Internal Applicatioin</t>
   </si>
   <si>
     <t>Power EU Operation - VOC War Room</t>
   </si>
   <si>
-    <t>Power Procurement,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power Procurement - Standard,Power Procurement - Authorized</t>
-  </si>
-  <si>
-    <t>Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination (If Applicable),Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade (If Applicable),Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval</t>
+    <t>Power Procurement,Power Procurement - Standard,Power Procurement - Authorized,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool</t>
+  </si>
+  <si>
+    <t>Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination (If Applicable),Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade (If Applicable),Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval</t>
   </si>
   <si>
     <t>MSRP Pricing SOP,User Behavior Tracking System (UBTS),Market Intelligence Europe</t>
@@ -313,25 +310,25 @@
     <t>COE Product Design - Europe Product Experience - User Closed-Loop,COE Product Design - Europe Product Experience - Sud Experience Confirmation</t>
   </si>
   <si>
-    <t>Complete Purchasing</t>
-  </si>
-  <si>
-    <t>5Yr Planning Flow,Europe Market Planning,Europe Market Planning - 5 Yrs Planning,Europe Market Planning - 5 Yrs Planning - 5 Yrs Sales Volume Planning,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Future Portfolio Mapping,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Business Model,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Market Entry Cadence &amp; Infrasturcutre,Europe Market Planning - Wave2 / Market Entry PMO,Europe Market Planning - Governance PMO,Europe Market Planning - Governance PMO - Entity Setup</t>
-  </si>
-  <si>
-    <t>Vehicle Manager Check With RDC About Vehicle Receive And PDI Preparation Related Issues,Get Vehicles From CN Or EU Hub To Rdc</t>
+    <t>Complete Purchasing Process</t>
+  </si>
+  <si>
+    <t>Europe Market Planning - 5 Yrs Planning,Europe Market Planning,Europe Market Planning - 5 Yrs Planning - 5 Yrs Sales Volume Planning,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Future Portfolio Mapping,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Business Model,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Market Entry Cadence &amp; Infrasturcutre,Europe Market Planning - Wave2 Market Entry PMO,Europe Market Planning - Governance PMO,Europe Market Planning - Governance PMO - Entity Setup,5Yr Planning Flow</t>
+  </si>
+  <si>
+    <t>Get Vehicles From CN Or EU Hub To Rdc,Vehicle Manager Check With RDC About Vehicle Receive And PDI Preparation Related Issues</t>
   </si>
   <si>
     <t>Financing,Settlement Management,NSC Settlement Management,ASC Settlement Management,RDC Settlement Management,Supplier Settlement Management,Collection Management</t>
   </si>
   <si>
-    <t>EB User Development - PR&amp;CC - NIO Global Spokesperson Rules,EB User Development - PR&amp;CC - NIO Global Spokesperson Rules - Public Activities,EB User Development - PR&amp;CC - NIO Global Spokesperson Rules - Media Interview</t>
-  </si>
-  <si>
-    <t>Fleet And Business Direct Sales - With Partner,Fleet And Business Direct Sales - Without Partner,Bulk Deal Offer Approval,Fleet And Business Weekly Governance And Reporting</t>
-  </si>
-  <si>
-    <t>User Returns A Purchase Car,User Experiences Normal Testdrive,Fellow Complete Testdrive,Fellow Handles A Testdrive</t>
+    <t>EB User Development - PR - NIO Global Spokesperson Rules,EB User Development - PR - NIO Global Spokesperson Rules - Public Activities,EB User Development - PR - NIO Global Spokesperson Rules - Media Interview</t>
+  </si>
+  <si>
+    <t>Fleet And Business Direct Sales - Without Partner,Bulk Deal Offer Approval,Fleet And Business Direct Sales - With Partner,Fleet And Business Weekly Governance And Reporting</t>
+  </si>
+  <si>
+    <t>User Experiences Normal Testdrive,User Returns A Purchase Car,Fellow Complete Testdrive,Fellow Handles A Testdrive</t>
   </si>
   <si>
     <t>Create A New Promotion,Subscription Pricing Definition,Subscripiton Dynamic Pricing &amp; Seasonal Discount,Ancillary Fees,Commercial Condition For Special Deals,Commercial Condition Policies,Trade ins,RV Study</t>
@@ -340,64 +337,64 @@
     <t>EB User Operation - Partner Strategy,EB User Operation - Partner Strategy - Identification &amp; evaluation,EB User Operation - Partner Strategy - Partnering initiation,EB User Operation - Partner Strategy - Partnership negotiation,EB User Operation - Partner Strategy - Signing,EB User Operation - Partner Strategy - Execution,EB User Operation - Partner Strategy - Dissolution</t>
   </si>
   <si>
-    <t>User Satisfaction - Service Coordinator - Globales,User Satisfaction - Service Coordinator - Globales - General,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO),User Satisfaction - Service Coordinator - Globales - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Sales (UO),User Satisfaction - Service Coordinator - Globales - NIO Points,User Satisfaction - Service Coordinator - Globales - NIO Power (PE),User Satisfaction - Service Coordinator - Globales - Vehicle,User Satisfaction - Service Coordinator - Globales - NIO App(In Progress),User Satisfaction - Service Coordinator - SCR Template Name(In Progress),User Satisfaction - Service Coordinator - E2E SCR UR Expert (Need Breakdown/More Clarification),User Satisfaction - Service Coordinator - Globales - General - Knowledge Library,User Satisfaction - Service Coordinator - Globales - General - Tagging SCR,User Satisfaction - Service Coordinator - Globales - General - User Om: Way Of Working,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO) - Returning Car &amp; Power Accessories,User Satisfaction - Service Coordinator - Globales - NIO Aftersales (SO) - Recycling Batteries And Cars (In Progress),User Satisfaction - Service Coordinator - Globales - NIO Life - Return NIO Life Products,User Satisfaction - Service Coordinator - Globales - NIO Life - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Redemption,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Point Missing,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Distribution,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Battery Monitoring,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Battery Charging/Super Chargers(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Charging Map,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Deleting Charging &amp; Battery Swap Order,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Home Charger Activation,User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Power Swap Station(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Power Charging(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power (PE) - Nfc Card Activation,User Satisfaction - Service Coordinator - Globales - Vehicle - Autonomous Drivinig(Issues),User Satisfaction - Service Coordinator - Globales - Vehicle - Hvdi Emergency Fault Response,User Satisfaction - Service Coordinator - Globales - Vehicle - Sota&amp;FOTA Update(Failed),User Satisfaction - Service Coordinator - Globales - Vehicle - Vehicle Trouble Shooting(In Progress 20/2/2023)</t>
-  </si>
-  <si>
-    <t>User Satisfaction - User Relations Management - 5-Star Rating - 5-Star Scenario &amp; Schedule,User Satisfaction - User Relations Management - 5-Star Rating - Low-Star Follow Up SOP,User Satisfaction - User Relations Management - Ucls,User Satisfaction - User Relations Management - User Commmunity - Users Meet Developers,User Satisfaction - User Relations Management - User Commmunity - User Navigator,User Satisfaction - User Relations Management - User Commmunity - UAB,User Satisfaction - User Relations Management - User Commmunity - Community Account,User Satisfaction - User Relations Management - User Commmunity - User F2F,User Satisfaction - User Relations Management - User Response - Daily Low Star Response,User Satisfaction - User Relations Management - User Response - User Response Library Usage/Update SOP,User Satisfaction - User Relations Management - Weekly Report - EU UR Shared Event Calendar,User Satisfaction - User Relations Management - Weekly Report - NIO App User Feedback,User Satisfaction - User Relations Management,User Satisfaction - User Relations Management - NIO Points,User Satisfaction - User Relations Management - NIO Points - NIO Points User Manual,User Satisfaction - User Relations Management - NIO Points - Points Scenarios &amp; Standards &amp; Referral Rules,User Satisfaction - User Relations Management - NIO Points - Points/Coupon Instruction</t>
-  </si>
-  <si>
-    <t>Sales Planning,Sales Planning - Supply Planning,Sales Planning - Sales Planning,Sales Planning - Fleet Planning,Sales Planning - Supply Planning - Offering Structure,Sales Planning - Supply Planning - Planning To Production,Sales Planning - Supply Planning - Allocation &amp; Re-Allocation,Sales Planning - Sales Planning - Sales Performance Rolling Plan,Sales Planning - Sales Planning - Target Steering,Sales Planning - Fleet Planning - Stock Level Monitor &amp; Stock Age Forecast Model,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - In-Fleet Plan,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - De-Fleet Plan</t>
+    <t>User Satisfaction - Service Coordinator - Globales,User Satisfaction - Service Coordinator - Globales - General,User Satisfaction - Service Coordinator - Globales - General - User Om: Way Of Working,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO - Returning Car &amp; Power Accessories,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO - Recycling Batteries And Cars (In Progress),User Satisfaction - Service Coordinator - Globales - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Life - Return NIO Life Products,User Satisfaction - Service Coordinator - Globales - NIO Life - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Sales UO,User Satisfaction - Service Coordinator - Globales - NIO Points,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Redemption,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Point Missing,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Distribution,User Satisfaction - Service Coordinator - Globales - NIO Power PE,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Battery Monitoring,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Battery Charging or Super Chargers(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power PE - Charging Map,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Deleting Charging &amp; Battery Swap Order,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Home Charger Activation,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Power Swap Station(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power PE - Power Charging(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power PE - Nfc Card Activation,User Satisfaction - Service Coordinator - Globales - Vehicle,User Satisfaction - Service Coordinator - Globales - Vehicle - Autonomous Drivinig Issues,User Satisfaction - Service Coordinator - Globales - Vehicle - Hvdi Emergency Fault Response,User Satisfaction - Service Coordinator - Globales - Vehicle - Sota&amp;FOTA Update Failed,User Satisfaction - Service Coordinator - Globales - Vehicle - Vehicle Trouble Shooting,User Satisfaction - Service Coordinator - Globales - NIO App(In Progress),User Satisfaction - Service Coordinator - SCR Template Name(In Progress),User Satisfaction - Service Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),User Satisfaction - Service Coordinator - Globales - General - Knowledge Library,User Satisfaction - Service Coordinator - Globales - General - Tagging SCR</t>
+  </si>
+  <si>
+    <t>User Satisfaction - User Relations Management,User Satisfaction - User Relations Management - NIO Points,User Satisfaction - User Relations Management - NIO Points - NIO Points User Manual,User Satisfaction - User Relations Management - NIO Points - Points Scenarios &amp; Standards &amp; Referral Rules,User Satisfaction - User Relations Management - NIO Points - Points and Coupon Instruction,User Satisfaction - User Relations Management - 5-Star Rating - 5-Star Scenario &amp; Schedule,User Satisfaction - User Relations Management - 5-Star Rating - Low-Star Follow Up SOP,User Satisfaction - User Relations Management - Ucls,User Satisfaction - User Relations Management - User Commmunity - Users Meet Developers,User Satisfaction - User Relations Management - User Commmunity - User Navigator,User Satisfaction - User Relations Management - User Commmunity - UAB,User Satisfaction - User Relations Management - User Commmunity - Community Account,User Satisfaction - User Relations Management - User Commmunity - User F2F,User Satisfaction - User Relations Management - User Response - Daily Low Star Response,User Satisfaction - User Relations Management - User Response - User Response Library Usage SOP,User Satisfaction - User Relations Management - Weekly Report - EU UR Shared Event Calendar,User Satisfaction - User Relations Management - Weekly Report - NIO App User Feedback</t>
+  </si>
+  <si>
+    <t>Sales Planning,Sales Planning - Sales Planning,Sales Planning - Supply Planning,Sales Planning - Fleet Planning,Sales Planning - Supply Planning - Offering Structure,Sales Planning - Supply Planning - Planning To Production,Sales Planning - Supply Planning - Allocation &amp; Re-Allocation,Sales Planning - Sales Planning - Sales Performance Rolling Plan,Sales Planning - Sales Planning - Target Steering,Sales Planning - Fleet Planning - Stock Level Monitor &amp; Stock Age Forecast Model,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - In-Fleet Plan,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - De-Fleet Plan</t>
   </si>
   <si>
     <t>Long Term Volume Planning,Competitor Definition,Pre MP And Launch Stock Ordering,Pricing,Option Offer,Product Briefing,GTM Cadence,GTM Milestone Adjustment,OTA</t>
   </si>
   <si>
-    <t>Service Network - NSC and Hub Planning,Service Network - ASC and ASC Lite Planning,Service Network - Body Repair Shop Planning,Service Network - RDC Planning,After Service</t>
+    <t>Service Network - RDC Planning,Service Network - ASC and ASC Lite Planning,Service Network - Body Repair Shop Planning,Service Network - NSC and Hub Planning,After Service</t>
   </si>
   <si>
     <t>Service Partners Cooperation,Service Partners Cooperation - Service Partners Nomination And Cooperation</t>
   </si>
   <si>
-    <t>Service Product,Service Product - Insurance Product Design And Operation,Service Product - Innovative Service Product Design And Operation</t>
-  </si>
-  <si>
-    <t>Service Resources,Service Resources - Courtesy Car Policy And Operation,Service Resources - Mobile Service Car Policy And Operation</t>
-  </si>
-  <si>
-    <t>Service SOP - Blue Book - One Click Service Operation,Service SOP - Blue Book - Accident Service Operation,Service SOP - Blue Book - Roadside Assistance Operation - RSA,Service SOP - Blue Book - Roadside Assistance Operation - Ecall,Service SOP - Blue Book</t>
+    <t>Service Product - Insurance Product Design And Operation,Service Product - Innovative Service Product Design And Operation,Service Product</t>
+  </si>
+  <si>
+    <t>Service Resources - Courtesy Car Policy And Operation,Service Resources,Service Resources - Mobile Service Car Policy And Operation</t>
+  </si>
+  <si>
+    <t>Service SOP - Blue Book - One Click Service Operation,Service SOP - Blue Book - Roadside Assistance Operation - RSA,Service SOP - Blue Book - Roadside Assistance Operation - Ecall,Service SOP - Blue Book - Accident Service Operation,Service SOP - Blue Book</t>
   </si>
   <si>
     <t>FOTA Operation,FOTA Operation - FOTA Release,FOTA Operation - Operation And Close Loop</t>
   </si>
   <si>
-    <t>Spare Parts Planning &amp; Operation,Spare Parts Planning &amp; Operation - Parts Masterdata,Spare Parts Planning &amp; Operation - Parts Price,Spare Parts Planning &amp; Operation - Parts Scrap,Spare Parts Planning &amp; Operation - Parts Inventort,Spare Parts Planning &amp; Operation - Parts Planning And Order Operation,Spare Parts Planning &amp; Operation - Logistics - Supplier,Spare Parts Planning &amp; Operation - Logistics - Logistics,Spare Parts Planning &amp; Operation - New Project Parts Readiness,Spare Parts Planning &amp; Operation - Claim Management,Spare Parts Planning &amp; Operation - Special Tools Order,Spare Parts Planning &amp; Operation - Low Star Management</t>
-  </si>
-  <si>
-    <t>Accessory Planning &amp; Operation,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-Vehicle,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-No-Vehicle,Accessory Planning &amp; Operation - Accessory Order:Local Sourcing/Export,Accessory Planning &amp; Operation - Accessory Logistics,Accessory Planning &amp; Operation - Online Product Set Up,Accessory Planning &amp; Operation - Order Follow Up,Accessory Planning &amp; Operation - Accessory Price</t>
+    <t>Spare Parts Planning &amp; Operation - New Project Parts Readiness,Spare Parts Planning &amp; Operation - Low Star Management,Spare Parts Planning &amp; Operation,Spare Parts Planning &amp; Operation - Parts Masterdata,Spare Parts Planning &amp; Operation - Parts Price,Spare Parts Planning &amp; Operation - Parts Scrap,Spare Parts Planning &amp; Operation - Parts Inventort,Spare Parts Planning &amp; Operation - Parts Planning And Order Operation,Spare Parts Planning &amp; Operation - Logistics - Supplier,Spare Parts Planning &amp; Operation - Logistics - Logistics,Spare Parts Planning &amp; Operation - Claim Management,Spare Parts Planning &amp; Operation - Special Tools Order</t>
+  </si>
+  <si>
+    <t>Accessory Planning &amp; Operation,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-Vehicle,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-No-Vehicle,Accessory Planning &amp; Operation - Accessory Order -Local Sourcing Export,Accessory Planning &amp; Operation - Accessory Logistics,Accessory Planning &amp; Operation - Online Product Set Up,Accessory Planning &amp; Operation - Order Follow Up,Accessory Planning &amp; Operation - Accessory Price</t>
   </si>
   <si>
     <t>Emergency Response,Emergency Response - EU Emergency Response</t>
   </si>
   <si>
-    <t>Technical Operation,Technical Operation - Warranty Policy Release And Operation,Technical Operation - Maintenance Policy Release And Operation,Technical Operation - User Manual - Rescue Card Release And Operation,Technical Operation - FRT Management</t>
-  </si>
-  <si>
-    <t>Service Campaign,Service Campaign - Service Campaign Release And Operation</t>
-  </si>
-  <si>
-    <t>Technical Training,Technical Training - Technical Training Management</t>
-  </si>
-  <si>
-    <t>Fleet Operation,Fleet Operation - Infleeting Operation Management,Fleet Operation - Delivery Management,Fleet Operation - Vehicle Using Management - Violation Ticket Management,Fleet Operation - Return Management,Fleet Planning &amp; Internal Car Management,Fleet Planning &amp; Internal Car Management - Internal Car Application,Fleet Planning &amp; Internal Car Management - Internal Car Using,Fleet Management</t>
+    <t>Technical Operation - Warranty Policy Release And Operation,Technical Operation,Technical Operation - Maintenance Policy Release And Operation,Technical Operation - User Manual - Rescue Card Release And Operation,Technical Operation - FRT Management</t>
+  </si>
+  <si>
+    <t>Service Campaign - Service Campaign Release And Operation,Service Campaign</t>
+  </si>
+  <si>
+    <t>Technical Training - Technical Training Management,Technical Training</t>
+  </si>
+  <si>
+    <t>Fleet Management,Fleet Operation,Fleet Operation - Infleeting Operation Management,Fleet Operation - Delivery Management,Fleet Operation - Vehicle Using Management - Violation Ticket Management,Fleet Operation - Return Management,Fleet Planning &amp; Internal Car Management,Fleet Planning &amp; Internal Car Management - Internal Car Application,Fleet Planning &amp; Internal Car Management - Internal Car Using</t>
   </si>
   <si>
     <t>Quality,Quality Issue Management,EU Quality Issue Management</t>
   </si>
   <si>
-    <t>Travel and Expense Reimbursement,Cash Advance,Petty Cash Purchasing,Marketing Expenses</t>
-  </si>
-  <si>
-    <t>EB Business Development - Business Development - Leasing Process User Journey with Systems,EB Business Development - Business Development - Leasing Process User Journey with Systems - Account Management on Titan,EB Business Development - Business Development - Leasing Process User Journey with Systems - Payment and Invoice Process,EB Business Development - Business Development - Leasing Process User Journey with Systems - PTD Order Process,EB Business Development - Business Development - Subscription Lease-back Manual - Quotation Process,EB Business Development - Business Development - Subscription Lease-back Manual - Order &amp; Deposit Process,EB Business Development - Business Development - Subscription Lease-back Manual - Vehicle Registration Process,EB Business Development - Business Development - Subscription Lease-back Manual - Downpayment Process,EB Business Development - Business Development - Subscription Lease-back Manual - Monthly Bill Payment Process,EB Business Development - Business Development - Subscription Lease-back Manual</t>
+    <t>Marketing Expenses,Cash Advance,Petty Cash Purchasing,Travel and Expense Reimbursement</t>
+  </si>
+  <si>
+    <t>EB Business Development - Business Development - Subscription Lease-back Manual,EU Business Development - Business Development - Leasing Process User Journey with Systems,EU Business Development - Business Development - Leasing Process User Journey with Systems - Account Management on Titan,EU Business Development - Business Development - Leasing Process User Journey with Systems - Payment and Invoice Process,EU Business Development - Business Development - Leasing Process User Journey with Systems - PTD Order Process,EU Business Development - Business Development - Subscription Lease-back Manual - Quotation Process,EU Business Development - Business Development - Subscription Lease-back Manual - Order &amp; Deposit Process,EU Business Development - Business Development - Subscription Lease-back Manual - Vehicle Registration Process,EU Business Development - Business Development - Subscription Lease-back Manual - Downpayment Process,EU Business Development - Business Development - Subscription Lease-back Manual - Monthly Bill Payment Process</t>
   </si>
   <si>
     <t>EB - Europe Business Enabling - Market Entry</t>
@@ -457,7 +454,7 @@
     <t>NIO House Operation</t>
   </si>
   <si>
-    <t>Event</t>
+    <t>Communication and PR,Event</t>
   </si>
   <si>
     <t>Communication and PR</t>
@@ -878,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,16 +909,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -932,16 +929,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -952,16 +949,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -972,16 +969,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -992,16 +989,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1012,16 +1009,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1032,19 +1029,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1055,16 +1052,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1075,16 +1072,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1095,13 +1092,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1112,16 +1109,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1132,16 +1129,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1152,16 +1149,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1172,16 +1169,16 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1192,16 +1189,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1212,16 +1209,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1232,16 +1229,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1252,13 +1249,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1269,16 +1266,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1289,16 +1286,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1309,19 +1306,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1332,16 +1329,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1352,19 +1349,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1375,19 +1372,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1398,16 +1395,16 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1418,16 +1415,16 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1438,19 +1435,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1461,19 +1458,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1484,19 +1481,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1507,19 +1504,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1530,16 +1527,16 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1547,7 +1544,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1558,16 +1555,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1578,19 +1575,19 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1601,13 +1598,13 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1618,16 +1615,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1638,16 +1635,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1658,13 +1655,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1675,13 +1672,13 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1692,13 +1689,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1709,13 +1706,13 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1726,13 +1723,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1743,19 +1740,19 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1766,16 +1763,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1786,16 +1783,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1806,19 +1803,19 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1829,19 +1826,19 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1852,13 +1849,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1869,16 +1866,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1889,16 +1886,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1909,16 +1906,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1929,16 +1926,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1949,16 +1946,19 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1969,10 +1969,10 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
         <v>103</v>
@@ -1992,19 +1992,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
         <v>104</v>
       </c>
-      <c r="F56" t="s">
-        <v>149</v>
-      </c>
       <c r="G56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2015,16 +2012,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" t="s">
-        <v>105</v>
+        <v>88</v>
+      </c>
+      <c r="F57" t="s">
+        <v>149</v>
       </c>
       <c r="G57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2035,16 +2032,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
         <v>150</v>
       </c>
       <c r="G58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2055,16 +2052,19 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="E59" t="s">
+        <v>105</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2075,19 +2075,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
         <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2098,7 +2095,7 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
         <v>89</v>
@@ -2106,8 +2103,8 @@
       <c r="E61" t="s">
         <v>107</v>
       </c>
-      <c r="F61" t="s">
-        <v>152</v>
+      <c r="G61" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2118,16 +2115,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E62" t="s">
         <v>108</v>
       </c>
       <c r="G62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2138,16 +2135,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
         <v>109</v>
       </c>
       <c r="G63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2158,16 +2155,13 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
-      </c>
-      <c r="E64" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2178,13 +2172,13 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2195,13 +2189,10 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" t="s">
-        <v>167</v>
+        <v>87</v>
+      </c>
+      <c r="E66" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2212,7 +2203,7 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E67" t="s">
         <v>111</v>
@@ -2226,7 +2217,7 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
         <v>112</v>
@@ -2240,7 +2231,7 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
         <v>113</v>
@@ -2254,7 +2245,7 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E70" t="s">
         <v>114</v>
@@ -2268,7 +2259,7 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
         <v>115</v>
@@ -2282,7 +2273,7 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
         <v>116</v>
@@ -2296,7 +2287,7 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
         <v>117</v>
@@ -2310,7 +2301,7 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
         <v>118</v>
@@ -2324,7 +2315,7 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E75" t="s">
         <v>119</v>
@@ -2338,7 +2329,7 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E76" t="s">
         <v>120</v>
@@ -2352,7 +2343,7 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s">
         <v>121</v>
@@ -2366,7 +2357,7 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E78" t="s">
         <v>122</v>
@@ -2376,22 +2367,22 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>82</v>
-      </c>
       <c r="C79" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="E80" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2402,7 +2393,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E81" t="s">
         <v>124</v>
@@ -2416,7 +2407,7 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E82" t="s">
         <v>125</v>
@@ -2430,7 +2421,7 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E83" t="s">
         <v>126</v>
@@ -2444,35 +2435,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E84" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" t="s">
-        <v>88</v>
-      </c>
-      <c r="E86" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="172">
   <si>
     <t>Capability</t>
   </si>
@@ -34,6 +34,12 @@
     <t>Belongs to Topic</t>
   </si>
   <si>
+    <t>Defined by Department (1)</t>
+  </si>
+  <si>
+    <t>Belongs to Topic (1)</t>
+  </si>
+  <si>
     <t>COE-Digital-Digital_Product_Planning</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>COE-PD-Vehicle_Quality</t>
   </si>
   <si>
+    <t>COE-PD-Product_Marketing</t>
+  </si>
+  <si>
     <t>COE-Purchase-Vendor_Management</t>
   </si>
   <si>
@@ -223,9 +232,6 @@
     <t>EB-UO-Fleet_Planning</t>
   </si>
   <si>
-    <t>COE-Product_Marketing</t>
-  </si>
-  <si>
     <t>EU_Service_Network</t>
   </si>
   <si>
@@ -310,6 +316,9 @@
     <t>COE Product Design - Europe Product Experience - User Closed-Loop,COE Product Design - Europe Product Experience - Sud Experience Confirmation</t>
   </si>
   <si>
+    <t>Long Term Volume Planning,Competitor Definition,Pre MP And Launch Stock Ordering,Pricing,Option Offer,Product Briefing,GTM Cadence,GTM Milestone Adjustment,OTA,COE Product Design - Product Marketing Department - PMK - Digital GTM EU</t>
+  </si>
+  <si>
     <t>Complete Purchasing Process</t>
   </si>
   <si>
@@ -322,6 +331,9 @@
     <t>Financing,Settlement Management,NSC Settlement Management,ASC Settlement Management,RDC Settlement Management,Supplier Settlement Management,Collection Management</t>
   </si>
   <si>
+    <t>EB User Development - Communication &amp; Events - NIO House Launch Event &amp; Communication,EB User Development - Communication &amp; Events - Power Swap Station Opening Communication,EB User Development - Communication &amp; Events - Product go-to-market communication(in progress),EB User Development - Communication &amp; Events - NIO Summer (in progress)</t>
+  </si>
+  <si>
     <t>EB User Development - PR - NIO Global Spokesperson Rules,EB User Development - PR - NIO Global Spokesperson Rules - Public Activities,EB User Development - PR - NIO Global Spokesperson Rules - Media Interview</t>
   </si>
   <si>
@@ -349,7 +361,7 @@
     <t>Long Term Volume Planning,Competitor Definition,Pre MP And Launch Stock Ordering,Pricing,Option Offer,Product Briefing,GTM Cadence,GTM Milestone Adjustment,OTA</t>
   </si>
   <si>
-    <t>Service Network - RDC Planning,Service Network - ASC and ASC Lite Planning,Service Network - Body Repair Shop Planning,Service Network - NSC and Hub Planning,After Service</t>
+    <t>Service Network - RDC Planning,Service Network - ASC and ASC Lite Planning,Service Network - Body Repair Shop Planning,Service Network - NSC and Hub Planning</t>
   </si>
   <si>
     <t>Service Partners Cooperation,Service Partners Cooperation - Service Partners Nomination And Cooperation</t>
@@ -367,19 +379,19 @@
     <t>FOTA Operation,FOTA Operation - FOTA Release,FOTA Operation - Operation And Close Loop</t>
   </si>
   <si>
-    <t>Spare Parts Planning &amp; Operation - New Project Parts Readiness,Spare Parts Planning &amp; Operation - Low Star Management,Spare Parts Planning &amp; Operation,Spare Parts Planning &amp; Operation - Parts Masterdata,Spare Parts Planning &amp; Operation - Parts Price,Spare Parts Planning &amp; Operation - Parts Scrap,Spare Parts Planning &amp; Operation - Parts Inventort,Spare Parts Planning &amp; Operation - Parts Planning And Order Operation,Spare Parts Planning &amp; Operation - Logistics - Supplier,Spare Parts Planning &amp; Operation - Logistics - Logistics,Spare Parts Planning &amp; Operation - Claim Management,Spare Parts Planning &amp; Operation - Special Tools Order</t>
+    <t>Spare Parts Planning &amp; Operation - New Project Parts Readiness,Spare Parts Planning &amp; Operation - Low Star Management,Spare Parts Planning &amp; Operation,Spare Parts Planning &amp; Operation - Parts Masterdata,Spare Parts Planning &amp; Operation - Parts Price,Spare Parts Planning &amp; Operation - Parts Scrap,Spare Parts Planning &amp; Operation - Parts Inventory,Spare Parts Planning &amp; Operation - Parts Planning And Order Operation,Spare Parts Planning &amp; Operation - Logistics - Supplier,Spare Parts Planning &amp; Operation - Logistics - Logistics,Spare Parts Planning &amp; Operation - Claim Management,Spare Parts Planning &amp; Operation - Special Tools Order</t>
   </si>
   <si>
     <t>Accessory Planning &amp; Operation,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-Vehicle,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-No-Vehicle,Accessory Planning &amp; Operation - Accessory Order -Local Sourcing Export,Accessory Planning &amp; Operation - Accessory Logistics,Accessory Planning &amp; Operation - Online Product Set Up,Accessory Planning &amp; Operation - Order Follow Up,Accessory Planning &amp; Operation - Accessory Price</t>
   </si>
   <si>
-    <t>Emergency Response,Emergency Response - EU Emergency Response</t>
+    <t>Emergency Response - EU Emergency Response</t>
   </si>
   <si>
     <t>Technical Operation - Warranty Policy Release And Operation,Technical Operation,Technical Operation - Maintenance Policy Release And Operation,Technical Operation - User Manual - Rescue Card Release And Operation,Technical Operation - FRT Management</t>
   </si>
   <si>
-    <t>Service Campaign - Service Campaign Release And Operation,Service Campaign</t>
+    <t>Service Campaign - Service Campaign Release And Operation</t>
   </si>
   <si>
     <t>Technical Training - Technical Training Management,Technical Training</t>
@@ -875,13 +887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,305 +912,311 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1206,19 +1224,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1226,19 +1244,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1246,16 +1264,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1263,19 +1281,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1283,19 +1301,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1303,22 +1321,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1344,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1346,22 +1364,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1369,22 +1387,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1392,19 +1410,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1412,19 +1430,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1432,22 +1450,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1455,22 +1473,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1478,22 +1496,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1501,22 +1519,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1524,27 +1542,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1552,19 +1579,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1572,22 +1599,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1595,16 +1622,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1612,19 +1639,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1632,19 +1659,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G38" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1652,16 +1679,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1669,16 +1696,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1686,16 +1713,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1703,16 +1730,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1720,16 +1747,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1737,22 +1764,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1760,19 +1787,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1780,19 +1807,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1800,22 +1827,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1823,22 +1850,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G48" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1846,16 +1873,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1863,19 +1890,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G50" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1883,19 +1910,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G51" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1903,19 +1930,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G52" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1923,19 +1950,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G53" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1943,22 +1973,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G54" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1966,22 +1996,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G55" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1989,19 +2019,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2009,19 +2039,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G57" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2029,19 +2059,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G58" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2049,22 +2079,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G59" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2072,19 +2102,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2092,19 +2122,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G61" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2112,19 +2142,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2132,19 +2162,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2152,16 +2182,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2169,16 +2199,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2186,13 +2216,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2200,13 +2230,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2214,13 +2244,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2228,13 +2258,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2242,13 +2272,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2256,13 +2286,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2270,13 +2300,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2284,13 +2314,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2298,13 +2328,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2312,13 +2342,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2326,13 +2356,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2340,13 +2370,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2354,13 +2384,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E78" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2368,7 +2398,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2376,13 +2406,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2390,13 +2420,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2404,13 +2434,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2418,13 +2448,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2432,13 +2462,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E84" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="171">
   <si>
     <t>Capability</t>
   </si>
@@ -295,7 +295,7 @@
     <t>EB Quartlery 5 Year Budget Planning</t>
   </si>
   <si>
-    <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities (Ropa),EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
+    <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities - Ropa,EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
   </si>
   <si>
     <t>NIO Life - Export - Planned Export,NIO Life - New Store Opening,NIO Life - Replenishment,NIO Life - Offline Display,NIO Life - Internal Application,NIO Life - Export - Export For Internal Applicatioin</t>
@@ -307,10 +307,10 @@
     <t>Power Procurement,Power Procurement - Standard,Power Procurement - Authorized,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool</t>
   </si>
   <si>
-    <t>Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination (If Applicable),Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade (If Applicable),Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning (Owned By NIO Power),Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval</t>
-  </si>
-  <si>
-    <t>MSRP Pricing SOP,User Behavior Tracking System (UBTS),Market Intelligence Europe</t>
+    <t>Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination,Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade,Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval</t>
+  </si>
+  <si>
+    <t>MSRP Pricing SOP,User Behavior Tracking System - UBTS,Market Intelligence Europe</t>
   </si>
   <si>
     <t>COE Product Design - Europe Product Experience - User Closed-Loop,COE Product Design - Europe Product Experience - Sud Experience Confirmation</t>
@@ -331,7 +331,7 @@
     <t>Financing,Settlement Management,NSC Settlement Management,ASC Settlement Management,RDC Settlement Management,Supplier Settlement Management,Collection Management</t>
   </si>
   <si>
-    <t>EB User Development - Communication &amp; Events - NIO House Launch Event &amp; Communication,EB User Development - Communication &amp; Events - Power Swap Station Opening Communication,EB User Development - Communication &amp; Events - Product go-to-market communication(in progress),EB User Development - Communication &amp; Events - NIO Summer (in progress)</t>
+    <t>EB User Development - Communication &amp; Events - NIO House Launch Event &amp; Communication,EB User Development - Communication &amp; Events - Power Swap Station Opening Communication,EB User Development - Communication &amp; Events - Product go-to-market communication,EB User Development - Communication &amp; Events - NIO Summer</t>
   </si>
   <si>
     <t>EB User Development - PR - NIO Global Spokesperson Rules,EB User Development - PR - NIO Global Spokesperson Rules - Public Activities,EB User Development - PR - NIO Global Spokesperson Rules - Media Interview</t>
@@ -349,16 +349,13 @@
     <t>EB User Operation - Partner Strategy,EB User Operation - Partner Strategy - Identification &amp; evaluation,EB User Operation - Partner Strategy - Partnering initiation,EB User Operation - Partner Strategy - Partnership negotiation,EB User Operation - Partner Strategy - Signing,EB User Operation - Partner Strategy - Execution,EB User Operation - Partner Strategy - Dissolution</t>
   </si>
   <si>
-    <t>User Satisfaction - Service Coordinator - Globales,User Satisfaction - Service Coordinator - Globales - General,User Satisfaction - Service Coordinator - Globales - General - User Om: Way Of Working,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO - Returning Car &amp; Power Accessories,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO - Recycling Batteries And Cars (In Progress),User Satisfaction - Service Coordinator - Globales - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Life - Return NIO Life Products,User Satisfaction - Service Coordinator - Globales - NIO Life - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Sales UO,User Satisfaction - Service Coordinator - Globales - NIO Points,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Redemption,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Point Missing,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Distribution,User Satisfaction - Service Coordinator - Globales - NIO Power PE,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Battery Monitoring,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Battery Charging or Super Chargers(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power PE - Charging Map,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Deleting Charging &amp; Battery Swap Order,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Home Charger Activation,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Power Swap Station(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power PE - Power Charging(Issues),User Satisfaction - Service Coordinator - Globales - NIO Power PE - Nfc Card Activation,User Satisfaction - Service Coordinator - Globales - Vehicle,User Satisfaction - Service Coordinator - Globales - Vehicle - Autonomous Drivinig Issues,User Satisfaction - Service Coordinator - Globales - Vehicle - Hvdi Emergency Fault Response,User Satisfaction - Service Coordinator - Globales - Vehicle - Sota&amp;FOTA Update Failed,User Satisfaction - Service Coordinator - Globales - Vehicle - Vehicle Trouble Shooting,User Satisfaction - Service Coordinator - Globales - NIO App(In Progress),User Satisfaction - Service Coordinator - SCR Template Name(In Progress),User Satisfaction - Service Coordinator - E2E SCR UR Expert (Need Breakdown and More Clarification),User Satisfaction - Service Coordinator - Globales - General - Knowledge Library,User Satisfaction - Service Coordinator - Globales - General - Tagging SCR</t>
+    <t>User Satisfaction - Service Coordinator - Globales,User Satisfaction - Service Coordinator - Globales - General,User Satisfaction - Service Coordinator - Globales - General - User Om: Way Of Working,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO - Returning Car &amp; Power Accessories,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO - Recycling Batteries And Cars,User Satisfaction - Service Coordinator - Globales - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Life - Return NIO Life Products,User Satisfaction - Service Coordinator - Globales - NIO Life - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Sales UO,User Satisfaction - Service Coordinator - Globales - NIO Points,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Redemption,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Point Missing,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Distribution,User Satisfaction - Service Coordinator - Globales - NIO Power PE,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Battery Monitoring,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Battery Charging or Super Chargers,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Charging Map,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Deleting Charging &amp; Battery Swap Order,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Home Charger Activation,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Power Swap Station,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Power Charging,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Nfc Card Activation,User Satisfaction - Service Coordinator - Globales - Vehicle,User Satisfaction - Service Coordinator - Globales - Vehicle - Autonomous Drivinig Issues,User Satisfaction - Service Coordinator - Globales - Vehicle - Hvdi Emergency Fault Response,User Satisfaction - Service Coordinator - Globales - Vehicle - Sota&amp;FOTA Update Failed,User Satisfaction - Service Coordinator - Globales - Vehicle - Vehicle Trouble Shooting,User Satisfaction - Service Coordinator - Globales - NIO App,User Satisfaction - Service Coordinator - SCR Template Name,User Satisfaction - Service Coordinator - E2E SCR UR Expert,User Satisfaction - Service Coordinator - Globales - General - Knowledge Library,User Satisfaction - Service Coordinator - Globales - General - Tagging SCR</t>
   </si>
   <si>
     <t>User Satisfaction - User Relations Management,User Satisfaction - User Relations Management - NIO Points,User Satisfaction - User Relations Management - NIO Points - NIO Points User Manual,User Satisfaction - User Relations Management - NIO Points - Points Scenarios &amp; Standards &amp; Referral Rules,User Satisfaction - User Relations Management - NIO Points - Points and Coupon Instruction,User Satisfaction - User Relations Management - 5-Star Rating - 5-Star Scenario &amp; Schedule,User Satisfaction - User Relations Management - 5-Star Rating - Low-Star Follow Up SOP,User Satisfaction - User Relations Management - Ucls,User Satisfaction - User Relations Management - User Commmunity - Users Meet Developers,User Satisfaction - User Relations Management - User Commmunity - User Navigator,User Satisfaction - User Relations Management - User Commmunity - UAB,User Satisfaction - User Relations Management - User Commmunity - Community Account,User Satisfaction - User Relations Management - User Commmunity - User F2F,User Satisfaction - User Relations Management - User Response - Daily Low Star Response,User Satisfaction - User Relations Management - User Response - User Response Library Usage SOP,User Satisfaction - User Relations Management - Weekly Report - EU UR Shared Event Calendar,User Satisfaction - User Relations Management - Weekly Report - NIO App User Feedback</t>
   </si>
   <si>
     <t>Sales Planning,Sales Planning - Sales Planning,Sales Planning - Supply Planning,Sales Planning - Fleet Planning,Sales Planning - Supply Planning - Offering Structure,Sales Planning - Supply Planning - Planning To Production,Sales Planning - Supply Planning - Allocation &amp; Re-Allocation,Sales Planning - Sales Planning - Sales Performance Rolling Plan,Sales Planning - Sales Planning - Target Steering,Sales Planning - Fleet Planning - Stock Level Monitor &amp; Stock Age Forecast Model,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - In-Fleet Plan,Sales Planning - Fleet Planning - Subscription Fleet Plan &amp; Monitor - De-Fleet Plan</t>
-  </si>
-  <si>
-    <t>Long Term Volume Planning,Competitor Definition,Pre MP And Launch Stock Ordering,Pricing,Option Offer,Product Briefing,GTM Cadence,GTM Milestone Adjustment,OTA</t>
   </si>
   <si>
     <t>Service Network - RDC Planning,Service Network - ASC and ASC Lite Planning,Service Network - Body Repair Shop Planning,Service Network - NSC and Hub Planning</t>
@@ -887,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,10 +930,10 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -953,10 +950,10 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -973,10 +970,10 @@
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -993,10 +990,10 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1013,10 +1010,10 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1033,10 +1030,10 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1056,10 +1053,10 @@
         <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1076,10 +1073,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1096,10 +1093,10 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1116,7 +1113,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1133,10 +1130,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1153,10 +1150,10 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1173,10 +1170,10 @@
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1193,10 +1190,10 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1213,10 +1210,10 @@
         <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1233,10 +1230,10 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1253,10 +1250,10 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1273,7 +1270,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1290,10 +1287,10 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1310,10 +1307,10 @@
         <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1333,10 +1330,10 @@
         <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1353,10 +1350,10 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1376,10 +1373,10 @@
         <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1399,10 +1396,10 @@
         <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1419,10 +1416,10 @@
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1439,10 +1436,10 @@
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1462,10 +1459,10 @@
         <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1485,10 +1482,10 @@
         <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1508,10 +1505,10 @@
         <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1531,10 +1528,10 @@
         <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1551,10 +1548,10 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1588,10 +1585,10 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1611,10 +1608,10 @@
         <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1631,7 +1628,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1648,10 +1645,10 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1668,10 +1665,10 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1688,7 +1685,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1705,7 +1702,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1722,7 +1719,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1739,7 +1736,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1756,7 +1753,7 @@
         <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1776,10 +1773,10 @@
         <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1796,10 +1793,10 @@
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1816,10 +1813,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1839,10 +1836,10 @@
         <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1862,10 +1859,10 @@
         <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1882,7 +1879,7 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1899,10 +1896,10 @@
         <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1919,10 +1916,10 @@
         <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1939,10 +1936,10 @@
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1962,10 +1959,10 @@
         <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1985,10 +1982,10 @@
         <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2008,10 +2005,10 @@
         <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2031,7 +2028,7 @@
         <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2048,10 +2045,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2068,10 +2065,10 @@
         <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2091,10 +2088,10 @@
         <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2114,7 +2111,7 @@
         <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2134,7 +2131,7 @@
         <v>111</v>
       </c>
       <c r="G61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2154,7 +2151,7 @@
         <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2174,7 +2171,7 @@
         <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2191,7 +2188,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2208,7 +2205,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2216,7 +2213,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
         <v>89</v>
@@ -2230,7 +2227,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
         <v>89</v>
@@ -2244,7 +2241,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>89</v>
@@ -2258,7 +2255,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
         <v>89</v>
@@ -2272,7 +2269,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
         <v>89</v>
@@ -2286,7 +2283,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
         <v>89</v>
@@ -2300,7 +2297,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
         <v>89</v>
@@ -2314,7 +2311,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
         <v>89</v>
@@ -2328,7 +2325,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
@@ -2342,7 +2339,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
         <v>89</v>
@@ -2356,7 +2353,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
@@ -2370,7 +2367,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
@@ -2383,22 +2380,22 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>83</v>
-      </c>
       <c r="C78" t="s">
         <v>89</v>
-      </c>
-      <c r="E78" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
+      <c r="B79" t="s">
+        <v>84</v>
+      </c>
       <c r="C79" t="s">
         <v>89</v>
+      </c>
+      <c r="E79" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2406,7 +2403,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
         <v>89</v>
@@ -2420,7 +2417,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
         <v>89</v>
@@ -2434,7 +2431,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2448,27 +2445,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
         <v>89</v>
       </c>
       <c r="E83" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -301,22 +301,22 @@
     <t>NIO Life - Export - Planned Export,NIO Life - New Store Opening,NIO Life - Replenishment,NIO Life - Offline Display,NIO Life - Internal Application,NIO Life - Export - Export For Internal Applicatioin</t>
   </si>
   <si>
-    <t>Power EU Operation - VOC War Room</t>
-  </si>
-  <si>
-    <t>Power Procurement,Power Procurement - Standard,Power Procurement - Authorized,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool</t>
-  </si>
-  <si>
-    <t>Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination,Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade,Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval</t>
-  </si>
-  <si>
-    <t>MSRP Pricing SOP,User Behavior Tracking System - UBTS,Market Intelligence Europe</t>
+    <t>Power EU Operation - VOC War Room,EU Power VOC War Room</t>
+  </si>
+  <si>
+    <t>Power Procurement,Power Procurement - Standard,Power Procurement - Authorized,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool,EU Power Procurement &amp; Finance Overview,EU Power Supply Chain - Planning &amp; Forecast,EU Power Supply Chain - Order to Delivery</t>
+  </si>
+  <si>
+    <t>Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination,Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade,Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval,Leads to Operation - Q-300-B-1 EU PUS LTO,Bi - Weekly Project Approval Process,PUS Operation Approval Process</t>
+  </si>
+  <si>
+    <t>COE Product Design - PMK EU - MSRP Pricing SOP,COE Product Design - PMK EU - User Behavior Tracking System - UBTS,COE Product Design - PMK EU - Market Intelligence Europe</t>
   </si>
   <si>
     <t>COE Product Design - Europe Product Experience - User Closed-Loop,COE Product Design - Europe Product Experience - Sud Experience Confirmation</t>
   </si>
   <si>
-    <t>Long Term Volume Planning,Competitor Definition,Pre MP And Launch Stock Ordering,Pricing,Option Offer,Product Briefing,GTM Cadence,GTM Milestone Adjustment,OTA,COE Product Design - Product Marketing Department - PMK - Digital GTM EU</t>
+    <t>COE Product Design - PMK EU - Long Term Volume Planning Process,Competitor Definition,COE Product Design - PMK EU - Pre MP And Launch Stock Ordering,COE Product Design - PMK EU - Pricing,COE Product Design - PMK EU - Option Offer,COE Product Design - PMK EU - Product Briefing,COE Product Design - PMK EU - GTM Cadence,COE Product Design - PMK EU - GTM Milestone Adjustment,OTA,COE Product Design - PMK EU- Digital GTM Process</t>
   </si>
   <si>
     <t>Complete Purchasing Process</t>
@@ -340,7 +340,7 @@
     <t>Fleet And Business Direct Sales - Without Partner,Bulk Deal Offer Approval,Fleet And Business Direct Sales - With Partner,Fleet And Business Weekly Governance And Reporting</t>
   </si>
   <si>
-    <t>User Experiences Normal Testdrive,User Returns A Purchase Car,Fellow Complete Testdrive,Fellow Handles A Testdrive</t>
+    <t>User Experiences Normal Testdrive,User Returns A Purchase Car</t>
   </si>
   <si>
     <t>Create A New Promotion,Subscription Pricing Definition,Subscripiton Dynamic Pricing &amp; Seasonal Discount,Ancillary Fees,Commercial Condition For Special Deals,Commercial Condition Policies,Trade ins,RV Study</t>
@@ -379,7 +379,7 @@
     <t>Spare Parts Planning &amp; Operation - New Project Parts Readiness,Spare Parts Planning &amp; Operation - Low Star Management,Spare Parts Planning &amp; Operation,Spare Parts Planning &amp; Operation - Parts Masterdata,Spare Parts Planning &amp; Operation - Parts Price,Spare Parts Planning &amp; Operation - Parts Scrap,Spare Parts Planning &amp; Operation - Parts Inventory,Spare Parts Planning &amp; Operation - Parts Planning And Order Operation,Spare Parts Planning &amp; Operation - Logistics - Supplier,Spare Parts Planning &amp; Operation - Logistics - Logistics,Spare Parts Planning &amp; Operation - Claim Management,Spare Parts Planning &amp; Operation - Special Tools Order</t>
   </si>
   <si>
-    <t>Accessory Planning &amp; Operation,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-Vehicle,Accessory Planning &amp; Operation - Accessory Development:After-Sales Accessory-No-Vehicle,Accessory Planning &amp; Operation - Accessory Order -Local Sourcing Export,Accessory Planning &amp; Operation - Accessory Logistics,Accessory Planning &amp; Operation - Online Product Set Up,Accessory Planning &amp; Operation - Order Follow Up,Accessory Planning &amp; Operation - Accessory Price</t>
+    <t>Accessory Planning &amp; Operation,Accessory Planning &amp; Operation - Accessory Development - After Sales Accessory - Vehicle,Accessory Planning &amp; Operation - Accessory Development After-Sales Accessory - No - Vehicle,Accessory Planning &amp; Operation - Accessory Order -Local Sourcing Export,Accessory Planning &amp; Operation - Accessory Logistics,Accessory Planning &amp; Operation - Online Product Set Up,Accessory Planning &amp; Operation - Order Follow Up,Accessory Planning &amp; Operation - Accessory Price</t>
   </si>
   <si>
     <t>Emergency Response - EU Emergency Response</t>
@@ -391,10 +391,10 @@
     <t>Service Campaign - Service Campaign Release And Operation</t>
   </si>
   <si>
-    <t>Technical Training - Technical Training Management,Technical Training</t>
-  </si>
-  <si>
-    <t>Fleet Management,Fleet Operation,Fleet Operation - Infleeting Operation Management,Fleet Operation - Delivery Management,Fleet Operation - Vehicle Using Management - Violation Ticket Management,Fleet Operation - Return Management,Fleet Planning &amp; Internal Car Management,Fleet Planning &amp; Internal Car Management - Internal Car Application,Fleet Planning &amp; Internal Car Management - Internal Car Using</t>
+    <t>Technical Training - Technical Training Management</t>
+  </si>
+  <si>
+    <t>Fleet Operation,Fleet Operation - Infleeting Operation Management,Fleet Operation - Delivery Management,Fleet Operation - Vehicle Using Management - Violation Ticket Management,Fleet Operation - Return Management,Fleet Planning &amp; Internal Car Management,Fleet Planning &amp; Internal Car Management - Internal Car Application,Fleet Planning &amp; Internal Car Management - Internal Car Using</t>
   </si>
   <si>
     <t>Quality,Quality Issue Management,EU Quality Issue Management</t>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="170">
   <si>
     <t>Capability</t>
   </si>
@@ -292,22 +292,19 @@
     <t>Achieve Satisfaction Target</t>
   </si>
   <si>
-    <t>EB Quartlery 5 Year Budget Planning</t>
-  </si>
-  <si>
     <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities - Ropa,EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
   </si>
   <si>
     <t>NIO Life - Export - Planned Export,NIO Life - New Store Opening,NIO Life - Replenishment,NIO Life - Offline Display,NIO Life - Internal Application,NIO Life - Export - Export For Internal Applicatioin</t>
   </si>
   <si>
-    <t>Power EU Operation - VOC War Room,EU Power VOC War Room</t>
+    <t>EU Power VOC War Room</t>
   </si>
   <si>
     <t>Power Procurement,Power Procurement - Standard,Power Procurement - Authorized,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool,EU Power Procurement &amp; Finance Overview,EU Power Supply Chain - Planning &amp; Forecast,EU Power Supply Chain - Order to Delivery</t>
   </si>
   <si>
-    <t>Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination,Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade,Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval,Leads to Operation - Q-300-B-1 EU PUS LTO,Bi - Weekly Project Approval Process,PUS Operation Approval Process</t>
+    <t>Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination,Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade,Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval,Leads to Operation - Q-300-B-1 EU PUS LTO,Bi - Weekly Project Approval Process,PUS Operation Approval Process,PUS Operation Approval Process - PUS checklist preparation &amp; readiness ,PUS Operation Approval Process - PUS launch final approval,PUS Operation Approval Process - Approvals &amp; next steps</t>
   </si>
   <si>
     <t>COE Product Design - PMK EU - MSRP Pricing SOP,COE Product Design - PMK EU - User Behavior Tracking System - UBTS,COE Product Design - PMK EU - Market Intelligence Europe</t>
@@ -930,10 +927,10 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -950,10 +947,10 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -970,10 +967,10 @@
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -990,10 +987,10 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1010,10 +1007,10 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1030,10 +1027,10 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1049,14 +1046,11 @@
       <c r="D8" t="s">
         <v>90</v>
       </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1073,10 +1067,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1093,10 +1087,10 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1113,7 +1107,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1130,10 +1124,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1150,10 +1144,10 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1170,10 +1164,10 @@
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1190,10 +1184,10 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1210,10 +1204,10 @@
         <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1230,10 +1224,10 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1250,10 +1244,10 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1270,7 +1264,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,10 +1281,10 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1307,10 +1301,10 @@
         <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1327,13 +1321,13 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1350,10 +1344,10 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1370,13 +1364,13 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1393,13 +1387,13 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1416,10 +1410,10 @@
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1436,10 +1430,10 @@
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1456,13 +1450,13 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1479,13 +1473,13 @@
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1502,13 +1496,13 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1525,13 +1519,13 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1548,10 +1542,10 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1568,7 +1562,7 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1585,10 +1579,10 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1605,13 +1599,13 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1628,7 +1622,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1645,10 +1639,10 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1665,10 +1659,10 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1685,7 +1679,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1702,7 +1696,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1719,7 +1713,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1736,7 +1730,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1753,7 +1747,7 @@
         <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1770,13 +1764,13 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1793,10 +1787,10 @@
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1813,10 +1807,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1833,13 +1827,13 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1856,13 +1850,13 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1879,7 +1873,7 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1896,10 +1890,10 @@
         <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1916,10 +1910,10 @@
         <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1936,10 +1930,10 @@
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1956,13 +1950,13 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1979,13 +1973,13 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2002,13 +1996,13 @@
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2025,10 +2019,10 @@
         <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2045,10 +2039,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2065,10 +2059,10 @@
         <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2085,13 +2079,13 @@
         <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2108,10 +2102,10 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2128,10 +2122,10 @@
         <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2148,10 +2142,10 @@
         <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2168,10 +2162,10 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2188,7 +2182,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2205,7 +2199,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2219,7 +2213,7 @@
         <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2233,7 +2227,7 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2247,7 +2241,7 @@
         <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,7 +2255,7 @@
         <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2275,7 +2269,7 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2289,7 +2283,7 @@
         <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2303,7 +2297,7 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2317,7 +2311,7 @@
         <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2331,7 +2325,7 @@
         <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2345,7 +2339,7 @@
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2359,7 +2353,7 @@
         <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2373,7 +2367,7 @@
         <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2395,7 +2389,7 @@
         <v>89</v>
       </c>
       <c r="E79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2409,7 +2403,7 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2423,7 +2417,7 @@
         <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2437,7 +2431,7 @@
         <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2451,7 +2445,7 @@
         <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -346,7 +346,7 @@
     <t>EB User Operation - Partner Strategy,EB User Operation - Partner Strategy - Identification &amp; evaluation,EB User Operation - Partner Strategy - Partnering initiation,EB User Operation - Partner Strategy - Partnership negotiation,EB User Operation - Partner Strategy - Signing,EB User Operation - Partner Strategy - Execution,EB User Operation - Partner Strategy - Dissolution</t>
   </si>
   <si>
-    <t>User Satisfaction - Service Coordinator - Globales,User Satisfaction - Service Coordinator - Globales - General,User Satisfaction - Service Coordinator - Globales - General - User Om: Way Of Working,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO - Returning Car &amp; Power Accessories,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO - Recycling Batteries And Cars,User Satisfaction - Service Coordinator - Globales - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Life - Return NIO Life Products,User Satisfaction - Service Coordinator - Globales - NIO Life - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Sales UO,User Satisfaction - Service Coordinator - Globales - NIO Points,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Redemption,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Point Missing,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Distribution,User Satisfaction - Service Coordinator - Globales - NIO Power PE,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Battery Monitoring,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Battery Charging or Super Chargers,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Charging Map,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Deleting Charging &amp; Battery Swap Order,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Home Charger Activation,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Power Swap Station,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Power Charging,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Nfc Card Activation,User Satisfaction - Service Coordinator - Globales - Vehicle,User Satisfaction - Service Coordinator - Globales - Vehicle - Autonomous Drivinig Issues,User Satisfaction - Service Coordinator - Globales - Vehicle - Hvdi Emergency Fault Response,User Satisfaction - Service Coordinator - Globales - Vehicle - Sota&amp;FOTA Update Failed,User Satisfaction - Service Coordinator - Globales - Vehicle - Vehicle Trouble Shooting,User Satisfaction - Service Coordinator - Globales - NIO App,User Satisfaction - Service Coordinator - SCR Template Name,User Satisfaction - Service Coordinator - E2E SCR UR Expert,User Satisfaction - Service Coordinator - Globales - General - Knowledge Library,User Satisfaction - Service Coordinator - Globales - General - Tagging SCR</t>
+    <t>User Satisfaction - Service Coordinator - Globales,User Satisfaction - Service Coordinator - Globales - General,User Satisfaction - Service Coordinator - Globales - General - User Om Way Of Working,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO - Returning Car &amp; Power Accessories,User Satisfaction - Service Coordinator - Globales - NIO Aftersales SO - Recycling Batteries And Cars,User Satisfaction - Service Coordinator - Globales - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Life - Return NIO Life Products,User Satisfaction - Service Coordinator - Globales - NIO Life - NIO Life,User Satisfaction - Service Coordinator - Globales - NIO Sales UO,User Satisfaction - Service Coordinator - Globales - NIO Points,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Redemption,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Point Missing,User Satisfaction - Service Coordinator - Globales - NIO Points - NIO Points Distribution,User Satisfaction - Service Coordinator - Globales - NIO Power PE,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Battery Monitoring,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Battery Charging or Super Chargers,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Charging Map,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Deleting Charging &amp; Battery Swap Order,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Home Charger Activation,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Power Swap Station,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Power Charging,User Satisfaction - Service Coordinator - Globales - NIO Power PE - Nfc Card Activation,User Satisfaction - Service Coordinator - Globales - Vehicle,User Satisfaction - Service Coordinator - Globales - Vehicle - Autonomous Drivinig Issues,User Satisfaction - Service Coordinator - Globales - Vehicle - Hvdi Emergency Fault Response,User Satisfaction - Service Coordinator - Globales - Vehicle - Sota&amp;FOTA Update Failed,User Satisfaction - Service Coordinator - Globales - Vehicle - Vehicle Trouble Shooting,User Satisfaction - Service Coordinator - Globales - NIO App,User Satisfaction - Service Coordinator - SCR Template Name,User Satisfaction - Service Coordinator - E2E SCR UR Expert,User Satisfaction - Service Coordinator - Globales - General - Knowledge Library,User Satisfaction - Service Coordinator - Globales - General - Tagging SCR</t>
   </si>
   <si>
     <t>User Satisfaction - User Relations Management,User Satisfaction - User Relations Management - NIO Points,User Satisfaction - User Relations Management - NIO Points - NIO Points User Manual,User Satisfaction - User Relations Management - NIO Points - Points Scenarios &amp; Standards &amp; Referral Rules,User Satisfaction - User Relations Management - NIO Points - Points and Coupon Instruction,User Satisfaction - User Relations Management - 5-Star Rating - 5-Star Scenario &amp; Schedule,User Satisfaction - User Relations Management - 5-Star Rating - Low-Star Follow Up SOP,User Satisfaction - User Relations Management - Ucls,User Satisfaction - User Relations Management - User Commmunity - Users Meet Developers,User Satisfaction - User Relations Management - User Commmunity - User Navigator,User Satisfaction - User Relations Management - User Commmunity - UAB,User Satisfaction - User Relations Management - User Commmunity - Community Account,User Satisfaction - User Relations Management - User Commmunity - User F2F,User Satisfaction - User Relations Management - User Response - Daily Low Star Response,User Satisfaction - User Relations Management - User Response - User Response Library Usage SOP,User Satisfaction - User Relations Management - Weekly Report - EU UR Shared Event Calendar,User Satisfaction - User Relations Management - Weekly Report - NIO App User Feedback</t>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="171">
   <si>
     <t>Capability</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Achieve Satisfaction Target</t>
+  </si>
+  <si>
+    <t>Internal Referral Process</t>
   </si>
   <si>
     <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities - Ropa,EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
@@ -927,10 +930,10 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -947,10 +950,10 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -967,10 +970,10 @@
         <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -987,10 +990,10 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1007,10 +1010,10 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1027,10 +1030,10 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1047,10 +1050,10 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1067,10 +1070,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1087,10 +1090,10 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1107,7 +1110,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1124,10 +1127,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1144,10 +1147,10 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1164,10 +1167,10 @@
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1184,10 +1187,10 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1203,11 +1206,14 @@
       <c r="D16" t="s">
         <v>90</v>
       </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1224,10 +1230,10 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1244,10 +1250,10 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,7 +1270,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1281,10 +1287,10 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1301,10 +1307,10 @@
         <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1321,13 +1327,13 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1344,10 +1350,10 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1364,13 +1370,13 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1387,13 +1393,13 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1410,10 +1416,10 @@
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1430,10 +1436,10 @@
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1450,13 +1456,13 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1473,13 +1479,13 @@
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1496,13 +1502,13 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1519,13 +1525,13 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1542,10 +1548,10 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1562,7 +1568,7 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1579,10 +1585,10 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1599,13 +1605,13 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1622,7 +1628,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1639,10 +1645,10 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1659,10 +1665,10 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1679,7 +1685,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1696,7 +1702,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1713,7 +1719,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1730,7 +1736,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1747,7 +1753,7 @@
         <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1764,13 +1770,13 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1787,10 +1793,10 @@
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1807,10 +1813,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1827,13 +1833,13 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1850,13 +1856,13 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1873,7 +1879,7 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1890,10 +1896,10 @@
         <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1910,10 +1916,10 @@
         <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1930,10 +1936,10 @@
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1950,13 +1956,13 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1973,13 +1979,13 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1996,13 +2002,13 @@
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2019,10 +2025,10 @@
         <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2039,10 +2045,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2059,10 +2065,10 @@
         <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2079,13 +2085,13 @@
         <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2102,10 +2108,10 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2122,10 +2128,10 @@
         <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2142,10 +2148,10 @@
         <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2162,10 +2168,10 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2182,7 +2188,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2199,7 +2205,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2213,7 +2219,7 @@
         <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2227,7 +2233,7 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2241,7 +2247,7 @@
         <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2255,7 +2261,7 @@
         <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2269,7 +2275,7 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2283,7 +2289,7 @@
         <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2297,7 +2303,7 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2311,7 +2317,7 @@
         <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2325,7 +2331,7 @@
         <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2339,7 +2345,7 @@
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2353,7 +2359,7 @@
         <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2367,7 +2373,7 @@
         <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2389,7 +2395,7 @@
         <v>89</v>
       </c>
       <c r="E79" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2403,7 +2409,7 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2417,7 +2423,7 @@
         <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2431,7 +2437,7 @@
         <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2445,7 +2451,7 @@
         <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -319,7 +319,7 @@
     <t>COE Product Design - PMK EU - Long Term Volume Planning Process,Competitor Definition,COE Product Design - PMK EU - Pre MP And Launch Stock Ordering,COE Product Design - PMK EU - Pricing,COE Product Design - PMK EU - Option Offer,COE Product Design - PMK EU - Product Briefing,COE Product Design - PMK EU - GTM Cadence,COE Product Design - PMK EU - GTM Milestone Adjustment,OTA,COE Product Design - PMK EU- Digital GTM Process</t>
   </si>
   <si>
-    <t>Complete Purchasing Process</t>
+    <t>Complete Purchasing Process,Standard Selection,Fast Sourcing,Orientational Selection,Single Sourced Selection,Urgent Sourcing,End-to-End Partner Management</t>
   </si>
   <si>
     <t>Europe Market Planning - 5 Yrs Planning,Europe Market Planning,Europe Market Planning - 5 Yrs Planning - 5 Yrs Sales Volume Planning,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Future Portfolio Mapping,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Business Model,Europe Market Planning - 5 Yrs Planning - Market Expansion 5 Yrs Assumptions - Market Entry Cadence &amp; Infrasturcutre,Europe Market Planning - Wave2 Market Entry PMO,Europe Market Planning - Governance PMO,Europe Market Planning - Governance PMO - Entity Setup,5Yr Planning Flow</t>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="173">
   <si>
     <t>Capability</t>
   </si>
@@ -292,10 +292,13 @@
     <t>Achieve Satisfaction Target</t>
   </si>
   <si>
+    <t>COE Digital - Digital development PMO - Online Issue of Bugs,COE Digital - Digital development PMO - Present New Business Requirements,COE Digital - Digital development PMO - Q&amp;A</t>
+  </si>
+  <si>
     <t>Internal Referral Process</t>
   </si>
   <si>
-    <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities - Ropa,EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
+    <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities - Ropa,EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,EU Legal - Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
   </si>
   <si>
     <t>NIO Life - Export - Planned Export,NIO Life - New Store Opening,NIO Life - Replenishment,NIO Life - Offline Display,NIO Life - Internal Application,NIO Life - Export - Export For Internal Applicatioin</t>
@@ -329,6 +332,9 @@
   </si>
   <si>
     <t>Financing,Settlement Management,NSC Settlement Management,ASC Settlement Management,RDC Settlement Management,Supplier Settlement Management,Collection Management</t>
+  </si>
+  <si>
+    <t>EPX - Construction - Construction Management Standard Process</t>
   </si>
   <si>
     <t>EB User Development - Communication &amp; Events - NIO House Launch Event &amp; Communication,EB User Development - Communication &amp; Events - Power Swap Station Opening Communication,EB User Development - Communication &amp; Events - Product go-to-market communication,EB User Development - Communication &amp; Events - NIO Summer</t>
@@ -930,10 +936,10 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -950,10 +956,10 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -969,11 +975,14 @@
       <c r="D4" t="s">
         <v>90</v>
       </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -990,10 +999,10 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1010,10 +1019,10 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1030,10 +1039,10 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1050,10 +1059,10 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1070,10 +1079,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1090,10 +1099,10 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1110,7 +1119,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1127,10 +1136,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1147,10 +1156,10 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1167,10 +1176,10 @@
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1187,10 +1196,10 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1207,13 +1216,13 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1230,10 +1239,10 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1250,10 +1259,10 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1270,7 +1279,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,10 +1296,10 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1307,10 +1316,10 @@
         <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1327,13 +1336,13 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1350,10 +1359,10 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1370,13 +1379,13 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1393,13 +1402,13 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1416,10 +1425,10 @@
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1436,10 +1445,10 @@
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1456,13 +1465,13 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1479,13 +1488,13 @@
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1502,13 +1511,13 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1525,13 +1534,13 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1548,10 +1557,10 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1568,7 +1577,7 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1585,10 +1594,10 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1605,13 +1614,13 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1628,7 +1637,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1645,10 +1654,10 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1665,10 +1674,10 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1685,7 +1694,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1702,7 +1711,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1719,7 +1728,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1736,7 +1745,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1753,7 +1762,7 @@
         <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1770,13 +1779,13 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1793,10 +1802,10 @@
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1813,10 +1822,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1833,13 +1842,13 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1856,13 +1865,13 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1879,7 +1888,7 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1896,10 +1905,10 @@
         <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G50" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1915,11 +1924,14 @@
       <c r="D51" t="s">
         <v>91</v>
       </c>
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
       <c r="F51" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1936,10 +1948,10 @@
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1956,13 +1968,13 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1979,13 +1991,13 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2002,13 +2014,13 @@
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2025,10 +2037,10 @@
         <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2045,10 +2057,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G57" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2065,10 +2077,10 @@
         <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2085,13 +2097,13 @@
         <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2108,10 +2120,10 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2128,10 +2140,10 @@
         <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2148,10 +2160,10 @@
         <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2168,10 +2180,10 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2188,7 +2200,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2205,7 +2217,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2219,7 +2231,7 @@
         <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2233,7 +2245,7 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2247,7 +2259,7 @@
         <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2261,7 +2273,7 @@
         <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2275,7 +2287,7 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2289,7 +2301,7 @@
         <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2303,7 +2315,7 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2317,7 +2329,7 @@
         <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2331,7 +2343,7 @@
         <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2345,7 +2357,7 @@
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2359,7 +2371,7 @@
         <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2373,7 +2385,7 @@
         <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2395,7 +2407,7 @@
         <v>89</v>
       </c>
       <c r="E79" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2409,7 +2421,7 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2423,7 +2435,7 @@
         <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2437,7 +2449,7 @@
         <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2451,7 +2463,7 @@
         <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -337,7 +337,7 @@
     <t>EPX - Construction - Construction Management Standard Process</t>
   </si>
   <si>
-    <t>EB User Development - Communication &amp; Events - NIO House Launch Event &amp; Communication,EB User Development - Communication &amp; Events - Power Swap Station Opening Communication,EB User Development - Communication &amp; Events - Product go-to-market communication,EB User Development - Communication &amp; Events - NIO Summer</t>
+    <t>EB User Development - Communication &amp; Events - NIO House Launch Event &amp; Communication,EB User Development - Communication &amp; Events - Power Swap Station Opening Communication,EB User Development - Communication &amp; Events - Product go-to-market communication,EB User Development - Communication &amp; Events - NIO Summer,EB User Development - Communication &amp; Events - Tech Talk,EB User Development - Communication &amp; Events - Seeds</t>
   </si>
   <si>
     <t>EB User Development - PR - NIO Global Spokesperson Rules,EB User Development - PR - NIO Global Spokesperson Rules - Public Activities,EB User Development - PR - NIO Global Spokesperson Rules - Media Interview</t>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="174">
   <si>
     <t>Capability</t>
   </si>
@@ -298,6 +298,9 @@
     <t>Internal Referral Process</t>
   </si>
   <si>
+    <t>EU standard offboarding process,EU standard onboarding process,EU standard probation process</t>
+  </si>
+  <si>
     <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities - Ropa,EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,EU Legal - Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
   </si>
   <si>
@@ -310,7 +313,7 @@
     <t>Power Procurement,Power Procurement - Standard,Power Procurement - Authorized,Power EU Supply Chain Planning &amp; Forecast,Power EU Supply Chain Order To Delivery,Power EU Supply Chain Order To Delivery - PSS Direct To Site,Power EU Supply Chain Order To Delivery - Batteries Direct To Site,Power EU Supply Chain Order To Delivery - Internal Use,Power EU Supply Chain Order To Delivery - User Orders Via NIO App,Power EU Supply Chain Order To Delivery - Free Offer With Car Pool,EU Power Procurement &amp; Finance Overview,EU Power Supply Chain - Planning &amp; Forecast,EU Power Supply Chain - Order to Delivery</t>
   </si>
   <si>
-    <t>Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination,Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade,Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval,Leads to Operation - Q-300-B-1 EU PUS LTO,Bi - Weekly Project Approval Process,PUS Operation Approval Process,PUS Operation Approval Process - PUS checklist preparation &amp; readiness ,PUS Operation Approval Process - PUS launch final approval,PUS Operation Approval Process - Approvals &amp; next steps</t>
+    <t>Power EU PUS Leads To Operation Q-300-B-1 EU PUS Lto,Power EU PUS Leads To Operation - EU Annual Planning And Budget Approval,Power EU PUS Leads To Operation - Country Annual Planning And Budget Approval,Power EU PUS Leads To Operation - LTO,Power EU PUS Leads To Operation - LTO - Leads To Contract,Power EU PUS Leads To Operation - LTO - Contract To Operation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Leads Collection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Site Inspection,Power EU PUS Leads To Operation - LTO - Leads To Contract - Quotation,Power EU PUS Leads To Operation - LTO - Leads To Contract - Project Approval,Power EU PUS Leads To Operation - LTO - Leads To Contract - Contracting,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Kick off,Power EU PUS Leads To Operation - LTO - Contract To Operation - Announcement - Partner Nomination,Power EU PUS Leads To Operation - LTO - Contract To Operation - Construction Permit,Power EU PUS Leads To Operation - LTO - Contract To Operation - Grid Connection &amp; Upgrade,Power EU PUS Leads To Operation - LTO - Contract To Operation - Civil Construction,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Device Installation,Power EU PUS Leads To Operation - LTO - Contract To Operation - Installation &amp; Commissioning - Installation &amp; Commissioning,Power EU PUS Leads To Operation - LTO - Contract To Operation - PUS Ready For Service,Power EU PUS Leads To Operation - LTO - Contract To Operation - Launch,Power EU PUS Leads To Operation - Power EU PUS Step By Step,Power EU PUS Leads To Operation - PUS Operation Approval,Leads to Operation - Q-300-B-1 EU PUS LTO,Bi - Weekly Project Approval Process,PUS Operation Approval Process - OPA,PUS Operation Approval Process - PUS checklist preparation &amp; readiness ,PUS Operation Approval Process - PUS launch final approval,PUS Operation Approval Process - Approvals &amp; next steps</t>
   </si>
   <si>
     <t>COE Product Design - PMK EU - MSRP Pricing SOP,COE Product Design - PMK EU - User Behavior Tracking System - UBTS,COE Product Design - PMK EU - Market Intelligence Europe</t>
@@ -936,10 +939,10 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -956,10 +959,10 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -979,10 +982,10 @@
         <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -999,10 +1002,10 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1019,10 +1022,10 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1039,10 +1042,10 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1059,10 +1062,10 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1079,10 +1082,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1099,10 +1102,10 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1119,7 +1122,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1136,10 +1139,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1156,10 +1159,10 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1176,10 +1179,10 @@
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1196,10 +1199,10 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1219,10 +1222,10 @@
         <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1239,10 +1242,10 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1259,10 +1262,10 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1279,7 +1282,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1296,10 +1299,10 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1315,11 +1318,14 @@
       <c r="D21" t="s">
         <v>90</v>
       </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
       <c r="F21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1336,13 +1342,13 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1359,10 +1365,10 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1379,13 +1385,13 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1402,13 +1408,13 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1425,10 +1431,10 @@
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1445,10 +1451,10 @@
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1465,13 +1471,13 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1488,13 +1494,13 @@
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1511,13 +1517,13 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1534,13 +1540,13 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1557,10 +1563,10 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1577,7 +1583,7 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1594,10 +1600,10 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1614,13 +1620,13 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1637,7 +1643,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1654,10 +1660,10 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1674,10 +1680,10 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1694,7 +1700,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1711,7 +1717,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1728,7 +1734,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1745,7 +1751,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1762,7 +1768,7 @@
         <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1779,13 +1785,13 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1802,10 +1808,10 @@
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1822,10 +1828,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1842,13 +1848,13 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1865,13 +1871,13 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1888,7 +1894,7 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1905,10 +1911,10 @@
         <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1925,13 +1931,13 @@
         <v>91</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1948,10 +1954,10 @@
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1968,13 +1974,13 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1991,13 +1997,13 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2014,13 +2020,13 @@
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2037,10 +2043,10 @@
         <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2057,10 +2063,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2077,10 +2083,10 @@
         <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2097,13 +2103,13 @@
         <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2120,10 +2126,10 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2140,10 +2146,10 @@
         <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2160,10 +2166,10 @@
         <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2180,10 +2186,10 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2200,7 +2206,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2217,7 +2223,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2231,7 +2237,7 @@
         <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2245,7 +2251,7 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2259,7 +2265,7 @@
         <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2273,7 +2279,7 @@
         <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2287,7 +2293,7 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2301,7 +2307,7 @@
         <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2315,7 +2321,7 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2329,7 +2335,7 @@
         <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2343,7 +2349,7 @@
         <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2357,7 +2363,7 @@
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2371,7 +2377,7 @@
         <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2385,7 +2391,7 @@
         <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2407,7 +2413,7 @@
         <v>89</v>
       </c>
       <c r="E79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2421,7 +2427,7 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2435,7 +2441,7 @@
         <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2449,7 +2455,7 @@
         <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2463,7 +2469,7 @@
         <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/w_before replace  Capability.xlsx
+++ b/w_before replace  Capability.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="175">
   <si>
     <t>Capability</t>
   </si>
@@ -295,13 +295,16 @@
     <t>COE Digital - Digital development PMO - Online Issue of Bugs,COE Digital - Digital development PMO - Present New Business Requirements,COE Digital - Digital development PMO - Q&amp;A</t>
   </si>
   <si>
+    <t>NIO VAU Management(Target Management)</t>
+  </si>
+  <si>
     <t>Internal Referral Process</t>
   </si>
   <si>
     <t>EU standard offboarding process,EU standard onboarding process,EU standard probation process</t>
   </si>
   <si>
-    <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities - Ropa,EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,EU Legal - Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,Data Protection Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
+    <t>Privacy Impact Assessment - Pia,Maintenance Of Register Ofing Activities - Ropa,EU Legal - Data Protection,EU Legal - Data Protection - Data Protection Risk Management,Contract Review,EU Legal - Corporate Changes,Creation Or Update Of Data Deletion And Retention Concept,Data Breach Response,EU Legal - Data Protection - Agreement Review,Data Proteciton Risk Management,EBE Collection Of Large 2B Transactions,General Requests To Legal Department,Mail Intake,ROPA Reporting,User Term Changes</t>
   </si>
   <si>
     <t>NIO Life - Export - Planned Export,NIO Life - New Store Opening,NIO Life - Replenishment,NIO Life - Offline Display,NIO Life - Internal Application,NIO Life - Export - Export For Internal Applicatioin</t>
@@ -939,10 +942,10 @@
         <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -959,10 +962,10 @@
         <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -982,10 +985,10 @@
         <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1002,10 +1005,10 @@
         <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1022,10 +1025,10 @@
         <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1042,10 +1045,10 @@
         <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1062,10 +1065,10 @@
         <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1082,10 +1085,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1102,10 +1105,10 @@
         <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1122,7 +1125,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1139,10 +1142,10 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1159,10 +1162,10 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1178,11 +1181,14 @@
       <c r="D14" t="s">
         <v>90</v>
       </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1199,10 +1205,10 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1219,13 +1225,13 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1242,10 +1248,10 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1262,10 +1268,10 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1282,7 +1288,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1299,10 +1305,10 @@
         <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1319,13 +1325,13 @@
         <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1342,13 +1348,13 @@
         <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1365,10 +1371,10 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1385,13 +1391,13 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1408,13 +1414,13 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1431,10 +1437,10 @@
         <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1451,10 +1457,10 @@
         <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1471,13 +1477,13 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1494,13 +1500,13 @@
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1517,13 +1523,13 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1540,13 +1546,13 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1563,10 +1569,10 @@
         <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1583,7 +1589,7 @@
         <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1600,10 +1606,10 @@
         <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1620,13 +1626,13 @@
         <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1643,7 +1649,7 @@
         <v>90</v>
       </c>
       <c r="G36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1660,10 +1666,10 @@
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1680,10 +1686,10 @@
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1700,7 +1706,7 @@
         <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1717,7 +1723,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1734,7 +1740,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1751,7 +1757,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1768,7 +1774,7 @@
         <v>90</v>
       </c>
       <c r="G43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1785,13 +1791,13 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1808,10 +1814,10 @@
         <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1828,10 +1834,10 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1848,13 +1854,13 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1871,13 +1877,13 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1894,7 +1900,7 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1911,10 +1917,10 @@
         <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1931,13 +1937,13 @@
         <v>91</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1954,10 +1960,10 @@
         <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1974,13 +1980,13 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1997,13 +2003,13 @@
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2020,13 +2026,13 @@
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2043,10 +2049,10 @@
         <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2063,10 +2069,10 @@
         <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2083,10 +2089,10 @@
         <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2103,13 +2109,13 @@
         <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2126,10 +2132,10 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2146,10 +2152,10 @@
         <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2166,10 +2172,10 @@
         <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2186,10 +2192,10 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2206,7 +2212,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2223,7 +2229,7 @@
         <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2237,7 +2243,7 @@
         <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2251,7 +2257,7 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2265,7 +2271,7 @@
         <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2279,7 +2285,7 @@
         <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2293,7 +2299,7 @@
         <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2307,7 +2313,7 @@
         <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2321,7 +2327,7 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2335,7 +2341,7 @@
         <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2349,7 +2355,7 @@
         <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2363,7 +2369,7 @@
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2377,7 +2383,7 @@
         <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2391,7 +2397,7 @@
         <v>89</v>
       </c>
       <c r="E77" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2413,7 +2419,7 @@
         <v>89</v>
       </c>
       <c r="E79" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2427,7 +2433,7 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2441,7 +2447,7 @@
         <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2455,7 +2461,7 @@
         <v>89</v>
       </c>
       <c r="E82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2469,7 +2475,7 @@
         <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
